--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69902E8-4094-4860-B2FB-14961092B683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA329842-62C8-4531-B43B-20C5364E29E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="211">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -537,6 +537,139 @@
   </si>
   <si>
     <t>Verwende einen Mexican hat filter filter auf das eingegebene Raster.</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Agterberg-Cheng CI test (weights of evidence)</t>
+  </si>
+  <si>
+    <t>Classifier predict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classifier test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuzzy overlay </t>
+  </si>
+  <si>
+    <t>Gradient boosting classifier</t>
+  </si>
+  <si>
+    <t>Gradient boosting regressor</t>
+  </si>
+  <si>
+    <t>Logistic regression</t>
+  </si>
+  <si>
+    <t>MLP classifier</t>
+  </si>
+  <si>
+    <t>MLP regressor</t>
+  </si>
+  <si>
+    <t>Random forest classifier</t>
+  </si>
+  <si>
+    <t>Random forest regressor</t>
+  </si>
+  <si>
+    <t>Regressor predict</t>
+  </si>
+  <si>
+    <t>Regressor test</t>
+  </si>
+  <si>
+    <t>Weights of evidence calculate responses</t>
+  </si>
+  <si>
+    <t>Weights of evidence calculate weights</t>
+  </si>
+  <si>
+    <t>Berechne eine 'und' Overlay-Operation mit unscharfer Logik.</t>
+  </si>
+  <si>
+    <t>Berechne eine 'oder' Overlay-Operation mit unscharfer Logik.</t>
+  </si>
+  <si>
+    <t>Berechne eine 'product' Overlay-Operation mit unscharfer Logik.</t>
+  </si>
+  <si>
+    <t>Berechne eine 'sum' Overlay-Operation mit unscharfer Logik.</t>
+  </si>
+  <si>
+    <t>Berechne eine 'gamma' Overlay-Operation mit unscharfer Logik.</t>
+  </si>
+  <si>
+    <t>numpy, eis_toolkit.exceptions, eis_toolkit.utilities.raster</t>
+  </si>
+  <si>
+    <t>fuzzy_overlay.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/prediction/fuzzy_overlay.py</t>
+  </si>
+  <si>
+    <t>and_overlay, _prepare_data_for_fuzzy_overlay</t>
+  </si>
+  <si>
+    <t>or_overlay, _prepare_data_for_fuzzy_overlay_prepare_data_for_fuzzy_overlay</t>
+  </si>
+  <si>
+    <t>product_overlay, _prepare_data_for_fuzzy_overlay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sum_overlay, _prepare_data_for_fuzzy_overlay</t>
+  </si>
+  <si>
+    <t>gamma_overlay, _prepare_data_for_fuzzy_overlay</t>
+  </si>
+  <si>
+    <t>cli.py</t>
+  </si>
+  <si>
+    <t>classifier_test_cli, eis_toolkit.evaluation.scoring -&gt; score_predictions, eis_toolkit.prediction.machine_learning_general -&gt; load_model, prepare_data_for_ml, reshape_predictions, eis_toolkit.prediction.machine_learning_predict -&gt; predict_classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teste das trainierte maschinelle Lernklassifikationsmodell, indem du Vorhersagen triffst und bewertest.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L2797</t>
+  </si>
+  <si>
+    <t>Nicht gefunden?</t>
+  </si>
+  <si>
+    <t>weights_of_evidence.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> agterberg_cheng_CI_test, _calculate_nr_of_deposit_pixels, </t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/weights_of_evidence.py#L253</t>
+  </si>
+  <si>
+    <t>Führe den Konditionalunabhängigkeitstest durch, der von Agterberg-Cheng (2002) vorgestellt wurde.</t>
+  </si>
+  <si>
+    <t>numpy, pandas</t>
+  </si>
+  <si>
+    <t>gradient_boosting.py</t>
+  </si>
+  <si>
+    <t>Trainiere und optional validiere ein Gradient Boosting Klassifikationsmodell mit Sklearn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GradientBoostingRegressor, _train_and_validate_sklearn_model, </t>
+  </si>
+  <si>
+    <t>numpy, pandas, sklearn.ensemble -&gt; GradientBoostingClassifier, GradientBoostingRegressor,  eis_toolkit.exceptions -&gt; InvalidParameterValueException, eis_toolkit.prediction.machine_learning_general -&gt; _train_and_validate_sklearn_model</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/gradient_boosting.py#L14</t>
   </si>
 </sst>
 </file>
@@ -881,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -945,6 +1078,147 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,13 +1247,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -997,10 +1307,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1014,6 +1336,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1357,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1039,15 +1379,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,6 +1390,39 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1072,232 +1439,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1639,60 +1781,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:A68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="100" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" style="83" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" style="24" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="30" customWidth="1"/>
     <col min="6" max="6" width="31" style="22" customWidth="1"/>
     <col min="7" max="7" width="102.5546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="41" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1700,19 +1844,19 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="42" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1723,60 +1867,60 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="85" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="113" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="107" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="47"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="114"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="107" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="47"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="103" t="s">
+      <c r="C8" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="44" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="20" t="s">
@@ -1787,17 +1931,17 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="89" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="107" t="s">
+      <c r="E9" s="43" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="21" t="s">
@@ -1808,17 +1952,17 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="44" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="20" t="s">
@@ -1829,23 +1973,23 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="90" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="107" t="s">
+      <c r="E11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="115" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="3"/>
@@ -1860,15 +2004,15 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="107" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="48"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="115"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1881,15 +2025,15 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="107" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="48"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="115"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1902,15 +2046,15 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="107" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="48"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="115"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1923,15 +2067,15 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="107" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="48"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="115"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1944,15 +2088,15 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="107" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="48"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="115"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1965,15 +2109,15 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="107" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="48"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="115"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1986,15 +2130,15 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="107" t="s">
+      <c r="A18" s="71"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="48"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="115"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2007,183 +2151,183 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="108" t="s">
+      <c r="E19" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="98" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="92"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="108" t="s">
+      <c r="C20" s="95"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="98"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="92"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="108" t="s">
+      <c r="C21" s="95"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="98"/>
     </row>
     <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="93"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="108" t="s">
+      <c r="C22" s="96"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="90" t="s">
+      <c r="A23" s="71"/>
+      <c r="B23" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="107" t="s">
+      <c r="E23" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="44" t="s">
+      <c r="G23" s="107" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="107" t="s">
+      <c r="A24" s="71"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="44"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="107"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="107" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="44"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="107" t="s">
+      <c r="A26" s="71"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="44"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="107"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="25"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="109" t="s">
+      <c r="A27" s="72"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="43"/>
-      <c r="G27" s="45"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="108"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="109" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="123" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="110" t="s">
+      <c r="E28" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="120" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="111" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="52"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="121"/>
     </row>
     <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="111" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="52"/>
+      <c r="F30" s="119"/>
+      <c r="G30" s="121"/>
     </row>
     <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="111" t="s">
+      <c r="A31" s="71"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="53"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="122"/>
     </row>
     <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="97" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="35" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -2192,7 +2336,7 @@
       <c r="D32" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="112" t="s">
+      <c r="E32" s="47" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -2203,8 +2347,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="97" t="s">
+      <c r="A33" s="71"/>
+      <c r="B33" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -2213,7 +2357,7 @@
       <c r="D33" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="47" t="s">
         <v>75</v>
       </c>
       <c r="F33" s="10" t="s">
@@ -2224,136 +2368,136 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="98" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="116" t="s">
         <v>87</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="117" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="98" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="34" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="81" t="s">
+      <c r="D35" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="82"/>
+      <c r="E35" s="116"/>
       <c r="F35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="57"/>
+      <c r="G35" s="117"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="99" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="112" t="s">
+      <c r="E36" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="58" t="s">
+      <c r="F36" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G36" s="126" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="112" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="127"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="59"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="126"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="112" t="s">
+      <c r="A38" s="71"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="129"/>
+      <c r="E38" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="59"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="126"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="112" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="59"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="126"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="98" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="34" t="s">
         <v>96</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="81" t="s">
+      <c r="D40" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="82" t="s">
+      <c r="E40" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="119" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="57" t="s">
+      <c r="G40" s="117" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="98" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="34" t="s">
         <v>99</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="81" t="s">
+      <c r="D41" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="57"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="119"/>
+      <c r="G41" s="117"/>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="97" t="s">
+      <c r="A42" s="71"/>
+      <c r="B42" s="35" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -2362,7 +2506,7 @@
       <c r="D42" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="112" t="s">
+      <c r="E42" s="47" t="s">
         <v>107</v>
       </c>
       <c r="F42" s="10" t="s">
@@ -2373,241 +2517,241 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="98" t="s">
+      <c r="A43" s="71"/>
+      <c r="B43" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="116" t="s">
         <v>113</v>
       </c>
-      <c r="E43" s="82" t="s">
+      <c r="E43" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="F43" s="50" t="s">
+      <c r="F43" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="G43" s="57" t="s">
+      <c r="G43" s="117" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="98" t="s">
+      <c r="A44" s="71"/>
+      <c r="B44" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="57"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="117"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="99" t="s">
+      <c r="A45" s="71"/>
+      <c r="B45" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="113" t="s">
+      <c r="E45" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="58" t="s">
+      <c r="F45" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="59" t="s">
+      <c r="G45" s="126" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="59"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="127"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="126"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="59"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="127"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="126"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="59"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="127"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="126"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="99"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="59"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="127"/>
+      <c r="D49" s="140"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="126"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="96" t="s">
+      <c r="A50" s="71"/>
+      <c r="B50" s="112" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="111" t="s">
+      <c r="E50" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="G50" s="57" t="s">
+      <c r="G50" s="117" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="111" t="s">
+      <c r="A51" s="71"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="57"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="117"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="111" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="50"/>
-      <c r="G52" s="57"/>
+      <c r="F52" s="119"/>
+      <c r="G52" s="117"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="111" t="s">
+      <c r="A53" s="71"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="57"/>
+      <c r="F53" s="119"/>
+      <c r="G53" s="117"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="111" t="s">
+      <c r="A54" s="71"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F54" s="50"/>
-      <c r="G54" s="57"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="117"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="111" t="s">
+      <c r="A55" s="71"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="57"/>
+      <c r="F55" s="119"/>
+      <c r="G55" s="117"/>
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="111" t="s">
+      <c r="A56" s="71"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="57"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="117"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="111" t="s">
+      <c r="A57" s="71"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F57" s="50"/>
-      <c r="G57" s="57"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="117"/>
     </row>
     <row r="58" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="64"/>
+      <c r="A58" s="137"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="142"/>
       <c r="E58" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="117"/>
-      <c r="G58" s="118"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="134"/>
     </row>
     <row r="59" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="119" t="s">
+      <c r="A59" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="123" t="s">
+      <c r="C59" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="124" t="s">
+      <c r="D59" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="124" t="s">
+      <c r="E59" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="125" t="s">
+      <c r="F59" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="G59" s="126" t="s">
+      <c r="G59" s="52" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="120"/>
-      <c r="B60" s="132" t="s">
+      <c r="A60" s="131"/>
+      <c r="B60" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="133" t="s">
+      <c r="C60" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="134" t="s">
+      <c r="D60" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="134" t="s">
+      <c r="E60" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="F60" s="135" t="s">
+      <c r="F60" s="61" t="s">
         <v>140</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -2615,20 +2759,20 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="120"/>
-      <c r="B61" s="127" t="s">
+      <c r="A61" s="131"/>
+      <c r="B61" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="128" t="s">
+      <c r="C61" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="D61" s="129" t="s">
+      <c r="D61" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="129" t="s">
+      <c r="E61" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F61" s="130" t="s">
+      <c r="F61" s="56" t="s">
         <v>144</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -2636,20 +2780,20 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="120"/>
-      <c r="B62" s="132" t="s">
+      <c r="A62" s="131"/>
+      <c r="B62" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="136" t="s">
+      <c r="C62" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="134" t="s">
+      <c r="D62" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="E62" s="134" t="s">
+      <c r="E62" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="F62" s="135" t="s">
+      <c r="F62" s="61" t="s">
         <v>149</v>
       </c>
       <c r="G62" s="6" t="s">
@@ -2657,20 +2801,20 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="120"/>
-      <c r="B63" s="127" t="s">
+      <c r="A63" s="131"/>
+      <c r="B63" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C63" s="131" t="s">
+      <c r="C63" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D63" s="129" t="s">
+      <c r="D63" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="E63" s="129" t="s">
+      <c r="E63" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F63" s="130" t="s">
+      <c r="F63" s="56" t="s">
         <v>152</v>
       </c>
       <c r="G63" s="7" t="s">
@@ -2678,20 +2822,20 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="120"/>
-      <c r="B64" s="132" t="s">
+      <c r="A64" s="131"/>
+      <c r="B64" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="136" t="s">
+      <c r="C64" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D64" s="134" t="s">
+      <c r="D64" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="E64" s="134" t="s">
+      <c r="E64" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="F64" s="135" t="s">
+      <c r="F64" s="61" t="s">
         <v>161</v>
       </c>
       <c r="G64" s="6" t="s">
@@ -2699,20 +2843,20 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="120"/>
-      <c r="B65" s="127" t="s">
+      <c r="A65" s="131"/>
+      <c r="B65" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C65" s="131" t="s">
+      <c r="C65" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="129" t="s">
+      <c r="D65" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="E65" s="129" t="s">
+      <c r="E65" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F65" s="130" t="s">
+      <c r="F65" s="56" t="s">
         <v>155</v>
       </c>
       <c r="G65" s="7" t="s">
@@ -2720,20 +2864,20 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="120"/>
-      <c r="B66" s="132" t="s">
+      <c r="A66" s="131"/>
+      <c r="B66" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="136" t="s">
+      <c r="C66" s="62" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="134" t="s">
+      <c r="D66" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="E66" s="134" t="s">
+      <c r="E66" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="F66" s="135" t="s">
+      <c r="F66" s="61" t="s">
         <v>162</v>
       </c>
       <c r="G66" s="6" t="s">
@@ -2741,49 +2885,266 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="120"/>
-      <c r="B67" s="127" t="s">
+      <c r="A67" s="131"/>
+      <c r="B67" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="131" t="s">
+      <c r="C67" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="D67" s="129" t="s">
+      <c r="D67" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="E67" s="129" t="s">
+      <c r="E67" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F67" s="130" t="s">
+      <c r="F67" s="56" t="s">
         <v>164</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="121"/>
-      <c r="B68" s="137" t="s">
+    <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="132"/>
+      <c r="B68" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="C68" s="138" t="s">
+      <c r="C68" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="D68" s="139" t="s">
+      <c r="D68" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="E68" s="139" t="s">
+      <c r="E68" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="F68" s="140" t="s">
+      <c r="F68" s="66" t="s">
         <v>166</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>148</v>
       </c>
     </row>
+    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B72" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G72" s="68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B73" s="67"/>
+      <c r="C73" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G73" s="69"/>
+    </row>
+    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B74" s="67"/>
+      <c r="C74" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G74" s="69"/>
+    </row>
+    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B75" s="67"/>
+      <c r="C75" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="G75" s="69"/>
+    </row>
+    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B76" s="67"/>
+      <c r="C76" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G76" s="69"/>
+    </row>
+    <row r="77" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B77" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B78" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B79" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B80" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="36" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="57">
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="F50:F58"/>
     <mergeCell ref="G50:G58"/>
@@ -2815,6 +3176,8 @@
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="D28:D31"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="F5:F7"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="G5:G7"/>
@@ -2823,6 +3186,8 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="G72:G76"/>
     <mergeCell ref="A4:A27"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="B5:B7"/>
@@ -2837,8 +3202,6 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="F5:F7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" location="L7" xr:uid="{F521EE9C-24C9-46E9-9B83-619AF2EE0F94}"/>
@@ -2866,8 +3229,12 @@
     <hyperlink ref="G66" r:id="rId23" xr:uid="{8F487827-2DDE-47E6-B004-CCAB8E97B070}"/>
     <hyperlink ref="G67" r:id="rId24" xr:uid="{B82B31A8-30F5-43B7-83C3-3CD473DB8685}"/>
     <hyperlink ref="G68" r:id="rId25" xr:uid="{AC9E4A8A-1280-49A5-ADD4-39AF740EB6AB}"/>
+    <hyperlink ref="G72" r:id="rId26" xr:uid="{8701D585-6CCD-44A1-B91D-8DA741B79BD2}"/>
+    <hyperlink ref="G71" r:id="rId27" location="L2797" xr:uid="{AD5B641F-1BB5-4123-8009-DAD2333B61DB}"/>
+    <hyperlink ref="G69" r:id="rId28" location="L253" xr:uid="{1687F3D3-1E61-41F3-9F96-407ED35860EF}"/>
+    <hyperlink ref="G77" r:id="rId29" location="L14" xr:uid="{B1BCDC3D-AE1D-4597-B3CA-B22E52A94612}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA329842-62C8-4531-B43B-20C5364E29E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC6F778-7DEB-4392-A4FE-D17C3CCAA5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="262">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -218,9 +218,6 @@
     <t>Exploratory analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">chi square test </t>
-  </si>
-  <si>
     <t>chi_square_test.py</t>
   </si>
   <si>
@@ -504,9 +501,6 @@
   </si>
   <si>
     <t>Wende einen Lee-Filter unter Berücksichtigung additiver Rauschkomponenten im Eingabe-Raster an.</t>
-  </si>
-  <si>
-    <t>Lee additive multiplicative noise</t>
   </si>
   <si>
     <t>Lee additive noise filter</t>
@@ -639,9 +633,6 @@
     <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L2797</t>
   </si>
   <si>
-    <t>Nicht gefunden?</t>
-  </si>
-  <si>
     <t>weights_of_evidence.py</t>
   </si>
   <si>
@@ -670,13 +661,215 @@
   </si>
   <si>
     <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/gradient_boosting.py#L14</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/gradient_boosting.py#L114</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/prediction/machine_learning_predict.py#L12</t>
+  </si>
+  <si>
+    <t>machine_learning_predict.py</t>
+  </si>
+  <si>
+    <t>predict_classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tensorflow -&gt; keras, sklearn.base -&gt; BaseEstimator, is_classifier</t>
+  </si>
+  <si>
+    <t>„Vorhersage mit einem trainierten Klassifikationsmodell</t>
+  </si>
+  <si>
+    <t>Plot confusion matrix</t>
+  </si>
+  <si>
+    <t>Plot Precision -Recall curve</t>
+  </si>
+  <si>
+    <t>Plot ROC curve</t>
+  </si>
+  <si>
+    <t>Summarize label metrics binary</t>
+  </si>
+  <si>
+    <t>Summarize probability metrics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chi-square test </t>
+  </si>
+  <si>
+    <t>Lee additive multiplicative noise filter</t>
+  </si>
+  <si>
+    <t>logistic_regression.py</t>
+  </si>
+  <si>
+    <t>regressor_predict.py</t>
+  </si>
+  <si>
+    <t>regressor_test.py</t>
+  </si>
+  <si>
+    <t>logistic_regression_train, LogisticRegression, _train_and_validate_sklearn_model</t>
+  </si>
+  <si>
+    <t>numpy, pandas, sklearn.linear_model -&gt; LogisticRegression, eis_toolkit.exceptions -&gt; InvalidParameterValueException,
+eis_toolkit.prediction.machine_learning_general -&gt; _train_and_validate_sklearn_model</t>
+  </si>
+  <si>
+    <t>Trainieren und optional validieren Sie ein logistisches Regressionsklassifikationsmodell mit Sklearn.</t>
+  </si>
+  <si>
+    <t>train_MLP_regressor,  _check_ML_model_data_input, _check_MLP_inputs, _keras_optimizer, _keras_metric</t>
+  </si>
+  <si>
+    <t>numpy, tensorflow.keras, metrics, -&gt; CategoricalCrossentropy, MeanAbsoluteError, MeanSquaredError, Precision, Recall, tensorflow.keras.optimizers.legacy -&gt; SGD, Adagrad, Adam, RMSprop</t>
+  </si>
+  <si>
+    <t>Trainiere den MLP (Multilayer Perceptron) Klassifikator mit Keras.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/logistic_regression.pyhttps://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/logistic_regression.py</t>
+  </si>
+  <si>
+    <t>mlp.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/mlp.py#L7</t>
+  </si>
+  <si>
+    <t>train_MLP_regressor, _keras_optimizer,  _check_ML_model_data_input, _check_MLP_inputs</t>
+  </si>
+  <si>
+    <t>Trainiere den MLP (Multilayer Perceptron) Regressor mit Keras.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/mlp.py#L3</t>
+  </si>
+  <si>
+    <t>random_forests.py</t>
+  </si>
+  <si>
+    <t>Trainiere und validiere optional ein Random Forest Klassifikator-Modell mit Sklearn.</t>
+  </si>
+  <si>
+    <t>random_forest_classifier_train, RandomForestClassifier, _train_and_validate_sklearn_model</t>
+  </si>
+  <si>
+    <t>numpy, pandas, sklearn.ensemble import RandomForestClassifier, RandomForestRegressorsklearn.ensemble -&gt; RandomForestClassifier, RandomForestRegressorsklearn.ensemble import RandomForestClassifier, RandomForestRegressor</t>
+  </si>
+  <si>
+    <t>numpy, pandas, sklearn.ensemble -&gt; RandomForestClassifier, RandomForestRegressor, eis_toolkit.exceptions -&gt; InvalidParameterValueException, eis_toolkit.prediction.machine_learning_general -&gt; _train_and_validate_sklearn_model</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/random_forests.py#L12</t>
+  </si>
+  <si>
+    <t>random_forest_regressor_train,  RandomForestRegressor, _train_and_validate_sklearn_model</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/random_forests.py#L98</t>
+  </si>
+  <si>
+    <t>qgis.core -&gt; QgsProcessing, QgsProcessingParameterFile, QgsProcessingParameterMultipleLayers, QgsProcessingParameterRasterDestination, eis_qgis_plugin.eis_processing.eis_processing_algorithm -&gt;EISProcessingAlgorithm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class EISRegressorPredict(EISProcessingAlgorithm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, QgsProcessingParameterMultipleLayers, QgsProcessingParameterFile, QgsProcessingParameterRasterDestination</t>
+    </r>
+  </si>
+  <si>
+    <t>Vorhersage der Mineralprospektivität mit einem trainierten Machine Learning Regressor-Modell.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_predict.py#L11</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.pyhttps://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.py</t>
+  </si>
+  <si>
+    <t>qgis.core -&gt; QgsProcessing, QgsProcessingParameterEnum, QgsProcessingParameterFile, QgsProcessingParameterMultipleLayers, QgsProcessingParameterRasterDestination, QgsProcessingParameterRasterLayer, eis_qgis_plugin.eis_processing.eis_processing_algorithm -&gt; EISProcessingAlgorithm</t>
+  </si>
+  <si>
+    <t>Teste das trainierte Machine Learning Klassifikator-Modell, indem du vorhersagst und bewertest.</t>
+  </si>
+  <si>
+    <t>class EISRegressorTest(EISProcessingAlgorithm), QgsProcessingParameterMultipleLayers,  QgsProcessingParameterRasterLayer, QgsProcessingParameterFile, QgsProcessingParameterEnum, QgsProcessingParameterRasterDestination</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/weights_of_evidence_calculate_responses.py</t>
+  </si>
+  <si>
+    <t>weights_of_evidence_calculate_responses.py</t>
+  </si>
+  <si>
+    <t>qgis.core -&gt; QgsProcessing, QgsProcessingParameterMultipleLayers, QgsProcessingParameterRasterDestination, QgsProcessingParameterVectorLayer, eis_qgis_plugin.eis_processing.eis_processing_algorithm -&gt; EISProcessingAlgorithm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">class EISWeightsOfEvidenceCalculateResponses(EISProcessingAlgorithm), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QgsProcessingParameterMultipleLayers, QgsProcessingParameterVectorLayer, QgsProcessingParameterRasterDestination, </t>
+    </r>
+  </si>
+  <si>
+    <t>Teste das trainierte Machine Learning Klassifikator-Modell, indem du Vorhersagen machst und es bewertest.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/weights_of_evidence_calculate_weights.py</t>
+  </si>
+  <si>
+    <t>weights_of_evidence_calculate_weights.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EISWeightsOfEvidenceCalculateWeights(EISProcessingAlgorithm), QgsProcessingParameterRasterLayer, QgsProcessingParameterMapLayer, QgsProcessingParameterNumber, QgsProcessingParameterEnum, </t>
+  </si>
+  <si>
+    <t>qgis.core -&gt; QgsProcessingParameterEnum, QgsProcessingParameterFileDestination, QgsProcessingParameterFolderDestination, QgsProcessingParameterMapLayer, QgsProcessingParameterNumber, QgsProcessingParameterRasterLayer, eis_qgis_plugin.eis_processing.eis_processing_algorithm -&gt; EISProcessingAlgorithm</t>
+  </si>
+  <si>
+    <t>Teste das trainierte Machine Learning Klassifikator-Modell, indem du Vorhersagen triffst und es bewertest.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,6 +915,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -755,7 +963,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1009,48 +1217,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1058,16 +1295,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1081,21 +1312,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1165,9 +1381,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1199,31 +1412,100 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,24 +1546,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1303,142 +1567,175 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1783,1368 +2080,1571 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" style="24" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" style="30" customWidth="1"/>
-    <col min="6" max="6" width="31" style="22" customWidth="1"/>
-    <col min="7" max="7" width="102.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" style="16" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="31" style="13" customWidth="1"/>
+    <col min="7" max="7" width="102.5546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="103" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="104" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="79" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="113" t="s">
+      <c r="G5" s="105" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="43" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="114"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="43" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="114"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="106"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="32" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="107" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="33" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="E9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="61"/>
+      <c r="B10" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="D10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="107" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="39" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="122" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="74"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="74"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="74"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="61"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="74"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="61"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="74"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="74"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="123" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="108" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="99"/>
+      <c r="G20" s="108"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="61"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="99"/>
+      <c r="G21" s="108"/>
+    </row>
+    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="61"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="99"/>
+      <c r="G22" s="108"/>
+    </row>
+    <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
+      <c r="B23" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="99" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="43" t="s">
+      <c r="D23" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="88" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="71"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="98"/>
-    </row>
-    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="71"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
-      <c r="B23" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="107" t="s">
+      <c r="G23" s="79" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
-      <c r="B24" s="103"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="43" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="107"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="79"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="43" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="107"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="43" t="s">
+      <c r="A26" s="61"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="105"/>
-      <c r="G26" s="107"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="72"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="45" t="s">
+      <c r="A27" s="80"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="108"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="76" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="75" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="D28" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="123" t="s">
+      <c r="E28" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="F28" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="120" t="s">
+      <c r="F29" s="54"/>
+      <c r="G29" s="111"/>
+    </row>
+    <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="61"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="54"/>
+      <c r="G30" s="111"/>
+    </row>
+    <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="61"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="54"/>
+      <c r="G31" s="112"/>
+    </row>
+    <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="61"/>
+      <c r="B32" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="113" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61"/>
+      <c r="B33" s="21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="119"/>
-      <c r="G29" s="121"/>
-    </row>
-    <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="119"/>
-      <c r="G30" s="121"/>
-    </row>
-    <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="119"/>
-      <c r="G31" s="122"/>
-    </row>
-    <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="71"/>
-      <c r="B32" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="47" t="s">
+      <c r="C33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
-      <c r="B33" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="16" t="s">
+      <c r="G33" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="13" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="61"/>
+      <c r="B34" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="71"/>
-      <c r="B34" s="34" t="s">
+      <c r="D34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="115" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="61"/>
+      <c r="B35" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="116" t="s">
+      <c r="E35" s="72"/>
+      <c r="F35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="115"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="61"/>
+      <c r="B36" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="117" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="116"/>
-      <c r="F35" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="117"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
-      <c r="B36" s="128" t="s">
+      <c r="C36" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="D36" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="129" t="s">
+      <c r="E36" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="F36" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="61"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F36" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="G36" s="126" t="s">
+      <c r="F37" s="69"/>
+      <c r="G37" s="116"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="61"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="69"/>
+      <c r="G38" s="116"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="61"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="125"/>
-      <c r="G37" s="126"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="71"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="125"/>
-      <c r="G38" s="126"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="71"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="47" t="s">
+      <c r="F39" s="69"/>
+      <c r="G39" s="116"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="61"/>
+      <c r="B40" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="125"/>
-      <c r="G39" s="126"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
-      <c r="B40" s="34" t="s">
+      <c r="C40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="E40" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="61"/>
+      <c r="B41" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="C41" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="116" t="s">
+      <c r="D41" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="72"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="115"/>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="61"/>
+      <c r="B42" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="G40" s="117" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="71"/>
-      <c r="B41" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="116"/>
-      <c r="F41" s="119"/>
-      <c r="G41" s="117"/>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="71"/>
-      <c r="B42" s="35" t="s">
+      <c r="C42" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="D42" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="E42" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="47" t="s">
+      <c r="F42" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="G42" s="13" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="61"/>
+      <c r="B43" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="71"/>
-      <c r="B43" s="34" t="s">
+      <c r="C43" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="61"/>
+      <c r="B44" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="110" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="116" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="116" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="119" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="117" t="s">
+      <c r="C44" s="56"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="115"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="61"/>
+      <c r="B45" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="116" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
-      <c r="B44" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="117"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="71"/>
-      <c r="B45" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="127" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="61"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="116"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="61"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="116"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="61"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="116"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="61"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="116"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="61"/>
+      <c r="B50" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="D45" s="138" t="s">
+      <c r="C50" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="E45" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="125" t="s">
-        <v>118</v>
-      </c>
-      <c r="G45" s="126" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="127"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="143"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="126"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="71"/>
-      <c r="B47" s="128"/>
-      <c r="C47" s="127"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="143"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="126"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="71"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="143"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="126"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="71"/>
-      <c r="B49" s="128"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="126"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="B50" s="112" t="s">
+      <c r="E50" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="115" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="110" t="s">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="61"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="141" t="s">
+      <c r="F51" s="54"/>
+      <c r="G51" s="115"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="61"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="54"/>
+      <c r="G52" s="115"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="61"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="54"/>
+      <c r="G53" s="115"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="61"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F54" s="54"/>
+      <c r="G54" s="115"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="61"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="54"/>
+      <c r="G55" s="115"/>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="61"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="56"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="54"/>
+      <c r="G56" s="115"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="61"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="54"/>
+      <c r="G57" s="115"/>
+    </row>
+    <row r="58" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="62"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F58" s="55"/>
+      <c r="G58" s="117"/>
+    </row>
+    <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="E50" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="119" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="117" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" s="119"/>
-      <c r="G51" s="117"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="119"/>
-      <c r="G52" s="117"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" s="119"/>
-      <c r="G53" s="117"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="71"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="119"/>
-      <c r="G54" s="117"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="71"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="119"/>
-      <c r="G55" s="117"/>
-    </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="71"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="F56" s="119"/>
-      <c r="G56" s="117"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="71"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="119"/>
-      <c r="G57" s="117"/>
-    </row>
-    <row r="58" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="137"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="133"/>
-      <c r="G58" s="134"/>
-    </row>
-    <row r="59" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="130" t="s">
+      <c r="B59" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="C59" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="D59" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="50" t="s">
+      <c r="F59" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" s="118" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="52"/>
+      <c r="B60" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="G59" s="52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="131"/>
-      <c r="B60" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C60" s="59" t="s">
+      <c r="G60" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="52"/>
+      <c r="B61" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="D60" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="E60" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="F60" s="61" t="s">
+      <c r="G61" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="G60" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="131"/>
-      <c r="B61" s="53" t="s">
+    </row>
+    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="52"/>
+      <c r="B62" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="52"/>
+      <c r="B63" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="E61" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F61" s="56" t="s">
+      <c r="D63" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" s="107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="52"/>
+      <c r="B64" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="52"/>
+      <c r="B65" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="52"/>
+      <c r="B66" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="52"/>
+      <c r="B67" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G67" s="107" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="128"/>
+      <c r="B68" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="131"/>
-      <c r="B62" s="58" t="s">
+      <c r="E68" s="131" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="62" t="s">
+    </row>
+    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="135" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="F69" s="149" t="s">
+        <v>201</v>
+      </c>
+      <c r="G69" s="104" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="52"/>
+      <c r="B70" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C70" s="136" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="F70" s="152" t="s">
+        <v>213</v>
+      </c>
+      <c r="G70" s="153" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="52"/>
+      <c r="B71" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E71" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="E62" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="F62" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="131"/>
-      <c r="B63" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="131"/>
-      <c r="B64" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="131"/>
-      <c r="B65" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="D65" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E65" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F65" s="56" t="s">
-        <v>155</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="131"/>
-      <c r="B66" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D66" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="E66" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="61" t="s">
-        <v>162</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="131"/>
-      <c r="B67" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="E67" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="132"/>
-      <c r="B68" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="C68" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" s="65" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" s="65" t="s">
-        <v>135</v>
-      </c>
-      <c r="F68" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="E69" s="30" t="s">
+      <c r="F71" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="G71" s="107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="52"/>
+      <c r="B72" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="C72" s="138" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="154" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="52"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G73" s="155"/>
+    </row>
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="52"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="138"/>
+      <c r="D74" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" s="155"/>
+    </row>
+    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="52"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="138"/>
+      <c r="D75" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="G75" s="155"/>
+    </row>
+    <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="52"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="139"/>
+      <c r="D76" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" s="156"/>
+    </row>
+    <row r="77" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="52"/>
+      <c r="B77" s="143" t="s">
+        <v>170</v>
+      </c>
+      <c r="C77" s="134" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="E77" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="F77" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G77" s="104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="52"/>
+      <c r="B78" s="144" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F71" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B72" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F72" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G72" s="68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B73" s="67"/>
-      <c r="C73" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F73" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="G73" s="69"/>
-    </row>
-    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B74" s="67"/>
-      <c r="C74" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="G74" s="69"/>
-    </row>
-    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B75" s="67"/>
-      <c r="C75" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F75" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G75" s="69"/>
-    </row>
-    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B76" s="67"/>
-      <c r="C76" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="G76" s="69"/>
-    </row>
-    <row r="77" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B77" s="36" t="s">
+      <c r="D78" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F78" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G78" s="50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A79" s="52"/>
+      <c r="B79" s="145" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="36" t="s">
+      <c r="C79" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" s="107" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="52"/>
+      <c r="B80" s="144" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="36" t="s">
+      <c r="C80" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="G80" s="50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="52"/>
+      <c r="B81" s="145" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="36" t="s">
+      <c r="C81" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G81" s="107" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A82" s="52"/>
+      <c r="B82" s="144" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="36" t="s">
+      <c r="C82" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="G82" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="52"/>
+      <c r="B83" s="145" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="36" t="s">
+      <c r="C83" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G83" s="107" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="52"/>
+      <c r="B84" s="144" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="36" t="s">
+      <c r="C84" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" s="46" t="s">
+        <v>246</v>
+      </c>
+      <c r="G84" s="50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="52"/>
+      <c r="B85" s="145" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="36" t="s">
+      <c r="C85" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G85" s="107" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A86" s="52"/>
+      <c r="B86" s="144" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="36" t="s">
+      <c r="C86" s="49" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="G86" s="50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="231" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="53"/>
+      <c r="B87" s="146" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="36" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="36" t="s">
-        <v>182</v>
+      <c r="C87" s="142" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="141" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" s="148" t="s">
+        <v>260</v>
+      </c>
+      <c r="F87" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="G87" s="151" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="59">
+    <mergeCell ref="A69:A87"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="F50:F58"/>
     <mergeCell ref="G50:G58"/>
@@ -3161,47 +3661,6 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="A4:A27"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="F23:F27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" location="L7" xr:uid="{F521EE9C-24C9-46E9-9B83-619AF2EE0F94}"/>
@@ -3233,8 +3692,19 @@
     <hyperlink ref="G71" r:id="rId27" location="L2797" xr:uid="{AD5B641F-1BB5-4123-8009-DAD2333B61DB}"/>
     <hyperlink ref="G69" r:id="rId28" location="L253" xr:uid="{1687F3D3-1E61-41F3-9F96-407ED35860EF}"/>
     <hyperlink ref="G77" r:id="rId29" location="L14" xr:uid="{B1BCDC3D-AE1D-4597-B3CA-B22E52A94612}"/>
+    <hyperlink ref="G78" r:id="rId30" location="L114" xr:uid="{2A8C4F97-A4C5-4CFA-9E75-944C342D6777}"/>
+    <hyperlink ref="G70" r:id="rId31" location="L12" xr:uid="{4ED5A15F-BA4D-4332-B57E-F8F7E5986404}"/>
+    <hyperlink ref="G79" r:id="rId32" display="https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/logistic_regression.pyhttps://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/logistic_regression.py" xr:uid="{7CCE0633-A7FA-497E-9BC8-5F481E3BC9D2}"/>
+    <hyperlink ref="G80" r:id="rId33" location="L7" xr:uid="{79A7A728-5DB4-440B-A0DF-55F6CC728DAE}"/>
+    <hyperlink ref="G81" r:id="rId34" location="L3" xr:uid="{D17648C4-EFDA-4AA1-87BB-D936E69FD4D2}"/>
+    <hyperlink ref="G82" r:id="rId35" location="L12" xr:uid="{1578249B-7ACF-4C24-816C-49BAE66DAAF8}"/>
+    <hyperlink ref="G83" r:id="rId36" location="L98" xr:uid="{F8FEC69D-E188-4CC9-8FC1-D562987C7ED5}"/>
+    <hyperlink ref="G84" r:id="rId37" location="L11" xr:uid="{8A7228CA-606C-4743-993F-EB5E7A3BC73B}"/>
+    <hyperlink ref="G85" r:id="rId38" display="https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.pyhttps://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.py" xr:uid="{CFBC2139-C6B0-4408-BC05-743DEA28DDEA}"/>
+    <hyperlink ref="G86" r:id="rId39" xr:uid="{8D1EC35C-8A93-4C55-BED7-F79348365835}"/>
+    <hyperlink ref="G87" r:id="rId40" xr:uid="{C8116F67-3759-43C2-A3A8-DFC3DF7561D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC6F778-7DEB-4392-A4FE-D17C3CCAA5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4866B6EF-4C15-4855-80E4-07E72DB80B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="294">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -813,9 +813,6 @@
     <t>Teste das trainierte Machine Learning Klassifikator-Modell, indem du vorhersagst und bewertest.</t>
   </si>
   <si>
-    <t>class EISRegressorTest(EISProcessingAlgorithm), QgsProcessingParameterMultipleLayers,  QgsProcessingParameterRasterLayer, QgsProcessingParameterFile, QgsProcessingParameterEnum, QgsProcessingParameterRasterDestination</t>
-  </si>
-  <si>
     <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/weights_of_evidence_calculate_responses.py</t>
   </si>
   <si>
@@ -856,13 +853,152 @@
     <t>weights_of_evidence_calculate_weights.py</t>
   </si>
   <si>
-    <t xml:space="preserve">EISWeightsOfEvidenceCalculateWeights(EISProcessingAlgorithm), QgsProcessingParameterRasterLayer, QgsProcessingParameterMapLayer, QgsProcessingParameterNumber, QgsProcessingParameterEnum, </t>
-  </si>
-  <si>
     <t>qgis.core -&gt; QgsProcessingParameterEnum, QgsProcessingParameterFileDestination, QgsProcessingParameterFolderDestination, QgsProcessingParameterMapLayer, QgsProcessingParameterNumber, QgsProcessingParameterRasterLayer, eis_qgis_plugin.eis_processing.eis_processing_algorithm -&gt; EISProcessingAlgorithm</t>
   </si>
   <si>
     <t>Teste das trainierte Machine Learning Klassifikator-Modell, indem du Vorhersagen triffst und es bewertest.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EISWeightsOfEvidenceCalculateWeights(EISProcessingAlgorithm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, QgsProcessingParameterRasterLayer, QgsProcessingParameterMapLayer, QgsProcessingParameterNumber, QgsProcessingParameterEnum, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class EISRegressorTest(EISProcessingAlgorithm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, QgsProcessingParameterMultipleLayers,  QgsProcessingParameterRasterLayer, QgsProcessingParameterFile, QgsProcessingParameterEnum, QgsProcessingParameterRasterDestination</t>
+    </r>
+  </si>
+  <si>
+    <t>Raster Processing</t>
+  </si>
+  <si>
+    <t>Classify aspect</t>
+  </si>
+  <si>
+    <t>Clip raster</t>
+  </si>
+  <si>
+    <t>Create constant raster from template</t>
+  </si>
+  <si>
+    <t>Create constant raster manually</t>
+  </si>
+  <si>
+    <t>Distance to anomaly</t>
+  </si>
+  <si>
+    <t>Extract window</t>
+  </si>
+  <si>
+    <t>Mask raster</t>
+  </si>
+  <si>
+    <t>Proximity to anomaly</t>
+  </si>
+  <si>
+    <t>Reclassify with defined intervals</t>
+  </si>
+  <si>
+    <t>Reclassify with equal intervals</t>
+  </si>
+  <si>
+    <t>Reclassify with geometrical intervals</t>
+  </si>
+  <si>
+    <t>Reclassify with maual breaks</t>
+  </si>
+  <si>
+    <t>Reclasssify with natural breaks</t>
+  </si>
+  <si>
+    <t>Reclassify with quantiles</t>
+  </si>
+  <si>
+    <t>Reclassify with standard deviation</t>
+  </si>
+  <si>
+    <t>Reproject raster</t>
+  </si>
+  <si>
+    <t>Resample raster</t>
+  </si>
+  <si>
+    <t>Snap raster</t>
+  </si>
+  <si>
+    <t>Surface derivatives</t>
+  </si>
+  <si>
+    <t>Unify raster</t>
+  </si>
+  <si>
+    <t>Uniquecombinations</t>
+  </si>
+  <si>
+    <t>classification.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/derivatives/classification.py#L67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classify_aspect, _classify_aspect, </t>
+  </si>
+  <si>
+    <t>Klassifiziere ein Aspekt-Rasterdatenset in Richtungsklassen.</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.exceptions -&gt; InvalidParameterValueException, InvalidRasterBandException</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/clipping.py#L25</t>
+  </si>
+  <si>
+    <t>Schneidet ein Raster mit Polygongeometrien zu.</t>
+  </si>
+  <si>
+    <t>geopands, numpy, rasterio, rasterio.mask, eis_toolkit.exceptions -&gt; GeometryTypeException, NonMatchingCrsException, eis_toolkit.utilities.checks.geometry -&gt; check_geometry_types, eis_toolkit.utilities.checks.raster -&gt; check_matching_crs</t>
+  </si>
+  <si>
+    <t>clipping.py</t>
+  </si>
+  <si>
+    <t>clip_raster, _clip_raster</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1420,42 +1556,297 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,272 +1862,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2078,12 +2205,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2098,24 +2225,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2136,12 +2263,12 @@
       <c r="F3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="103" t="s">
+      <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="80" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2159,55 +2286,55 @@
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="104" t="s">
+      <c r="G4" s="52" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="87" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="96" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="102" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="128" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="106"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="129"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="121"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="104"/>
       <c r="E7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="106"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="129"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="18" t="s">
         <v>22</v>
       </c>
@@ -2223,12 +2350,12 @@
       <c r="F8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="107" t="s">
+      <c r="G8" s="53" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="19" t="s">
         <v>215</v>
       </c>
@@ -2249,7 +2376,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="18" t="s">
         <v>216</v>
       </c>
@@ -2265,28 +2392,28 @@
       <c r="F10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="53" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="81"/>
+      <c r="B11" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="122" t="s">
+      <c r="D11" s="116" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="120" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="122" t="s">
         <v>46</v>
       </c>
       <c r="H11" s="2"/>
@@ -2301,15 +2428,15 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="122"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="79"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="122"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2322,15 +2449,15 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="122"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="74"/>
-      <c r="G13" s="79"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2343,15 +2470,15 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="122"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="79"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="122"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2364,15 +2491,15 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="122"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="74"/>
-      <c r="G15" s="79"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2385,15 +2512,15 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="122"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="74"/>
-      <c r="G16" s="79"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="122"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2406,15 +2533,15 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="122"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="74"/>
-      <c r="G17" s="79"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2427,15 +2554,15 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="122"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="74"/>
-      <c r="G18" s="79"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="122"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2448,182 +2575,182 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="93" t="s">
+      <c r="A19" s="81"/>
+      <c r="B19" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="105" t="s">
         <v>47</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="99" t="s">
+      <c r="F19" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="108" t="s">
+      <c r="G19" s="115" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="124"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="106"/>
       <c r="E20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="108"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="115"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="124"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="108"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="115"/>
     </row>
     <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="125"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="99"/>
-      <c r="G22" s="108"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="78" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="116" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="79" t="s">
+      <c r="G23" s="122" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="122"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="74"/>
-      <c r="G24" s="79"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="122"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="122"/>
+      <c r="A25" s="81"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="116"/>
       <c r="E25" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="74"/>
-      <c r="G25" s="79"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="122"/>
     </row>
     <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="122"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="116"/>
       <c r="E26" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="74"/>
-      <c r="G26" s="79"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="122"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="80"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="126"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="117"/>
       <c r="E27" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="102"/>
-      <c r="G27" s="109"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="123"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="75" t="s">
+      <c r="C28" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="127" t="s">
+      <c r="D28" s="137" t="s">
         <v>61</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="73" t="s">
+      <c r="F28" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="110" t="s">
+      <c r="G28" s="134" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="72"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="111"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="135"/>
     </row>
     <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="72"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="54"/>
-      <c r="G30" s="111"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="135"/>
     </row>
     <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="61"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="72"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="130"/>
       <c r="E31" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="112"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="136"/>
     </row>
     <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="21" t="s">
         <v>69</v>
       </c>
@@ -2639,12 +2766,12 @@
       <c r="F32" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="113" t="s">
+      <c r="G32" s="54" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="21" t="s">
         <v>68</v>
       </c>
@@ -2660,12 +2787,12 @@
       <c r="F33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G33" s="114" t="s">
+      <c r="G33" s="55" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+      <c r="A34" s="81"/>
       <c r="B34" s="20" t="s">
         <v>79</v>
       </c>
@@ -2675,18 +2802,18 @@
       <c r="D34" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="72" t="s">
+      <c r="E34" s="130" t="s">
         <v>86</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="115" t="s">
+      <c r="G34" s="131" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="61"/>
+      <c r="A35" s="81"/>
       <c r="B35" s="20" t="s">
         <v>81</v>
       </c>
@@ -2696,68 +2823,68 @@
       <c r="D35" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="72"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="115"/>
+      <c r="G35" s="131"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="61"/>
-      <c r="B36" s="70" t="s">
+      <c r="A36" s="81"/>
+      <c r="B36" s="141" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="142" t="s">
         <v>89</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="116" t="s">
+      <c r="G36" s="139" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="68"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="141"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="142"/>
       <c r="E37" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="116"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="139"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="68"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="142"/>
       <c r="E38" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="69"/>
-      <c r="G38" s="116"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="70"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="68"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="140"/>
+      <c r="D39" s="142"/>
       <c r="E39" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F39" s="69"/>
-      <c r="G39" s="116"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="139"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
+      <c r="A40" s="81"/>
       <c r="B40" s="20" t="s">
         <v>95</v>
       </c>
@@ -2767,18 +2894,18 @@
       <c r="D40" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="115" t="s">
+      <c r="G40" s="131" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
+      <c r="A41" s="81"/>
       <c r="B41" s="20" t="s">
         <v>98</v>
       </c>
@@ -2788,12 +2915,12 @@
       <c r="D41" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="115"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="131"/>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
+      <c r="A42" s="81"/>
       <c r="B42" s="21" t="s">
         <v>103</v>
       </c>
@@ -2809,210 +2936,210 @@
       <c r="F42" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="114" t="s">
+      <c r="G42" s="55" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
+      <c r="A43" s="81"/>
       <c r="B43" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="G43" s="115" t="s">
+      <c r="G43" s="131" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
+      <c r="A44" s="81"/>
       <c r="B44" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="115"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="131"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
-      <c r="B45" s="70" t="s">
+      <c r="A45" s="81"/>
+      <c r="B45" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="148" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="68" t="s">
+      <c r="E45" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="F45" s="69" t="s">
+      <c r="F45" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="G45" s="116" t="s">
+      <c r="G45" s="139" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="116"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="140"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="139"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="116"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="140"/>
+      <c r="D47" s="149"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="139"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="116"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="140"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="139"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="116"/>
+      <c r="A49" s="81"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="138"/>
+      <c r="G49" s="139"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="58" t="s">
+      <c r="A50" s="81"/>
+      <c r="B50" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="66" t="s">
+      <c r="D50" s="151" t="s">
         <v>130</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F50" s="54" t="s">
+      <c r="F50" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="G50" s="115" t="s">
+      <c r="G50" s="131" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="67"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="127"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="152"/>
       <c r="E51" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="115"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="131"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="61"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="67"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="127"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="152"/>
       <c r="E52" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="54"/>
-      <c r="G52" s="115"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="131"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="67"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="152"/>
       <c r="E53" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="115"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="131"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="67"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="152"/>
       <c r="E54" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F54" s="54"/>
-      <c r="G54" s="115"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="131"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="67"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="152"/>
       <c r="E55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="115"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="131"/>
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="61"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="67"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="152"/>
       <c r="E56" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F56" s="54"/>
-      <c r="G56" s="115"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="131"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="61"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="67"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="152"/>
       <c r="E57" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F57" s="54"/>
-      <c r="G57" s="115"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="131"/>
     </row>
     <row r="58" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="62"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="67"/>
+      <c r="A58" s="143"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="152"/>
       <c r="E58" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="117"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="145"/>
     </row>
     <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="80" t="s">
         <v>131</v>
       </c>
       <c r="B59" s="34" t="s">
@@ -3030,12 +3157,12 @@
       <c r="F59" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="G59" s="118" t="s">
+      <c r="G59" s="56" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="52"/>
+      <c r="A60" s="81"/>
       <c r="B60" s="43" t="s">
         <v>137</v>
       </c>
@@ -3056,7 +3183,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="52"/>
+      <c r="A61" s="81"/>
       <c r="B61" s="38" t="s">
         <v>141</v>
       </c>
@@ -3072,12 +3199,12 @@
       <c r="F61" s="41" t="s">
         <v>143</v>
       </c>
-      <c r="G61" s="107" t="s">
+      <c r="G61" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="52"/>
+      <c r="A62" s="81"/>
       <c r="B62" s="43" t="s">
         <v>146</v>
       </c>
@@ -3098,7 +3225,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="52"/>
+      <c r="A63" s="81"/>
       <c r="B63" s="38" t="s">
         <v>150</v>
       </c>
@@ -3114,12 +3241,12 @@
       <c r="F63" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="G63" s="107" t="s">
+      <c r="G63" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="52"/>
+      <c r="A64" s="81"/>
       <c r="B64" s="43" t="s">
         <v>220</v>
       </c>
@@ -3140,7 +3267,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="52"/>
+      <c r="A65" s="81"/>
       <c r="B65" s="38" t="s">
         <v>155</v>
       </c>
@@ -3156,12 +3283,12 @@
       <c r="F65" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="G65" s="107" t="s">
+      <c r="G65" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="52"/>
+      <c r="A66" s="81"/>
       <c r="B66" s="43" t="s">
         <v>156</v>
       </c>
@@ -3182,7 +3309,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="52"/>
+      <c r="A67" s="81"/>
       <c r="B67" s="38" t="s">
         <v>158</v>
       </c>
@@ -3198,39 +3325,39 @@
       <c r="F67" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="G67" s="107" t="s">
+      <c r="G67" s="53" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="128"/>
-      <c r="B68" s="129" t="s">
+      <c r="A68" s="143"/>
+      <c r="B68" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="130" t="s">
+      <c r="C68" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="D68" s="131" t="s">
+      <c r="D68" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="E68" s="131" t="s">
+      <c r="E68" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="F68" s="132" t="s">
+      <c r="F68" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="G68" s="133" t="s">
+      <c r="G68" s="62" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="80" t="s">
         <v>165</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C69" s="135" t="s">
+      <c r="C69" s="64" t="s">
         <v>198</v>
       </c>
       <c r="D69" s="28" t="s">
@@ -3239,19 +3366,19 @@
       <c r="E69" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="F69" s="149" t="s">
+      <c r="F69" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="G69" s="104" t="s">
+      <c r="G69" s="52" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="52"/>
+      <c r="A70" s="81"/>
       <c r="B70" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="136" t="s">
+      <c r="C70" s="65" t="s">
         <v>210</v>
       </c>
       <c r="D70" s="49" t="s">
@@ -3260,19 +3387,19 @@
       <c r="E70" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="F70" s="152" t="s">
+      <c r="F70" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="G70" s="153" t="s">
+      <c r="G70" s="79" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="52"/>
+      <c r="A71" s="81"/>
       <c r="B71" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="137" t="s">
+      <c r="C71" s="66" t="s">
         <v>194</v>
       </c>
       <c r="D71" s="30" t="s">
@@ -3284,16 +3411,16 @@
       <c r="F71" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="G71" s="107" t="s">
+      <c r="G71" s="53" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="52"/>
-      <c r="B72" s="78" t="s">
+      <c r="A72" s="81"/>
+      <c r="B72" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="C72" s="138" t="s">
+      <c r="C72" s="83" t="s">
         <v>187</v>
       </c>
       <c r="D72" s="29" t="s">
@@ -3305,14 +3432,14 @@
       <c r="F72" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="G72" s="154" t="s">
+      <c r="G72" s="87" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="52"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="138"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="83"/>
       <c r="D73" s="29" t="s">
         <v>190</v>
       </c>
@@ -3322,12 +3449,12 @@
       <c r="F73" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="G73" s="155"/>
+      <c r="G73" s="88"/>
     </row>
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="52"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="138"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="83"/>
       <c r="D74" s="29" t="s">
         <v>191</v>
       </c>
@@ -3337,12 +3464,12 @@
       <c r="F74" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G74" s="155"/>
+      <c r="G74" s="88"/>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="52"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="138"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="83"/>
       <c r="D75" s="29" t="s">
         <v>192</v>
       </c>
@@ -3352,13 +3479,13 @@
       <c r="F75" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="G75" s="155"/>
+      <c r="G75" s="88"/>
     </row>
     <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="52"/>
-      <c r="B76" s="101"/>
-      <c r="C76" s="139"/>
-      <c r="D76" s="147" t="s">
+      <c r="A76" s="81"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="84"/>
+      <c r="D76" s="57" t="s">
         <v>193</v>
       </c>
       <c r="E76" s="31" t="s">
@@ -3367,14 +3494,14 @@
       <c r="F76" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="G76" s="156"/>
+      <c r="G76" s="89"/>
     </row>
     <row r="77" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="52"/>
-      <c r="B77" s="143" t="s">
+      <c r="A77" s="81"/>
+      <c r="B77" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C77" s="134" t="s">
+      <c r="C77" s="63" t="s">
         <v>203</v>
       </c>
       <c r="D77" s="28" t="s">
@@ -3383,16 +3510,16 @@
       <c r="E77" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="F77" s="149" t="s">
+      <c r="F77" s="75" t="s">
         <v>204</v>
       </c>
-      <c r="G77" s="104" t="s">
+      <c r="G77" s="52" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="52"/>
-      <c r="B78" s="144" t="s">
+      <c r="A78" s="81"/>
+      <c r="B78" s="71" t="s">
         <v>171</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -3412,8 +3539,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A79" s="52"/>
-      <c r="B79" s="145" t="s">
+      <c r="A79" s="81"/>
+      <c r="B79" s="72" t="s">
         <v>172</v>
       </c>
       <c r="C79" s="25" t="s">
@@ -3428,13 +3555,13 @@
       <c r="F79" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="G79" s="107" t="s">
+      <c r="G79" s="53" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="52"/>
-      <c r="B80" s="144" t="s">
+      <c r="A80" s="81"/>
+      <c r="B80" s="71" t="s">
         <v>173</v>
       </c>
       <c r="C80" s="10" t="s">
@@ -3454,8 +3581,8 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="52"/>
-      <c r="B81" s="145" t="s">
+      <c r="A81" s="81"/>
+      <c r="B81" s="72" t="s">
         <v>174</v>
       </c>
       <c r="C81" s="25" t="s">
@@ -3470,13 +3597,13 @@
       <c r="F81" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="G81" s="107" t="s">
+      <c r="G81" s="53" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A82" s="52"/>
-      <c r="B82" s="144" t="s">
+      <c r="A82" s="81"/>
+      <c r="B82" s="71" t="s">
         <v>175</v>
       </c>
       <c r="C82" s="10" t="s">
@@ -3496,8 +3623,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="52"/>
-      <c r="B83" s="145" t="s">
+      <c r="A83" s="81"/>
+      <c r="B83" s="72" t="s">
         <v>176</v>
       </c>
       <c r="C83" s="25" t="s">
@@ -3512,13 +3639,13 @@
       <c r="F83" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="G83" s="107" t="s">
+      <c r="G83" s="53" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="52"/>
-      <c r="B84" s="144" t="s">
+      <c r="A84" s="81"/>
+      <c r="B84" s="71" t="s">
         <v>177</v>
       </c>
       <c r="C84" s="10" t="s">
@@ -3538,15 +3665,15 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="52"/>
-      <c r="B85" s="145" t="s">
+      <c r="A85" s="81"/>
+      <c r="B85" s="72" t="s">
         <v>178</v>
       </c>
       <c r="C85" s="25" t="s">
         <v>223</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E85" s="40" t="s">
         <v>249</v>
@@ -3554,97 +3681,192 @@
       <c r="F85" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="G85" s="107" t="s">
+      <c r="G85" s="53" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A86" s="52"/>
-      <c r="B86" s="144" t="s">
+      <c r="A86" s="81"/>
+      <c r="B86" s="71" t="s">
         <v>179</v>
       </c>
       <c r="C86" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="E86" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="D86" s="140" t="s">
+      <c r="F86" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="E86" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="F86" s="46" t="s">
+      <c r="G86" s="50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="231" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="82"/>
+      <c r="B87" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="E87" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="F87" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="G86" s="50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="231" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="53"/>
-      <c r="B87" s="146" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="142" t="s">
-        <v>258</v>
-      </c>
-      <c r="D87" s="141" t="s">
-        <v>259</v>
-      </c>
-      <c r="E87" s="148" t="s">
-        <v>260</v>
-      </c>
-      <c r="F87" s="150" t="s">
-        <v>261</v>
-      </c>
-      <c r="G87" s="151" t="s">
-        <v>257</v>
+    </row>
+    <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="G88" s="153" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="B89" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="G89" s="153" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B91" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B92" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B93" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B94" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="22" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A69:A87"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="A4:A27"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="F50:F58"/>
     <mergeCell ref="G50:G58"/>
@@ -3661,6 +3883,49 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="A69:A87"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" location="L7" xr:uid="{F521EE9C-24C9-46E9-9B83-619AF2EE0F94}"/>
@@ -3703,8 +3968,10 @@
     <hyperlink ref="G85" r:id="rId38" display="https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.pyhttps://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.py" xr:uid="{CFBC2139-C6B0-4408-BC05-743DEA28DDEA}"/>
     <hyperlink ref="G86" r:id="rId39" xr:uid="{8D1EC35C-8A93-4C55-BED7-F79348365835}"/>
     <hyperlink ref="G87" r:id="rId40" xr:uid="{C8116F67-3759-43C2-A3A8-DFC3DF7561D8}"/>
+    <hyperlink ref="G88" r:id="rId41" location="L67" xr:uid="{C17534BE-A2CD-4FFD-87D5-F15C29045CB0}"/>
+    <hyperlink ref="G89" r:id="rId42" location="L25" xr:uid="{D868025F-117F-4EDB-AA25-9DFE6692EB77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4866B6EF-4C15-4855-80E4-07E72DB80B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A587134-0359-484E-B785-B160FEFEED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="374">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>tool</t>
-  </si>
-  <si>
-    <t>Funktion</t>
   </si>
   <si>
     <t>Bibliothek</t>
@@ -999,6 +996,354 @@
   </si>
   <si>
     <t>clip_raster, _clip_raster</t>
+  </si>
+  <si>
+    <t>create_constant_raster.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/create_constant_raster.py#L15</t>
+  </si>
+  <si>
+    <t>create_constant_raster,  _create_constant_raster_from_template</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.exceptions -&gt; InvalidParameterValueException, eis_toolkit.utilities.checks.parameter -&gt; check_minmax_position, eis_toolkit.utilities.miscellaneous -&gt; cast_scalar_to_int, get_min_int_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erstelle ein konstantes Raster aus einem Vorlagenraster.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L1273</t>
+  </si>
+  <si>
+    <t>Erstelle manuell ein konstantes Raster durch Definition des CRS, des Ausmaßes und der Pixelgröße.</t>
+  </si>
+  <si>
+    <t>create_constant_raster_manually_cli, eis_toolkit.raster_processing.create_constant_raster -&gt; create_constant_raster, _create_constant_raster,  _create_constant_raster_from_bounds, _create_constant_raster_from_origin</t>
+  </si>
+  <si>
+    <t>Berechne die Entfernung von einer Rasterzelle zur nächsten Anomalie.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/distance_to_anomaly.py#L39</t>
+  </si>
+  <si>
+    <t>distance_to_anomaly.py</t>
+  </si>
+  <si>
+    <t>itertools -&gt; chain, geopandas, numpy, osgeo -&gt; gdal, rasterio -&gt; profiles, eis_toolkit.exceptions -&gt; EmptyDataException, InvalidParameterValueException, NumericValueSignException, eis_toolkit.utilities.checks.raster -&gt; check_raster_profile, eis_toolkit.utilities.miscellaneous -&gt; row_points, toggle_gdal_exceptions, eis_toolkit.vector_processing.distance_computation -&gt; distance_computation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> distance_to_anomaly, _check_threshold_criteria_and_value, distance_to_anomaly_gdal,  _fits_criteria, _validate_threshold_criteria, _distance_to_anomaly, _distance_to_anomaly_gdal</t>
+  </si>
+  <si>
+    <t>windowing.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/windowing.py#L82</t>
+  </si>
+  <si>
+    <t>extract_window, _extract_window</t>
+  </si>
+  <si>
+    <t>numpy, rasterio -&gt; transform, Window</t>
+  </si>
+  <si>
+    <t>Extrahiere Fenster aus dem Raster.</t>
+  </si>
+  <si>
+    <t>masking.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/masking.py#L11</t>
+  </si>
+  <si>
+    <t>Maskiere das Eingabebild unter Verwendung der NoData-Positionen aus dem Basisraster.</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.raster_processing.unifying -&gt; unify_raster_grids, eis_toolkit.utilities.checks.raster -&gt; check_raster_grids</t>
+  </si>
+  <si>
+    <t>mask_raster</t>
+  </si>
+  <si>
+    <t>proximity_to_anomaly.py</t>
+  </si>
+  <si>
+    <t>Berechne die Nähe einer Rasterzelle zur nächsten Anomalie.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/proximity_to_anomaly.py#L13</t>
+  </si>
+  <si>
+    <t>Funktionen</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.raster_processing.distance_to_anomaly -&gt; distance_to_anomaly, eis_toolkit.transformations.linear -&gt; _min_max_scaling</t>
+  </si>
+  <si>
+    <t>proximity_to_anomaly, proximity_to_anomaly_gdal</t>
+  </si>
+  <si>
+    <t>reclassify_with_defined_intervals, _reclassify_with_defined_intervals</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/reclassify.py#L76</t>
+  </si>
+  <si>
+    <t>Klassifiziere das Raster mit definierten Intervallen.</t>
+  </si>
+  <si>
+    <t>mapclassify, numpy, rasterio, eis_toolkit.exceptions -&gt; InvalidParameterValueException, InvalidRasterBandException, eis_toolkit.utilities.checks.raster -&gt; check_raster_bands</t>
+  </si>
+  <si>
+    <t>reclassify.py</t>
+  </si>
+  <si>
+    <t>reclassify_with_equal_intervals, _reclassify_with_equal_intervals</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/reclassify.py#L133</t>
+  </si>
+  <si>
+    <t>Klassifiziere das Raster mit gleichen Intervallen.</t>
+  </si>
+  <si>
+    <t>reclassify_with_geometrical_intervals, _reclassify_with_geometrical_intervals</t>
+  </si>
+  <si>
+    <t>Klassifiziere das Raster mit geometrischen Intervallen.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/reclassify.py#L344</t>
+  </si>
+  <si>
+    <t>reclassify_with_manual_breaks, _reclassify_with_manual_breaks</t>
+  </si>
+  <si>
+    <t>Klassifiziere das Raster mit manuellen Breaks.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/reclassify.py#L24</t>
+  </si>
+  <si>
+    <t>reclassify_with_natural_breaks, _reclassify_with_natural_breaks</t>
+  </si>
+  <si>
+    <t>Klassifiziere das Raster mit natürlichen Breaks (Jenks-Caspall).</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/reclassify.py#L241</t>
+  </si>
+  <si>
+    <t>reclassify_with_quantiles, _reclassify_with_quantilesreclassify_with_quantiles</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/reclassify.py#L187</t>
+  </si>
+  <si>
+    <t>Klassifiziere das Raster mit Quantilen.</t>
+  </si>
+  <si>
+    <t>reclassify_with_standard_deviation, _reclassify_with_standard_deviation</t>
+  </si>
+  <si>
+    <t>Klassifiziere das Raster mit Standardabweichung.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/reclassify.py#L414</t>
+  </si>
+  <si>
+    <t>reprojecting.py</t>
+  </si>
+  <si>
+    <t>reproject_raster, _reproject_raster</t>
+  </si>
+  <si>
+    <t>numpy, rasterio -&gt; wrap, eis_toolkit.exceptions -&gt; MatchingCrsException, eis_toolkit.raster_processing.resampling -&gt; RESAMPLE_METHOD_MAP</t>
+  </si>
+  <si>
+    <t>Reprojectiere das Raster, um das angegebene Koordinatenreferenzsystem (EPSG) anzupassen.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/reprojecting.py#L57</t>
+  </si>
+  <si>
+    <t>resample_raster.py</t>
+  </si>
+  <si>
+    <t>qgis.core -&gt; QgsProcessingParameterEnum, QgsProcessingParameterNumber, QgsProcessingParameterRasterDestination, QgsProcessingParameterRasterLayer, eis_qgis_plugin.eis_processing.eis_processing_algorithm -&gt; EISProcessingAlgorithm</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/raster_processing/resample_raster.py#L11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resample das Raster auf eine neue Auflösung/Pixelgröße.
+</t>
+  </si>
+  <si>
+    <t>snap_raster.py</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class EISResampleRaster(EISProcessingAlgorithm),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> initAlgorithm, QgsProcessingParameterRasterLayer, QgsProcessingParameterNumber, QgsProcessingParameterEnum, QgsProcessingParameterRasterDestination</t>
+    </r>
+  </si>
+  <si>
+    <t>qgis.core -&gt; QgsProcessingParameterRasterDestination, QgsProcessingParameterRasterLayer, eis_qgis_plugin.eis_processing.eis_processing_algorithm -&gt; EISProcessingAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richte das Raster an das gleiche Ausrichtungsraster wie das gegebene Basisraster aus.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/raster_processing/snap_raster.py#L9</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/raster_processing/surface_derivatives.py#L11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class EISSnapRaster(EISProcessingAlgorithm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, initAlgorithm, QgsProcessingParameterRasterLayer, QgsProcessingParameterRasterLayer, QgsProcessingParameterRasterDestination</t>
+    </r>
+  </si>
+  <si>
+    <t>surface_derivatives.py</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EISSurfaceDerivatives(EISProcessingAlgorithm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, QgsProcessingParameterRasterLayer, QgsProcessingParameterEnum, QgsProcessingParameterNumber, QgsProcessingParameterRasterDestination</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Berechne die ausgewählten ersten und/oder zweiten Ordnung Oberflächenattribute.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/raster_processing/unify_rasters.py#L12</t>
+  </si>
+  <si>
+    <t>unify_rasters.py</t>
+  </si>
+  <si>
+    <t>qgis.core -&gt; QgsProcessing, QgsProcessingParameterEnum, QgsProcessingParameterFolderDestination, QgsProcessingParameterMultipleLayers, QgsProcessingParameterRasterLayer, eis_qgis_plugin.eis_processing.eis_processing_algorithm -&gt; EISProcessingAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vereine die angegebenen Raster mit dem Basisraster.
+</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/raster_processing/unique_combinations.py#L10</t>
+  </si>
+  <si>
+    <t>Erzeuge Kombinationen von Werten zwischen den Rastern.</t>
+  </si>
+  <si>
+    <t>qgis.core -&gt; QgsProcessing, QgsProcessingParameterMultipleLayers, QgsProcessingParameterRasterDestination, eis_qgis_plugin.eis_processing.eis_processing_algorithm -&gt; EISProcessingAlgorithm</t>
+  </si>
+  <si>
+    <t>unique_combinations.py</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class EISUniqueCombinations(EISProcessingAlgorithm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, QgsProcessingParameterMultipleLayers, QgsProcessingParameterRasterDestination</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class EISUnifyRasters(EISProcessingAlgorithm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, QgsProcessingParameterMultipleLayers, QgsProcessingParameterRasterLayer, QgsProcessingParameterEnum, QgsProcessingParameterFolderDestination</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1099,7 +1444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1403,12 +1748,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1577,6 +1959,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1607,12 +1992,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1622,189 +2001,249 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1814,55 +2253,46 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2207,10 +2637,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
   <dimension ref="A1:Q108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2225,24 +2655,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="95"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="111"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2252,169 +2682,169 @@
         <v>2</v>
       </c>
       <c r="C3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="D4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="E4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="52" t="s">
+    </row>
+    <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="84"/>
+      <c r="B5" s="112" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="115" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
-      <c r="B5" s="96" t="s">
+      <c r="D5" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="84"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="132"/>
+      <c r="G6" s="134"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="132"/>
+      <c r="G7" s="134"/>
+    </row>
+    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="84"/>
+      <c r="B8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="84"/>
+      <c r="B9" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="128" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="120"/>
-      <c r="G6" s="129"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="120"/>
-      <c r="G7" s="129"/>
-    </row>
-    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="30" t="s">
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="19" t="s">
+      <c r="E9" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="84"/>
+      <c r="B10" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="C10" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="50" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
-      <c r="B10" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="11" t="s">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="84"/>
+      <c r="B11" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="136" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-      <c r="B11" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="118" t="s">
+      <c r="E11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="120" t="s">
+      <c r="F11" s="132" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="138" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" s="122" t="s">
-        <v>46</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2428,15 +2858,15 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="116"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="135"/>
       <c r="E12" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="120"/>
-      <c r="G12" s="122"/>
+        <v>37</v>
+      </c>
+      <c r="F12" s="132"/>
+      <c r="G12" s="138"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2449,15 +2879,15 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="118"/>
-      <c r="D13" s="116"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="135"/>
       <c r="E13" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="120"/>
-      <c r="G13" s="122"/>
+        <v>38</v>
+      </c>
+      <c r="F13" s="132"/>
+      <c r="G13" s="138"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2470,15 +2900,15 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="116"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="135"/>
       <c r="E14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="122"/>
+        <v>39</v>
+      </c>
+      <c r="F14" s="132"/>
+      <c r="G14" s="138"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2491,15 +2921,15 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="116"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="136"/>
+      <c r="D15" s="135"/>
       <c r="E15" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="120"/>
-      <c r="G15" s="122"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="132"/>
+      <c r="G15" s="138"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2512,15 +2942,15 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="116"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="135"/>
       <c r="E16" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="120"/>
-      <c r="G16" s="122"/>
+        <v>41</v>
+      </c>
+      <c r="F16" s="132"/>
+      <c r="G16" s="138"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2533,15 +2963,15 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="116"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="135"/>
       <c r="E17" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="120"/>
-      <c r="G17" s="122"/>
+        <v>42</v>
+      </c>
+      <c r="F17" s="132"/>
+      <c r="G17" s="138"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2554,15 +2984,15 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="116"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="135"/>
       <c r="E18" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="120"/>
-      <c r="G18" s="122"/>
+        <v>43</v>
+      </c>
+      <c r="F18" s="132"/>
+      <c r="G18" s="138"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2575,1325 +3005,1619 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
-      <c r="B19" s="108" t="s">
+      <c r="A19" s="84"/>
+      <c r="B19" s="124" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="130"/>
+      <c r="G20" s="131"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="84"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="130"/>
+      <c r="G21" s="131"/>
+    </row>
+    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="84"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="130"/>
+      <c r="G22" s="131"/>
+    </row>
+    <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="84"/>
+      <c r="B23" s="137" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="115" t="s">
+      <c r="C23" s="136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="135" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="114"/>
-      <c r="G20" s="115"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="114"/>
-      <c r="G21" s="115"/>
-    </row>
-    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="114"/>
-      <c r="G22" s="115"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
-      <c r="B23" s="85" t="s">
+      <c r="E23" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="138" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="84"/>
+      <c r="B24" s="137"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="132"/>
+      <c r="G24" s="138"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="84"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="132"/>
+      <c r="G25" s="138"/>
+    </row>
+    <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="84"/>
+      <c r="B26" s="137"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="132"/>
+      <c r="G26" s="138"/>
+    </row>
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="145"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="148"/>
+      <c r="G27" s="149"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="118" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="116" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="120" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="122" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="120"/>
-      <c r="G24" s="122"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="120"/>
-      <c r="G25" s="122"/>
-    </row>
-    <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="120"/>
-      <c r="G26" s="122"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="82"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="121"/>
-      <c r="G27" s="123"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="80" t="s">
+      <c r="C28" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="126" t="s">
+      <c r="D28" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="153" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="84"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="86"/>
+      <c r="G29" s="154"/>
+    </row>
+    <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="84"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="86"/>
+      <c r="G30" s="154"/>
+    </row>
+    <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="84"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="86"/>
+      <c r="G31" s="155"/>
+    </row>
+    <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="84"/>
+      <c r="B32" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="84"/>
+      <c r="B33" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="84"/>
+      <c r="B34" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="104" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="84"/>
+      <c r="B35" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="104"/>
+      <c r="F35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="88"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="84"/>
+      <c r="B36" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="84"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="84"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="100"/>
+      <c r="G38" s="101"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="84"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="100"/>
+      <c r="G39" s="101"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="84"/>
+      <c r="B40" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="88" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="84"/>
+      <c r="B41" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="104"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="88"/>
+    </row>
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="84"/>
+      <c r="B42" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="84"/>
+      <c r="B43" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="84"/>
+      <c r="B44" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="90"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="88"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="84"/>
+      <c r="B45" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="C45" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="94" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="101" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="84"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="101"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="84"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="101"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="84"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="101"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="84"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="101"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="84"/>
+      <c r="B50" s="92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="88" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="84"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" s="86"/>
+      <c r="G51" s="88"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="84"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="86"/>
+      <c r="G52" s="88"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="84"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="86"/>
+      <c r="G53" s="88"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="84"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F54" s="86"/>
+      <c r="G54" s="88"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="84"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="86"/>
+      <c r="G55" s="88"/>
+    </row>
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="84"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="86"/>
+      <c r="G56" s="88"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="84"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="86"/>
+      <c r="G57" s="88"/>
+    </row>
+    <row r="58" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="85"/>
+      <c r="B58" s="93"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="87"/>
+      <c r="G58" s="89"/>
+    </row>
+    <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="84"/>
+      <c r="B60" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="84"/>
+      <c r="B61" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="84"/>
+      <c r="B62" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="84"/>
+      <c r="B63" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="84"/>
+      <c r="B64" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="124" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="134" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="133"/>
-      <c r="G29" s="135"/>
-    </row>
-    <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
-      <c r="B30" s="127"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="133"/>
-      <c r="G30" s="135"/>
-    </row>
-    <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="81"/>
-      <c r="B31" s="127"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="133"/>
-      <c r="G31" s="136"/>
-    </row>
-    <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
-      <c r="B32" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
-      <c r="B33" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
-      <c r="B34" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="131" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="81"/>
-      <c r="B35" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="130"/>
-      <c r="F35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G35" s="131"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81"/>
-      <c r="B36" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="140" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="138" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="139" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="81"/>
-      <c r="B37" s="141"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="138"/>
-      <c r="G37" s="139"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="81"/>
-      <c r="B38" s="141"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="138"/>
-      <c r="G38" s="139"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="81"/>
-      <c r="B39" s="141"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="138"/>
-      <c r="G39" s="139"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
-      <c r="B40" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="133" t="s">
-        <v>101</v>
-      </c>
-      <c r="G40" s="131" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="81"/>
-      <c r="B41" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="131"/>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="81"/>
-      <c r="B42" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G42" s="55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="81"/>
-      <c r="B43" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="125" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="130" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="130" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="133" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="131" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="81"/>
-      <c r="B44" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="131"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="81"/>
-      <c r="B45" s="141" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="140" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="148" t="s">
-        <v>129</v>
-      </c>
-      <c r="E45" s="142" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="138" t="s">
-        <v>117</v>
-      </c>
-      <c r="G45" s="139" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="81"/>
-      <c r="B46" s="141"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="139"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="81"/>
-      <c r="B47" s="141"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="139"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="81"/>
-      <c r="B48" s="141"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="139"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="81"/>
-      <c r="B49" s="141"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="150"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="139"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="81"/>
-      <c r="B50" s="127" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="125" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="151" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="133" t="s">
-        <v>128</v>
-      </c>
-      <c r="G50" s="131" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="81"/>
-      <c r="B51" s="127"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F51" s="133"/>
-      <c r="G51" s="131"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="81"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="133"/>
-      <c r="G52" s="131"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="81"/>
-      <c r="B53" s="127"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="152"/>
-      <c r="E53" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="133"/>
-      <c r="G53" s="131"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="81"/>
-      <c r="B54" s="127"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="133"/>
-      <c r="G54" s="131"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="81"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="133"/>
-      <c r="G55" s="131"/>
-    </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="81"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F56" s="133"/>
-      <c r="G56" s="131"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="81"/>
-      <c r="B57" s="127"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F57" s="133"/>
-      <c r="G57" s="131"/>
-    </row>
-    <row r="58" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="143"/>
-      <c r="B58" s="147"/>
-      <c r="C58" s="146"/>
-      <c r="D58" s="152"/>
-      <c r="E58" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F58" s="144"/>
-      <c r="G58" s="145"/>
-    </row>
-    <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="34" t="s">
+      <c r="C64" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="84"/>
+      <c r="B65" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="84"/>
+      <c r="B66" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="84"/>
+      <c r="B67" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="G67" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="85"/>
+      <c r="B68" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="D68" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="D59" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" s="56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="81"/>
-      <c r="B60" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="81"/>
-      <c r="B61" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="G61" s="53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="81"/>
-      <c r="B62" s="43" t="s">
+      <c r="F68" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="G68" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="47" t="s">
+    </row>
+    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="F69" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="G69" s="52" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="84"/>
+      <c r="B70" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="F70" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70" s="74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="84"/>
+      <c r="B71" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C71" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F62" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="G62" s="50" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="81"/>
-      <c r="B63" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E63" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="G63" s="53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="81"/>
-      <c r="B64" s="43" t="s">
+      <c r="F71" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" s="53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="84"/>
+      <c r="B72" s="137" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="139" t="s">
+        <v>186</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="G72" s="142" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="84"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="139"/>
+      <c r="D73" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F73" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73" s="143"/>
+    </row>
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="84"/>
+      <c r="B74" s="137"/>
+      <c r="C74" s="139"/>
+      <c r="D74" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F74" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="143"/>
+    </row>
+    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="84"/>
+      <c r="B75" s="137"/>
+      <c r="C75" s="139"/>
+      <c r="D75" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="F75" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="G75" s="143"/>
+    </row>
+    <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="84"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="140"/>
+      <c r="D76" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="F76" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="G76" s="144"/>
+    </row>
+    <row r="77" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="84"/>
+      <c r="B77" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="G77" s="52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="84"/>
+      <c r="B78" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="G78" s="50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A79" s="84"/>
+      <c r="B79" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C64" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="E64" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="G64" s="50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="81"/>
-      <c r="B65" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="G65" s="53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="81"/>
-      <c r="B66" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F66" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="G66" s="50" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="81"/>
-      <c r="B67" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="G67" s="53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="143"/>
-      <c r="B68" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="C68" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E68" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="F68" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="G68" s="62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="80" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="F69" s="75" t="s">
-        <v>201</v>
-      </c>
-      <c r="G69" s="52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="81"/>
-      <c r="B70" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C70" s="65" t="s">
-        <v>210</v>
-      </c>
-      <c r="D70" s="49" t="s">
-        <v>211</v>
-      </c>
-      <c r="E70" s="49" t="s">
-        <v>212</v>
-      </c>
-      <c r="F70" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="G70" s="79" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="81"/>
-      <c r="B71" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F71" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="G71" s="53" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="81"/>
-      <c r="B72" s="85" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F72" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="G72" s="87" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="81"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F73" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="G73" s="88"/>
-    </row>
-    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="81"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E74" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F74" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="G74" s="88"/>
-    </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="81"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="F75" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="G75" s="88"/>
-    </row>
-    <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="81"/>
-      <c r="B76" s="86"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="F76" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="G76" s="89"/>
-    </row>
-    <row r="77" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="81"/>
-      <c r="B77" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E77" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="F77" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="G77" s="52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="81"/>
-      <c r="B78" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D78" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="E78" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="F78" s="46" t="s">
-        <v>204</v>
-      </c>
-      <c r="G78" s="50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A79" s="81"/>
-      <c r="B79" s="72" t="s">
+      <c r="D79" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F79" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="53" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="84"/>
+      <c r="B80" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C80" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="G80" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="84"/>
+      <c r="B81" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="E81" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F81" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="G81" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A82" s="84"/>
+      <c r="B82" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="G82" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="84"/>
+      <c r="B83" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="G83" s="53" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="84"/>
+      <c r="B84" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D79" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="F79" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="G79" s="53" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="81"/>
-      <c r="B80" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="E80" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="F80" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="G80" s="50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="81"/>
-      <c r="B81" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="E81" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="F81" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="G81" s="53" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A82" s="81"/>
-      <c r="B82" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="E82" s="45" t="s">
-        <v>239</v>
-      </c>
-      <c r="F82" s="46" t="s">
-        <v>237</v>
-      </c>
-      <c r="G82" s="50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="81"/>
-      <c r="B83" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="E83" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="F83" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="G83" s="53" t="s">
+      <c r="D84" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E84" s="45" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="81"/>
-      <c r="B84" s="71" t="s">
+      <c r="F84" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="G84" s="50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="84"/>
+      <c r="B85" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="D84" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="E84" s="45" t="s">
-        <v>244</v>
-      </c>
-      <c r="F84" s="46" t="s">
-        <v>246</v>
-      </c>
-      <c r="G84" s="50" t="s">
+      <c r="D85" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="F85" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G85" s="53" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="81"/>
-      <c r="B85" s="72" t="s">
+    <row r="86" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A86" s="84"/>
+      <c r="B86" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="C85" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="D85" s="30" t="s">
+      <c r="C86" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="G86" s="50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="231" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="85"/>
+      <c r="B87" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="F87" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="G87" s="79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="80" t="s">
         <v>261</v>
       </c>
-      <c r="E85" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="F85" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="G85" s="53" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A86" s="81"/>
-      <c r="B86" s="71" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="D86" s="67" t="s">
-        <v>254</v>
-      </c>
-      <c r="E86" s="45" t="s">
-        <v>253</v>
-      </c>
-      <c r="F86" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="G86" s="50" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="231" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="82"/>
-      <c r="B87" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="D87" s="68" t="s">
-        <v>260</v>
-      </c>
-      <c r="E87" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="F87" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="G87" s="77" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="B88" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="C88" s="157" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="158" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" s="158" t="s">
+        <v>287</v>
+      </c>
+      <c r="F88" s="159" t="s">
+        <v>286</v>
+      </c>
+      <c r="G88" s="160" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A89" s="81"/>
+      <c r="B89" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C88" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E88" s="16" t="s">
+      <c r="C89" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E89" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G89" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="F88" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="G88" s="153" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="B89" s="22" t="s">
+    </row>
+    <row r="90" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A90" s="81"/>
+      <c r="B90" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D89" s="16" t="s">
+      <c r="C90" s="161" t="s">
         <v>293</v>
       </c>
-      <c r="E89" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G89" s="153" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="22" t="s">
+      <c r="D90" s="162" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" s="162" t="s">
+        <v>296</v>
+      </c>
+      <c r="F90" s="163" t="s">
+        <v>297</v>
+      </c>
+      <c r="G90" s="164" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A91" s="81"/>
+      <c r="B91" s="18" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="22" t="s">
+      <c r="C91" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="D91" s="40" t="s">
+        <v>300</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G91" s="53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="81"/>
+      <c r="B92" s="21" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="22" t="s">
+      <c r="C92" s="161" t="s">
+        <v>303</v>
+      </c>
+      <c r="D92" s="162" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" s="162" t="s">
+        <v>304</v>
+      </c>
+      <c r="F92" s="163" t="s">
+        <v>301</v>
+      </c>
+      <c r="G92" s="164" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="81"/>
+      <c r="B93" s="18" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="22" t="s">
+      <c r="C93" s="42" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="G93" s="53" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A94" s="81"/>
+      <c r="B94" s="21" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="22" t="s">
+      <c r="C94" s="161" t="s">
+        <v>311</v>
+      </c>
+      <c r="D94" s="162" t="s">
+        <v>315</v>
+      </c>
+      <c r="E94" s="162" t="s">
+        <v>314</v>
+      </c>
+      <c r="F94" s="163" t="s">
+        <v>313</v>
+      </c>
+      <c r="G94" s="164" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="81"/>
+      <c r="B95" s="18" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B95" s="22" t="s">
+      <c r="C95" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D95" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="E95" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G95" s="53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="81"/>
+      <c r="B96" s="21" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B96" s="22" t="s">
+      <c r="C96" s="161" t="s">
+        <v>326</v>
+      </c>
+      <c r="D96" s="162" t="s">
+        <v>322</v>
+      </c>
+      <c r="E96" s="162" t="s">
+        <v>325</v>
+      </c>
+      <c r="F96" s="163" t="s">
+        <v>324</v>
+      </c>
+      <c r="G96" s="164" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="81"/>
+      <c r="B97" s="18" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="22" t="s">
+      <c r="C97" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="E97" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F97" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="G97" s="53" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="81"/>
+      <c r="B98" s="21" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="22" t="s">
+      <c r="C98" s="161" t="s">
+        <v>326</v>
+      </c>
+      <c r="D98" s="162" t="s">
+        <v>330</v>
+      </c>
+      <c r="E98" s="162" t="s">
+        <v>325</v>
+      </c>
+      <c r="F98" s="163" t="s">
+        <v>331</v>
+      </c>
+      <c r="G98" s="164" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="81"/>
+      <c r="B99" s="18" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="22" t="s">
+      <c r="C99" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="D99" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F99" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G99" s="53" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="81"/>
+      <c r="B100" s="21" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="22" t="s">
+      <c r="C100" s="161" t="s">
+        <v>326</v>
+      </c>
+      <c r="D100" s="162" t="s">
+        <v>336</v>
+      </c>
+      <c r="E100" s="162" t="s">
+        <v>325</v>
+      </c>
+      <c r="F100" s="163" t="s">
+        <v>337</v>
+      </c>
+      <c r="G100" s="164" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="81"/>
+      <c r="B101" s="18" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="22" t="s">
+      <c r="C101" s="42" t="s">
+        <v>326</v>
+      </c>
+      <c r="D101" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F101" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="G101" s="53" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="81"/>
+      <c r="B102" s="21" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="22" t="s">
+      <c r="C102" s="161" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="162" t="s">
+        <v>342</v>
+      </c>
+      <c r="E102" s="162" t="s">
+        <v>325</v>
+      </c>
+      <c r="F102" s="163" t="s">
+        <v>343</v>
+      </c>
+      <c r="G102" s="164" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="81"/>
+      <c r="B103" s="18" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="22" t="s">
+      <c r="C103" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="D103" s="40" t="s">
+        <v>346</v>
+      </c>
+      <c r="E103" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="F103" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="G103" s="53" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="81"/>
+      <c r="B104" s="21" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="22" t="s">
+      <c r="C104" s="161" t="s">
+        <v>350</v>
+      </c>
+      <c r="D104" s="162" t="s">
+        <v>355</v>
+      </c>
+      <c r="E104" s="162" t="s">
+        <v>351</v>
+      </c>
+      <c r="F104" s="163" t="s">
+        <v>353</v>
+      </c>
+      <c r="G104" s="164" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="81"/>
+      <c r="B105" s="18" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="22" t="s">
+      <c r="C105" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="D105" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="E105" s="40" t="s">
+        <v>356</v>
+      </c>
+      <c r="F105" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="G105" s="53" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="81"/>
+      <c r="B106" s="21" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="22" t="s">
+      <c r="C106" s="161" t="s">
+        <v>361</v>
+      </c>
+      <c r="D106" s="162" t="s">
+        <v>362</v>
+      </c>
+      <c r="E106" s="162" t="s">
+        <v>351</v>
+      </c>
+      <c r="F106" s="163" t="s">
+        <v>363</v>
+      </c>
+      <c r="G106" s="164" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="81"/>
+      <c r="B107" s="18" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="22" t="s">
+      <c r="C107" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="D107" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="F107" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="G107" s="53" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="82"/>
+      <c r="B108" s="165" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="22" t="s">
-        <v>283</v>
+      <c r="C108" s="166" t="s">
+        <v>371</v>
+      </c>
+      <c r="D108" s="167" t="s">
+        <v>372</v>
+      </c>
+      <c r="E108" s="167" t="s">
+        <v>370</v>
+      </c>
+      <c r="F108" s="168" t="s">
+        <v>369</v>
+      </c>
+      <c r="G108" s="169" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="F50:F58"/>
-    <mergeCell ref="G50:G58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="A28:A58"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
+  <mergeCells count="60">
+    <mergeCell ref="A69:A87"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -3910,22 +4634,34 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
-    <mergeCell ref="A69:A87"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="A4:A27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A88:A108"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="F50:F58"/>
+    <mergeCell ref="G50:G58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="A28:A58"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" location="L7" xr:uid="{F521EE9C-24C9-46E9-9B83-619AF2EE0F94}"/>
@@ -3970,8 +4706,27 @@
     <hyperlink ref="G87" r:id="rId40" xr:uid="{C8116F67-3759-43C2-A3A8-DFC3DF7561D8}"/>
     <hyperlink ref="G88" r:id="rId41" location="L67" xr:uid="{C17534BE-A2CD-4FFD-87D5-F15C29045CB0}"/>
     <hyperlink ref="G89" r:id="rId42" location="L25" xr:uid="{D868025F-117F-4EDB-AA25-9DFE6692EB77}"/>
+    <hyperlink ref="G90" r:id="rId43" location="L15" xr:uid="{78BD8C07-64E6-4487-A25B-4E802EDA1461}"/>
+    <hyperlink ref="G91" r:id="rId44" location="L1273" xr:uid="{2E23E726-8AEE-4AD5-80CD-A10F7B78E31F}"/>
+    <hyperlink ref="G92" r:id="rId45" location="L39" xr:uid="{0EAAF668-E208-48C1-9FEA-88651EA1C00D}"/>
+    <hyperlink ref="G93" r:id="rId46" location="L82" xr:uid="{9E914E8F-A5CC-472A-8202-99ADFF952263}"/>
+    <hyperlink ref="G94" r:id="rId47" location="L11" xr:uid="{81589042-A1DF-4063-A0D0-59853853FACE}"/>
+    <hyperlink ref="G95" r:id="rId48" location="L13" xr:uid="{2B8EDE01-BCE5-4D91-9EAE-D1BE7623A8A4}"/>
+    <hyperlink ref="G96" r:id="rId49" location="L76" xr:uid="{F985162A-0909-41D9-8035-DE9BC8937873}"/>
+    <hyperlink ref="G97" r:id="rId50" location="L133" xr:uid="{4E516956-6C19-49F1-ACA1-2AEE9D870969}"/>
+    <hyperlink ref="G98" r:id="rId51" location="L344" xr:uid="{86C8EBF1-3E8A-4F1E-B2E2-A263077C339A}"/>
+    <hyperlink ref="G99" r:id="rId52" location="L24" xr:uid="{A065D4F3-39E3-48AC-BC06-945FABCFECC6}"/>
+    <hyperlink ref="G100" r:id="rId53" location="L241" xr:uid="{22514972-84CF-428D-A165-8822CD4BE3A4}"/>
+    <hyperlink ref="G101" r:id="rId54" location="L187" xr:uid="{CC4705BF-F8BB-4795-9148-248B24045CD7}"/>
+    <hyperlink ref="G102" r:id="rId55" location="L414" xr:uid="{6E881B9D-E2EA-459E-A754-EAA92B8EBAC5}"/>
+    <hyperlink ref="G103" r:id="rId56" location="L57" xr:uid="{2E3ECD71-EA00-4485-A5FD-5B9BA635BC8F}"/>
+    <hyperlink ref="G104" r:id="rId57" location="L11" xr:uid="{461E5B89-3C87-476E-867C-4D159D56AAB9}"/>
+    <hyperlink ref="G105" r:id="rId58" location="L9" xr:uid="{E895E718-D1B8-4322-83DF-62A08D9BB20F}"/>
+    <hyperlink ref="G106" r:id="rId59" location="L11" xr:uid="{CE37467B-D9BE-4EED-A27C-36B3F6D1E1ED}"/>
+    <hyperlink ref="G107" r:id="rId60" location="L12" xr:uid="{CF80920D-5824-44DF-AEA9-57754EBEEDA4}"/>
+    <hyperlink ref="G108" r:id="rId61" location="L10" xr:uid="{60D8982C-399B-40DE-9319-94EA3C9F7629}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A587134-0359-484E-B785-B160FEFEED80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1158C957-BFF8-46C0-9014-79231966B206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="397">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -1344,6 +1344,76 @@
       </rPr>
       <t>, QgsProcessingParameterMultipleLayers, QgsProcessingParameterRasterLayer, QgsProcessingParameterEnum, QgsProcessingParameterFolderDestination</t>
     </r>
+  </si>
+  <si>
+    <t>Transformations</t>
+  </si>
+  <si>
+    <t>Binarize</t>
+  </si>
+  <si>
+    <t>Clip transform</t>
+  </si>
+  <si>
+    <t>Logarithmic transform</t>
+  </si>
+  <si>
+    <t>Min-max scaling</t>
+  </si>
+  <si>
+    <t>Sigmoid  transform</t>
+  </si>
+  <si>
+    <t>Winsorize transform</t>
+  </si>
+  <si>
+    <t>Z score normalization</t>
+  </si>
+  <si>
+    <t>Daten anhand eines festgelegten Schwellenwerts binarisieren.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/transformations/binarize.py#L25</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.exceptions -&gt; InvalidRasterBandException, NonMatchingParameterLengthsException, eis_toolkit.utilities.checks.parameter -&gt; check_parameter_length, eis_toolkit.utilities.checks.raster -&gt; check_raster_bands, eis_toolkit.utilities.miscellaneous -&gt; cast_scalar_to_int, check_dtype_for_int, expand_and_zip</t>
+  </si>
+  <si>
+    <t>binarize,_binarize</t>
+  </si>
+  <si>
+    <t>binarize.py</t>
+  </si>
+  <si>
+    <t>Daten anhand festgelegter Ober- und Untergrenzen begrenzen.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/transformations/clip.py#L43</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.exceptions -&gt; InvalidParameterValueException, InvalidRasterBandException, NonMatchingParameterLengthsException,
+eis_toolkit.utilities.checks.parameter -&gt; check_minmax_position, check_parameter_length eis_toolkit.utilities.checks.raster -&gt;  check_raster_bands eis_toolkit.utilities.miscellaneous -&gt; cast_array_to_float, cast_array_to_int, cast_scalar_to_int, expand_and_zip, eis_toolkit.utilities.nodata -&gt; nan_to_nodata, nodata_to_nan</t>
+  </si>
+  <si>
+    <t>clip_transform, _clip_transform</t>
+  </si>
+  <si>
+    <t>clip.py</t>
+  </si>
+  <si>
+    <t>logarithmic.py</t>
+  </si>
+  <si>
+    <t>Führe eine logarithmische Transformation auf den bereitgestellten Daten durch.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/transformations/logarithmic.py#L50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log_transform, _log_transform_log10, _log_transform_log2, _log_transform_ln, </t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.exceptions -&gt;  InvalidParameterValueException, InvalidRasterBandException, NonMatchingParameterLengthsException, eis_toolkit.utilities.checks.parameter -&gt; check_parameter_length eis_toolkit.utilities.checks.raster -&gt; check_raster_bands eis_toolkit.utilities.miscellaneous -&gt; cast_array_to_float, expand_and_zip, replace_values, set_max_precision, truncate_decimal_places, eis_toolkit.utilities.nodata -&gt; nan_to_nodata</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1772,25 +1842,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2025,45 +2082,243 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2082,217 +2337,40 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2635,12 +2713,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2649,30 +2727,30 @@
     <col min="2" max="2" width="37.5546875" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="16" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="37.77734375" style="16" customWidth="1"/>
     <col min="6" max="6" width="31" style="13" customWidth="1"/>
     <col min="7" max="7" width="102.5546875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="108"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="A2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2698,7 +2776,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2721,50 +2799,50 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84"/>
-      <c r="B5" s="112" t="s">
+      <c r="A5" s="91"/>
+      <c r="B5" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="132" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="132" t="s">
+      <c r="F5" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="146" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
-      <c r="B6" s="113"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="119"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="133"/>
       <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="134"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="147"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="120"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="132"/>
-      <c r="G7" s="134"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="147"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
+      <c r="A8" s="91"/>
       <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
@@ -2785,7 +2863,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
+      <c r="A9" s="91"/>
       <c r="B9" s="19" t="s">
         <v>214</v>
       </c>
@@ -2806,7 +2884,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
+      <c r="A10" s="91"/>
       <c r="B10" s="18" t="s">
         <v>215</v>
       </c>
@@ -2827,23 +2905,23 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="137" t="s">
+      <c r="A11" s="91"/>
+      <c r="B11" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="101" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="138" t="s">
+      <c r="G11" s="107" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="2"/>
@@ -2858,15 +2936,15 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="137"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="135"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="132"/>
-      <c r="G12" s="138"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="107"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2879,15 +2957,15 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="137"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="135"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="132"/>
-      <c r="G13" s="138"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="107"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2900,15 +2978,15 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="137"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="135"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="132"/>
-      <c r="G14" s="138"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="107"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2921,15 +2999,15 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="135"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="138"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="107"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2942,15 +3020,15 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="137"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="135"/>
+      <c r="A16" s="91"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="138"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="107"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2963,15 +3041,15 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="135"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="132"/>
-      <c r="G17" s="138"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2984,15 +3062,15 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="137"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="135"/>
+      <c r="A18" s="91"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="132"/>
-      <c r="G18" s="138"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="107"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -3005,182 +3083,182 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="124" t="s">
+      <c r="A19" s="91"/>
+      <c r="B19" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="141" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="121" t="s">
+      <c r="D19" s="135" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="130" t="s">
+      <c r="F19" s="144" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="131" t="s">
+      <c r="G19" s="145" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="122"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="136"/>
       <c r="E20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="130"/>
-      <c r="G20" s="131"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="145"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="122"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="136"/>
       <c r="E21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="130"/>
-      <c r="G21" s="131"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="145"/>
     </row>
     <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="123"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="140"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="137"/>
       <c r="E22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="130"/>
-      <c r="G22" s="131"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="145"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="137" t="s">
+      <c r="A23" s="91"/>
+      <c r="B23" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="136" t="s">
+      <c r="C23" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="135" t="s">
+      <c r="D23" s="101" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="132" t="s">
+      <c r="F23" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="138" t="s">
+      <c r="G23" s="107" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
-      <c r="B24" s="137"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="135"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="132"/>
-      <c r="G24" s="138"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="107"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
-      <c r="B25" s="137"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="135"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="132"/>
-      <c r="G25" s="138"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="107"/>
     </row>
     <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
-      <c r="B26" s="137"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="135"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="132"/>
-      <c r="G26" s="138"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="107"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="145"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="146"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="149"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="108"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="83" t="s">
+      <c r="A28" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="105" t="s">
+      <c r="D28" s="148" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="152" t="s">
+      <c r="F28" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="153" t="s">
+      <c r="G28" s="117" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="84"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="104"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="113"/>
       <c r="E29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="154"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="118"/>
     </row>
     <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="104"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="113"/>
       <c r="E30" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="86"/>
-      <c r="G30" s="154"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="118"/>
     </row>
     <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="84"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="104"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="113"/>
       <c r="E31" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="155"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="119"/>
     </row>
     <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="84"/>
+      <c r="A32" s="91"/>
       <c r="B32" s="21" t="s">
         <v>68</v>
       </c>
@@ -3201,7 +3279,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="84"/>
+      <c r="A33" s="91"/>
       <c r="B33" s="21" t="s">
         <v>67</v>
       </c>
@@ -3222,7 +3300,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="84"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="20" t="s">
         <v>78</v>
       </c>
@@ -3232,18 +3310,18 @@
       <c r="D34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="113" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="88" t="s">
+      <c r="G34" s="114" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="84"/>
+      <c r="A35" s="91"/>
       <c r="B35" s="20" t="s">
         <v>80</v>
       </c>
@@ -3253,68 +3331,68 @@
       <c r="D35" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="104"/>
+      <c r="E35" s="113"/>
       <c r="F35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="88"/>
+      <c r="G35" s="114"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="84"/>
-      <c r="B36" s="102" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="153" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="100" t="s">
+      <c r="F36" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="101" t="s">
+      <c r="G36" s="150" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="84"/>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="99"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="153"/>
       <c r="E37" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="100"/>
-      <c r="G37" s="101"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="150"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="84"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="99"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="153"/>
       <c r="E38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="100"/>
-      <c r="G38" s="101"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="150"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="84"/>
-      <c r="B39" s="102"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="99"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="153"/>
       <c r="E39" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="100"/>
-      <c r="G39" s="101"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="150"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="84"/>
+      <c r="A40" s="91"/>
       <c r="B40" s="20" t="s">
         <v>94</v>
       </c>
@@ -3324,18 +3402,18 @@
       <c r="D40" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="86" t="s">
+      <c r="F40" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="88" t="s">
+      <c r="G40" s="114" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="84"/>
+      <c r="A41" s="91"/>
       <c r="B41" s="20" t="s">
         <v>97</v>
       </c>
@@ -3345,12 +3423,12 @@
       <c r="D41" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="104"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="88"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="114"/>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="84"/>
+      <c r="A42" s="91"/>
       <c r="B42" s="21" t="s">
         <v>102</v>
       </c>
@@ -3371,205 +3449,205 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="84"/>
+      <c r="A43" s="91"/>
       <c r="B43" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="86" t="s">
+      <c r="F43" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="88" t="s">
+      <c r="G43" s="114" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="84"/>
+      <c r="A44" s="91"/>
       <c r="B44" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="88"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="114"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="84"/>
-      <c r="B45" s="102" t="s">
+      <c r="A45" s="91"/>
+      <c r="B45" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="103" t="s">
+      <c r="C45" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="94" t="s">
+      <c r="D45" s="160" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="99" t="s">
+      <c r="E45" s="153" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="100" t="s">
+      <c r="F45" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="101" t="s">
+      <c r="G45" s="150" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="84"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="101"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="150"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="84"/>
-      <c r="B47" s="102"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="101"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="150"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="84"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="103"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="99"/>
-      <c r="F48" s="100"/>
-      <c r="G48" s="101"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="150"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="84"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="103"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="101"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="162"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="149"/>
+      <c r="G49" s="150"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="84"/>
-      <c r="B50" s="92" t="s">
+      <c r="A50" s="91"/>
+      <c r="B50" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="90" t="s">
+      <c r="C50" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="163" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="86" t="s">
+      <c r="F50" s="116" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="88" t="s">
+      <c r="G50" s="114" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="84"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="98"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="112"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="86"/>
-      <c r="G51" s="88"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="114"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="84"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="98"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="86"/>
-      <c r="G52" s="88"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="114"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="84"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="98"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="86"/>
-      <c r="G53" s="88"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="114"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="98"/>
+      <c r="A54" s="91"/>
+      <c r="B54" s="112"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="86"/>
-      <c r="G54" s="88"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="114"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="84"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="98"/>
+      <c r="A55" s="91"/>
+      <c r="B55" s="112"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="86"/>
-      <c r="G55" s="88"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="114"/>
     </row>
     <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="84"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="98"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="112"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="86"/>
-      <c r="G56" s="88"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="114"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="84"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="98"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="86"/>
-      <c r="G57" s="88"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="114"/>
     </row>
     <row r="58" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="85"/>
-      <c r="B58" s="93"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="98"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="87"/>
-      <c r="G58" s="89"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="157"/>
     </row>
     <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="83" t="s">
+      <c r="A59" s="90" t="s">
         <v>130</v>
       </c>
       <c r="B59" s="34" t="s">
@@ -3592,7 +3670,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="84"/>
+      <c r="A60" s="91"/>
       <c r="B60" s="43" t="s">
         <v>136</v>
       </c>
@@ -3613,7 +3691,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="84"/>
+      <c r="A61" s="91"/>
       <c r="B61" s="38" t="s">
         <v>140</v>
       </c>
@@ -3634,7 +3712,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="84"/>
+      <c r="A62" s="91"/>
       <c r="B62" s="43" t="s">
         <v>145</v>
       </c>
@@ -3655,7 +3733,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="84"/>
+      <c r="A63" s="91"/>
       <c r="B63" s="38" t="s">
         <v>149</v>
       </c>
@@ -3676,7 +3754,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="84"/>
+      <c r="A64" s="91"/>
       <c r="B64" s="43" t="s">
         <v>219</v>
       </c>
@@ -3697,7 +3775,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="84"/>
+      <c r="A65" s="91"/>
       <c r="B65" s="38" t="s">
         <v>154</v>
       </c>
@@ -3718,7 +3796,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="84"/>
+      <c r="A66" s="91"/>
       <c r="B66" s="43" t="s">
         <v>155</v>
       </c>
@@ -3739,7 +3817,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="84"/>
+      <c r="A67" s="91"/>
       <c r="B67" s="38" t="s">
         <v>157</v>
       </c>
@@ -3760,7 +3838,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="85"/>
+      <c r="A68" s="92"/>
       <c r="B68" s="59" t="s">
         <v>162</v>
       </c>
@@ -3781,7 +3859,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="83" t="s">
+      <c r="A69" s="90" t="s">
         <v>164</v>
       </c>
       <c r="B69" s="17" t="s">
@@ -3804,7 +3882,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="84"/>
+      <c r="A70" s="91"/>
       <c r="B70" s="19" t="s">
         <v>166</v>
       </c>
@@ -3825,7 +3903,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="84"/>
+      <c r="A71" s="91"/>
       <c r="B71" s="18" t="s">
         <v>167</v>
       </c>
@@ -3846,11 +3924,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="84"/>
-      <c r="B72" s="137" t="s">
+      <c r="A72" s="91"/>
+      <c r="B72" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="139" t="s">
+      <c r="C72" s="93" t="s">
         <v>186</v>
       </c>
       <c r="D72" s="29" t="s">
@@ -3862,14 +3940,14 @@
       <c r="F72" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="G72" s="142" t="s">
+      <c r="G72" s="97" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="84"/>
-      <c r="B73" s="137"/>
-      <c r="C73" s="139"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="93"/>
       <c r="D73" s="29" t="s">
         <v>189</v>
       </c>
@@ -3879,12 +3957,12 @@
       <c r="F73" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="143"/>
+      <c r="G73" s="98"/>
     </row>
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="84"/>
-      <c r="B74" s="137"/>
-      <c r="C74" s="139"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="93"/>
       <c r="D74" s="29" t="s">
         <v>190</v>
       </c>
@@ -3894,12 +3972,12 @@
       <c r="F74" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="G74" s="143"/>
+      <c r="G74" s="98"/>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="84"/>
-      <c r="B75" s="137"/>
-      <c r="C75" s="139"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="93"/>
       <c r="D75" s="29" t="s">
         <v>191</v>
       </c>
@@ -3909,12 +3987,12 @@
       <c r="F75" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G75" s="143"/>
+      <c r="G75" s="98"/>
     </row>
     <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="84"/>
-      <c r="B76" s="141"/>
-      <c r="C76" s="140"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="94"/>
       <c r="D76" s="57" t="s">
         <v>192</v>
       </c>
@@ -3924,10 +4002,10 @@
       <c r="F76" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="144"/>
+      <c r="G76" s="99"/>
     </row>
     <row r="77" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="84"/>
+      <c r="A77" s="91"/>
       <c r="B77" s="69" t="s">
         <v>169</v>
       </c>
@@ -3948,7 +4026,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="84"/>
+      <c r="A78" s="91"/>
       <c r="B78" s="70" t="s">
         <v>170</v>
       </c>
@@ -3969,7 +4047,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A79" s="84"/>
+      <c r="A79" s="91"/>
       <c r="B79" s="71" t="s">
         <v>171</v>
       </c>
@@ -3990,7 +4068,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="84"/>
+      <c r="A80" s="91"/>
       <c r="B80" s="70" t="s">
         <v>172</v>
       </c>
@@ -4011,7 +4089,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="84"/>
+      <c r="A81" s="91"/>
       <c r="B81" s="71" t="s">
         <v>173</v>
       </c>
@@ -4032,7 +4110,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A82" s="84"/>
+      <c r="A82" s="91"/>
       <c r="B82" s="70" t="s">
         <v>174</v>
       </c>
@@ -4053,7 +4131,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="84"/>
+      <c r="A83" s="91"/>
       <c r="B83" s="71" t="s">
         <v>175</v>
       </c>
@@ -4074,7 +4152,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="84"/>
+      <c r="A84" s="91"/>
       <c r="B84" s="70" t="s">
         <v>176</v>
       </c>
@@ -4095,7 +4173,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="84"/>
+      <c r="A85" s="91"/>
       <c r="B85" s="71" t="s">
         <v>177</v>
       </c>
@@ -4116,7 +4194,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A86" s="84"/>
+      <c r="A86" s="91"/>
       <c r="B86" s="70" t="s">
         <v>178</v>
       </c>
@@ -4136,8 +4214,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="231" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="85"/>
+    <row r="87" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="92"/>
       <c r="B87" s="75" t="s">
         <v>179</v>
       </c>
@@ -4158,30 +4236,30 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A88" s="80" t="s">
+      <c r="A88" s="154" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="156" t="s">
+      <c r="B88" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="157" t="s">
+      <c r="C88" s="82" t="s">
         <v>283</v>
       </c>
-      <c r="D88" s="158" t="s">
+      <c r="D88" s="83" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="158" t="s">
+      <c r="E88" s="83" t="s">
         <v>287</v>
       </c>
-      <c r="F88" s="159" t="s">
+      <c r="F88" s="84" t="s">
         <v>286</v>
       </c>
-      <c r="G88" s="160" t="s">
+      <c r="G88" s="85" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A89" s="81"/>
+      <c r="A89" s="155"/>
       <c r="B89" s="18" t="s">
         <v>263</v>
       </c>
@@ -4202,28 +4280,28 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A90" s="81"/>
+      <c r="A90" s="155"/>
       <c r="B90" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="161" t="s">
+      <c r="C90" s="86" t="s">
         <v>293</v>
       </c>
-      <c r="D90" s="162" t="s">
+      <c r="D90" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="162" t="s">
+      <c r="E90" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="F90" s="163" t="s">
+      <c r="F90" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="G90" s="164" t="s">
+      <c r="G90" s="89" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A91" s="81"/>
+      <c r="A91" s="155"/>
       <c r="B91" s="18" t="s">
         <v>265</v>
       </c>
@@ -4244,28 +4322,28 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="81"/>
+      <c r="A92" s="155"/>
       <c r="B92" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C92" s="161" t="s">
+      <c r="C92" s="86" t="s">
         <v>303</v>
       </c>
-      <c r="D92" s="162" t="s">
+      <c r="D92" s="87" t="s">
         <v>305</v>
       </c>
-      <c r="E92" s="162" t="s">
+      <c r="E92" s="87" t="s">
         <v>304</v>
       </c>
-      <c r="F92" s="163" t="s">
+      <c r="F92" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="G92" s="164" t="s">
+      <c r="G92" s="89" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="81"/>
+      <c r="A93" s="155"/>
       <c r="B93" s="18" t="s">
         <v>267</v>
       </c>
@@ -4286,28 +4364,28 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="81"/>
+      <c r="A94" s="155"/>
       <c r="B94" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C94" s="161" t="s">
+      <c r="C94" s="86" t="s">
         <v>311</v>
       </c>
-      <c r="D94" s="162" t="s">
+      <c r="D94" s="87" t="s">
         <v>315</v>
       </c>
-      <c r="E94" s="162" t="s">
+      <c r="E94" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="F94" s="163" t="s">
+      <c r="F94" s="88" t="s">
         <v>313</v>
       </c>
-      <c r="G94" s="164" t="s">
+      <c r="G94" s="89" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="81"/>
+      <c r="A95" s="155"/>
       <c r="B95" s="18" t="s">
         <v>269</v>
       </c>
@@ -4328,28 +4406,28 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="81"/>
+      <c r="A96" s="155"/>
       <c r="B96" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C96" s="161" t="s">
+      <c r="C96" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="D96" s="162" t="s">
+      <c r="D96" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="162" t="s">
+      <c r="E96" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="F96" s="163" t="s">
+      <c r="F96" s="88" t="s">
         <v>324</v>
       </c>
-      <c r="G96" s="164" t="s">
+      <c r="G96" s="89" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="81"/>
+      <c r="A97" s="155"/>
       <c r="B97" s="18" t="s">
         <v>271</v>
       </c>
@@ -4370,28 +4448,28 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="81"/>
+      <c r="A98" s="155"/>
       <c r="B98" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="161" t="s">
+      <c r="C98" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="D98" s="162" t="s">
+      <c r="D98" s="87" t="s">
         <v>330</v>
       </c>
-      <c r="E98" s="162" t="s">
+      <c r="E98" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="F98" s="163" t="s">
+      <c r="F98" s="88" t="s">
         <v>331</v>
       </c>
-      <c r="G98" s="164" t="s">
+      <c r="G98" s="89" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="81"/>
+      <c r="A99" s="155"/>
       <c r="B99" s="18" t="s">
         <v>273</v>
       </c>
@@ -4412,28 +4490,28 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="81"/>
+      <c r="A100" s="155"/>
       <c r="B100" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="161" t="s">
+      <c r="C100" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="D100" s="162" t="s">
+      <c r="D100" s="87" t="s">
         <v>336</v>
       </c>
-      <c r="E100" s="162" t="s">
+      <c r="E100" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="F100" s="163" t="s">
+      <c r="F100" s="88" t="s">
         <v>337</v>
       </c>
-      <c r="G100" s="164" t="s">
+      <c r="G100" s="89" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="81"/>
+      <c r="A101" s="155"/>
       <c r="B101" s="18" t="s">
         <v>275</v>
       </c>
@@ -4454,28 +4532,28 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="81"/>
+      <c r="A102" s="155"/>
       <c r="B102" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="C102" s="161" t="s">
+      <c r="C102" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="D102" s="162" t="s">
+      <c r="D102" s="87" t="s">
         <v>342</v>
       </c>
-      <c r="E102" s="162" t="s">
+      <c r="E102" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="F102" s="163" t="s">
+      <c r="F102" s="88" t="s">
         <v>343</v>
       </c>
-      <c r="G102" s="164" t="s">
+      <c r="G102" s="89" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="81"/>
+      <c r="A103" s="155"/>
       <c r="B103" s="18" t="s">
         <v>277</v>
       </c>
@@ -4496,28 +4574,28 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="81"/>
+      <c r="A104" s="155"/>
       <c r="B104" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="161" t="s">
+      <c r="C104" s="86" t="s">
         <v>350</v>
       </c>
-      <c r="D104" s="162" t="s">
+      <c r="D104" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="E104" s="162" t="s">
+      <c r="E104" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="F104" s="163" t="s">
+      <c r="F104" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="G104" s="164" t="s">
+      <c r="G104" s="89" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="81"/>
+      <c r="A105" s="155"/>
       <c r="B105" s="18" t="s">
         <v>279</v>
       </c>
@@ -4538,28 +4616,28 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="81"/>
+      <c r="A106" s="155"/>
       <c r="B106" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="C106" s="161" t="s">
+      <c r="C106" s="86" t="s">
         <v>361</v>
       </c>
-      <c r="D106" s="162" t="s">
+      <c r="D106" s="87" t="s">
         <v>362</v>
       </c>
-      <c r="E106" s="162" t="s">
+      <c r="E106" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="F106" s="163" t="s">
+      <c r="F106" s="88" t="s">
         <v>363</v>
       </c>
-      <c r="G106" s="164" t="s">
+      <c r="G106" s="89" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="81"/>
+      <c r="A107" s="155"/>
       <c r="B107" s="18" t="s">
         <v>281</v>
       </c>
@@ -4580,7 +4658,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="82"/>
+      <c r="A108" s="155"/>
       <c r="B108" s="165" t="s">
         <v>282</v>
       </c>
@@ -4600,8 +4678,162 @@
         <v>368</v>
       </c>
     </row>
+    <row r="109" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A109" s="170" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="D109" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="E109" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="F109" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="G109" s="52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="171"/>
+      <c r="B110" s="80" t="s">
+        <v>376</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="D110" s="45" t="s">
+        <v>390</v>
+      </c>
+      <c r="E110" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="F110" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="G110" s="50" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="171"/>
+      <c r="B111" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="D111" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="F111" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="G111" s="53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="171"/>
+      <c r="B112" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C112" s="47"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="171"/>
+      <c r="B113" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" s="42"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="171"/>
+      <c r="B114" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C114" s="47"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+    </row>
+    <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="172"/>
+      <c r="B115" s="173" t="s">
+        <v>381</v>
+      </c>
+      <c r="C115" s="174"/>
+      <c r="D115" s="175"/>
+      <c r="E115" s="175"/>
+      <c r="F115" s="176"/>
+      <c r="G115" s="176"/>
+    </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="61">
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="A88:A108"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="F50:F58"/>
+    <mergeCell ref="G50:G58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="A28:A58"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:G18"/>
     <mergeCell ref="A69:A87"/>
     <mergeCell ref="C72:C76"/>
     <mergeCell ref="B72:B76"/>
@@ -4618,50 +4850,6 @@
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="G28:G31"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="A88:A108"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="F50:F58"/>
-    <mergeCell ref="G50:G58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="A28:A58"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D43:D44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" location="L7" xr:uid="{F521EE9C-24C9-46E9-9B83-619AF2EE0F94}"/>
@@ -4725,8 +4913,11 @@
     <hyperlink ref="G106" r:id="rId59" location="L11" xr:uid="{CE37467B-D9BE-4EED-A27C-36B3F6D1E1ED}"/>
     <hyperlink ref="G107" r:id="rId60" location="L12" xr:uid="{CF80920D-5824-44DF-AEA9-57754EBEEDA4}"/>
     <hyperlink ref="G108" r:id="rId61" location="L10" xr:uid="{60D8982C-399B-40DE-9319-94EA3C9F7629}"/>
+    <hyperlink ref="G109" r:id="rId62" location="L25" xr:uid="{DBF1AAAF-C8F5-4631-88C8-138285C234A9}"/>
+    <hyperlink ref="G110" r:id="rId63" location="L43" xr:uid="{FFF7CFC2-1557-4E74-8493-E1A503803E2A}"/>
+    <hyperlink ref="G111" r:id="rId64" location="L50" xr:uid="{6E52CF07-B9B9-4CC7-8191-FBA9CFA491BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId62"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1158C957-BFF8-46C0-9014-79231966B206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA8862-2970-4E1E-9C8A-FC76C344FE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="415">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -1414,6 +1414,60 @@
   </si>
   <si>
     <t>numpy, rasterio, eis_toolkit.exceptions -&gt;  InvalidParameterValueException, InvalidRasterBandException, NonMatchingParameterLengthsException, eis_toolkit.utilities.checks.parameter -&gt; check_parameter_length eis_toolkit.utilities.checks.raster -&gt; check_raster_bands eis_toolkit.utilities.miscellaneous -&gt; cast_array_to_float, expand_and_zip, replace_values, set_max_precision, truncate_decimal_places, eis_toolkit.utilities.nodata -&gt; nan_to_nodata</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/transformations/winsorize.py#L55https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/transformations/winsorize.py#L55</t>
+  </si>
+  <si>
+    <t>Wende eine Winsorisierung der Daten basierend auf den angegebenen Perzentilwerten an.</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.exceptions -&gt; InvalidParameterValueException, InvalidRasterBandException, NonMatchingParameterLengthsException, eis_toolkit.utilities.checks.parameter -&gt; check_parameter_length eis_toolkit.utilities.checks.raster -&gt; check_raster_bands eis_toolkit.utilities.miscellaneous -&gt; cast_array_to_float, cast_array_to_int, cast_scalar_to_int, expand_and_zip, eis_toolkit.utilities.nodata -&gt; nan_to_nodata, nodata_to_nan</t>
+  </si>
+  <si>
+    <t>winsorize, _winsorize</t>
+  </si>
+  <si>
+    <t>winsorize.py</t>
+  </si>
+  <si>
+    <t>sigmoid.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/transformations/sigmoid.py#L43</t>
+  </si>
+  <si>
+    <t>Transformiere die Daten in eine Sigmoid-Form basierend auf einem angegebenen neuen Bereich.</t>
+  </si>
+  <si>
+    <t>rasterio, numpy, eis_toolkit.exceptions -&gt; InvalidParameterValueException, InvalidRasterBandException, NonMatchingParameterLengthsException, eis_toolkit.utilities.checks.parameter -&gt; check_minmax_position, check_parameter_length, eis_toolkit.utilities.checks.raster -&gt; check_raster_bands eis_toolkit.utilities.miscellaneous -&gt; cast_array_to_float, expand_and_zip, replace_values, set_max_precision, truncate_decimal_places, eis_toolkit.utilities.nodata -&gt; nan_to_nodata</t>
+  </si>
+  <si>
+    <t>sigmoid_transform, _sigmoid_transform</t>
+  </si>
+  <si>
+    <t>Normalisiere die Daten basierend auf dem Mittelwert und der Standardabweichung.</t>
+  </si>
+  <si>
+    <t>z_score_normalization, _z_score_normalization</t>
+  </si>
+  <si>
+    <t>linear.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/linear.py#L49</t>
+  </si>
+  <si>
+    <t>min_max_scaling, _min_max_scaling</t>
+  </si>
+  <si>
+    <t>Normalize data based on a specified new range.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/linear.py#L124</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.exceptions -&gt; InvalidRasterBandException, NonMatchingParameterLengthsException, eis_toolkit.utilities.checks.parameter import check_parameter_length eis_toolkit.utilities.checks.raster -&gt; check_raster_bands eis_toolkit.utilities.miscellaneous -&gt; cast_array_to_float, expand_and_zip, replace_values, set_max_precision, truncate_decimal_places, eis_toolkit.utilities.nodata -&gt; nan_to_nodata</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1901,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2372,6 +2426,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2716,9 +2776,9 @@
   <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E112" sqref="E112"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4743,49 +4803,89 @@
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="171"/>
       <c r="B112" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="C112" s="47"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="46"/>
-      <c r="G112" s="46"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C112" s="178" t="s">
+        <v>409</v>
+      </c>
+      <c r="D112" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="E112" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="F112" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G112" s="50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A113" s="171"/>
       <c r="B113" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="C113" s="42"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="40"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C113" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="D113" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="E113" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="F113" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="G113" s="53" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A114" s="171"/>
       <c r="B114" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C114" s="47"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C114" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="D114" s="45" t="s">
+        <v>400</v>
+      </c>
+      <c r="E114" s="45" t="s">
+        <v>399</v>
+      </c>
+      <c r="F114" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="G114" s="50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="172"/>
       <c r="B115" s="173" t="s">
         <v>381</v>
       </c>
-      <c r="C115" s="174"/>
-      <c r="D115" s="175"/>
-      <c r="E115" s="175"/>
-      <c r="F115" s="176"/>
-      <c r="G115" s="176"/>
+      <c r="C115" s="174" t="s">
+        <v>409</v>
+      </c>
+      <c r="D115" s="175" t="s">
+        <v>408</v>
+      </c>
+      <c r="E115" s="175" t="s">
+        <v>414</v>
+      </c>
+      <c r="F115" s="176" t="s">
+        <v>407</v>
+      </c>
+      <c r="G115" s="177" t="s">
+        <v>410</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -4916,8 +5016,12 @@
     <hyperlink ref="G109" r:id="rId62" location="L25" xr:uid="{DBF1AAAF-C8F5-4631-88C8-138285C234A9}"/>
     <hyperlink ref="G110" r:id="rId63" location="L43" xr:uid="{FFF7CFC2-1557-4E74-8493-E1A503803E2A}"/>
     <hyperlink ref="G111" r:id="rId64" location="L50" xr:uid="{6E52CF07-B9B9-4CC7-8191-FBA9CFA491BC}"/>
+    <hyperlink ref="G114" r:id="rId65" location="L55https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/transformations/winsorize.py" xr:uid="{DBAE59D2-628C-4A5A-9FF0-5397D7EE08F4}"/>
+    <hyperlink ref="G113" r:id="rId66" location="L43" xr:uid="{5453F48C-25CE-406B-8FE5-1BB99A255094}"/>
+    <hyperlink ref="G115" r:id="rId67" location="L49" xr:uid="{716659A6-A3C7-4400-932A-65AB06AC26AB}"/>
+    <hyperlink ref="G112" r:id="rId68" location="L124" xr:uid="{A6E6413E-3729-4B91-AE98-1ECB6692CE2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA8862-2970-4E1E-9C8A-FC76C344FE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626B0B9-714E-43A0-9899-62F7F6EAD8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="458">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -1468,6 +1468,135 @@
   </si>
   <si>
     <t>numpy, rasterio, eis_toolkit.exceptions -&gt; InvalidRasterBandException, NonMatchingParameterLengthsException, eis_toolkit.utilities.checks.parameter import check_parameter_length eis_toolkit.utilities.checks.raster -&gt; check_raster_bands eis_toolkit.utilities.miscellaneous -&gt; cast_array_to_float, expand_and_zip, replace_values, set_max_precision, truncate_decimal_places, eis_toolkit.utilities.nodata -&gt; nan_to_nodata</t>
+  </si>
+  <si>
+    <t>Transform CoDA</t>
+  </si>
+  <si>
+    <t>ALR transform</t>
+  </si>
+  <si>
+    <t>CLR transform</t>
+  </si>
+  <si>
+    <t>Inverse ALR transform</t>
+  </si>
+  <si>
+    <t>Inverse CLR transform</t>
+  </si>
+  <si>
+    <t>Pairwise logratio transform</t>
+  </si>
+  <si>
+    <t>Pivot logratio transform</t>
+  </si>
+  <si>
+    <t>Single ILR transform</t>
+  </si>
+  <si>
+    <t>Single PLR transform</t>
+  </si>
+  <si>
+    <t>Perform a pivot logratio transformation on the selected column.</t>
+  </si>
+  <si>
+    <t>alr.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/coda/alr.py#L22</t>
+  </si>
+  <si>
+    <t>Eine additive Logratios-Transformation auf die Daten durchführen.</t>
+  </si>
+  <si>
+    <t>alr_transform, _alr_transform</t>
+  </si>
+  <si>
+    <t>numpy, pandas, eis_toolkit.exceptions -&gt; InvalidColumnException, NumericValueSignException, eis_toolkit.utilities.checks.compositional -&gt; check_in_simplex_sample_space, eis_toolkit.utilities.miscellaneous -&gt; rename_columns_by_pattern</t>
+  </si>
+  <si>
+    <t>clr.py</t>
+  </si>
+  <si>
+    <t>Eine zentrierte Logratios-Transformation auf die Daten durchführen.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/coda/clr.py#L31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clr_transformclr_transform, _clr_transform, </t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/coda/alr.py#L69</t>
+  </si>
+  <si>
+    <t>inverse_alr,_inverse_alr</t>
+  </si>
+  <si>
+    <t>numpy, pandas, eis_toolkit.utilities.aitchison_geometry -&gt; _closure, eis_toolkit.exceptions -&gt; InvalidColumnException, NumericValueSignException</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/coda/clr.py#L60</t>
+  </si>
+  <si>
+    <t>Die inverse Transformation für einen Satz von CLR-transformierten Daten durchführen.</t>
+  </si>
+  <si>
+    <t>Die inverse Transformation für einen Satz von ALR-transformierten Daten durchführen.</t>
+  </si>
+  <si>
+    <t>inverse_clr, _inverse_clr</t>
+  </si>
+  <si>
+    <t>numpy, pandas, scipy.stat -&gt; gmean,  eis_toolkit.utilities.checks.compositional -&gt; check_in_simplex_sample_space, eis_toolkit.utilities.miscellaneous -&gt; rename_columns_by_pattern</t>
+  </si>
+  <si>
+    <t>numpy, pandas,  eis_toolkit.exceptions -&gt; NumericValueSignException, eis_toolkit.utilities.aitchison_geometry -&gt; _closure</t>
+  </si>
+  <si>
+    <t>pairwise.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/coda/pairwise.py#L51</t>
+  </si>
+  <si>
+    <t>numpy, pandas, eis_toolkit.exceptions -&gt; InvalidColumnException, InvalidParameterValueException, eis_toolkit.utilities.checks.dataframe -&gt; check_dataframe_contains_zeros</t>
+  </si>
+  <si>
+    <t>pairwise_logratio,_pairwise_logratio</t>
+  </si>
+  <si>
+    <t>Eine paarweise Logratios-Transformation auf die gegebenen Spalten durchführen.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/coda/plr.py#L109</t>
+  </si>
+  <si>
+    <t>plr.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plr_transform, _plr_transform, _single_plr_transform_by_index, _calculate_plr_scaling_factor, _single_plr_transform, single_plr_transform, </t>
+  </si>
+  <si>
+    <t>numpy, pandas, scipy.stats -&gt; gmean, eis_toolkit.exceptions -&gt; InvalidColumnException, InvalidParameterValueException, eis_toolkit.utilities.checks.compositional -&gt; check_in_simplex_sample_space, eis_toolkit.utilities.checks.parameter -&gt; check_numeric_value_sign, eis_toolkit.utilities.miscellaneous -&gt; rename_columns_by_pattern</t>
+  </si>
+  <si>
+    <t>Eine Pivot-Logratios-Transformation auf den DataFrame durchführen und die vollständige Menge der Transformationen zurückgeben.</t>
+  </si>
+  <si>
+    <t>ilr.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/coda/ilr.py#L66</t>
+  </si>
+  <si>
+    <t>scipy.stats -&gt; gmean, eis_toolkit.utilities.checks.compositional -&gt; check_in_simplex_sample_space, eis_toolkit.utilities.checks.dataframe -&gt;  check_columns_valid, eis_toolkit.utilities.checks.parameter -&gt; check_lists_overlap,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> numpy, pandas, scipy.stats -&gt; gmean, eis_toolkit.exceptions -&gt; InvalidColumnException, InvalidCompositionException, InvalidParameterValueException, eis_toolkit.utilities.checks.compositional -&gt; check_in_simplex_sample_space, eis_toolkit.utilities.checks.dataframe -&gt; check_columns_valid, eis_toolkit.utilities.checks.parameter -&gt; check_lists_overlap, check_numeric_value_sign</t>
+  </si>
+  <si>
+    <t>Eine einzelne isometrische Logratios-Transformation auf die bereitgestellten Subkompositionen durchführen.</t>
   </si>
 </sst>
 </file>
@@ -1901,7 +2030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2166,6 +2295,48 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2175,15 +2346,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2199,54 +2526,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2256,182 +2556,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2773,12 +2920,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2793,24 +2940,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="122"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="129"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="132"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2836,7 +2983,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="104" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2859,50 +3006,50 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91"/>
-      <c r="B5" s="126" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C5" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="139" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="154" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="133"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="140"/>
       <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="147"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="155"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="91"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="134"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="147"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="155"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="91"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
@@ -2922,8 +3069,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="91"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="105"/>
       <c r="B9" s="19" t="s">
         <v>214</v>
       </c>
@@ -2944,7 +3091,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="91"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="18" t="s">
         <v>215</v>
       </c>
@@ -2965,23 +3112,23 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="91"/>
-      <c r="B11" s="95" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="156" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="105" t="s">
+      <c r="F11" s="153" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="107" t="s">
+      <c r="G11" s="159" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="2"/>
@@ -2996,15 +3143,15 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="91"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="101"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="156"/>
       <c r="E12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="105"/>
-      <c r="G12" s="107"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="159"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -3017,15 +3164,15 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="91"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="101"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="156"/>
       <c r="E13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="107"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="159"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3038,15 +3185,15 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="91"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="101"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="156"/>
       <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="107"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="159"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -3059,15 +3206,15 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="91"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="101"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="107"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="159"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3080,15 +3227,15 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="91"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="101"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="156"/>
       <c r="E16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="107"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="159"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3101,15 +3248,15 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="91"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="101"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="156"/>
       <c r="E17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="107"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3122,15 +3269,15 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="101"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="156"/>
       <c r="E18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="107"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="159"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -3143,182 +3290,182 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="91"/>
-      <c r="B19" s="138" t="s">
+      <c r="A19" s="105"/>
+      <c r="B19" s="145" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="141" t="s">
+      <c r="C19" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="135" t="s">
+      <c r="D19" s="142" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="144" t="s">
+      <c r="F19" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="145" t="s">
+      <c r="G19" s="152" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="136"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="143"/>
       <c r="E20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="144"/>
-      <c r="G20" s="145"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="152"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="136"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="143"/>
       <c r="E21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="144"/>
-      <c r="G21" s="145"/>
-    </row>
-    <row r="22" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="137"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="152"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="105"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="144"/>
       <c r="E22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="144"/>
-      <c r="G22" s="145"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="152"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="91"/>
-      <c r="B23" s="95" t="s">
+      <c r="A23" s="105"/>
+      <c r="B23" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="103" t="s">
+      <c r="C23" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="156" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="105" t="s">
+      <c r="F23" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="107" t="s">
+      <c r="G23" s="159" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="91"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="101"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="156"/>
       <c r="E24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="107"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="159"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="91"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="101"/>
+      <c r="A25" s="105"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="156"/>
       <c r="E25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="107"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="159"/>
     </row>
     <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="91"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="101"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="156"/>
       <c r="E26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="105"/>
-      <c r="G26" s="107"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="159"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="102"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="167"/>
       <c r="E27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="108"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="170"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="90" t="s">
+      <c r="A28" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="172" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="171" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="148" t="s">
+      <c r="D28" s="126" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="115" t="s">
+      <c r="F28" s="173" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="117" t="s">
+      <c r="G28" s="174" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="91"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="113"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="105"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="125"/>
       <c r="E29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="116"/>
-      <c r="G29" s="118"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="175"/>
     </row>
     <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="91"/>
-      <c r="B30" s="112"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="113"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="125"/>
       <c r="E30" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="116"/>
-      <c r="G30" s="118"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="175"/>
     </row>
     <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="91"/>
-      <c r="B31" s="112"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="113"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="125"/>
       <c r="E31" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="116"/>
-      <c r="G31" s="119"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="176"/>
     </row>
     <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="91"/>
+      <c r="A32" s="105"/>
       <c r="B32" s="21" t="s">
         <v>68</v>
       </c>
@@ -3339,7 +3486,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="91"/>
+      <c r="A33" s="105"/>
       <c r="B33" s="21" t="s">
         <v>67</v>
       </c>
@@ -3360,7 +3507,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="91"/>
+      <c r="A34" s="105"/>
       <c r="B34" s="20" t="s">
         <v>78</v>
       </c>
@@ -3370,18 +3517,18 @@
       <c r="D34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="125" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="114" t="s">
+      <c r="G34" s="109" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="91"/>
+      <c r="A35" s="105"/>
       <c r="B35" s="20" t="s">
         <v>80</v>
       </c>
@@ -3391,68 +3538,68 @@
       <c r="D35" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="113"/>
+      <c r="E35" s="125"/>
       <c r="F35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="114"/>
+      <c r="G35" s="109"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="91"/>
-      <c r="B36" s="152" t="s">
+      <c r="A36" s="105"/>
+      <c r="B36" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="151" t="s">
+      <c r="C36" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="153" t="s">
+      <c r="D36" s="120" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="149" t="s">
+      <c r="F36" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="150" t="s">
+      <c r="G36" s="122" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="91"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="153"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="120"/>
       <c r="E37" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="149"/>
-      <c r="G37" s="150"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="122"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="91"/>
-      <c r="B38" s="152"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="153"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="120"/>
       <c r="E38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="149"/>
-      <c r="G38" s="150"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="122"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="91"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="153"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="120"/>
       <c r="E39" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="149"/>
-      <c r="G39" s="150"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="122"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="91"/>
+      <c r="A40" s="105"/>
       <c r="B40" s="20" t="s">
         <v>94</v>
       </c>
@@ -3462,18 +3609,18 @@
       <c r="D40" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="125" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="116" t="s">
+      <c r="F40" s="107" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="114" t="s">
+      <c r="G40" s="109" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="91"/>
+      <c r="A41" s="105"/>
       <c r="B41" s="20" t="s">
         <v>97</v>
       </c>
@@ -3483,12 +3630,12 @@
       <c r="D41" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="113"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="114"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="109"/>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="91"/>
+      <c r="A42" s="105"/>
       <c r="B42" s="21" t="s">
         <v>102</v>
       </c>
@@ -3509,205 +3656,205 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="91"/>
+      <c r="A43" s="105"/>
       <c r="B43" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="113" t="s">
+      <c r="D43" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="116" t="s">
+      <c r="F43" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="114" t="s">
+      <c r="G43" s="109" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="91"/>
+      <c r="A44" s="105"/>
       <c r="B44" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="114"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="109"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="91"/>
-      <c r="B45" s="152" t="s">
+      <c r="A45" s="105"/>
+      <c r="B45" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="151" t="s">
+      <c r="C45" s="124" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="160" t="s">
+      <c r="D45" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="153" t="s">
+      <c r="E45" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="149" t="s">
+      <c r="F45" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="150" t="s">
+      <c r="G45" s="122" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="91"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="150"/>
+      <c r="A46" s="105"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="122"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="91"/>
-      <c r="B47" s="152"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="161"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="150"/>
+      <c r="A47" s="105"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="120"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="122"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="91"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="161"/>
-      <c r="E48" s="153"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="150"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="120"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="122"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="91"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="162"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="150"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="122"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="91"/>
-      <c r="B50" s="112" t="s">
+      <c r="A50" s="105"/>
+      <c r="B50" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="110" t="s">
+      <c r="C50" s="111" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="163" t="s">
+      <c r="D50" s="118" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="116" t="s">
+      <c r="F50" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="114" t="s">
+      <c r="G50" s="109" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="91"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="110"/>
-      <c r="D51" s="164"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="119"/>
       <c r="E51" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="116"/>
-      <c r="G51" s="114"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="109"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="91"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="164"/>
+      <c r="A52" s="105"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="119"/>
       <c r="E52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="116"/>
-      <c r="G52" s="114"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="109"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="91"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="110"/>
-      <c r="D53" s="164"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="119"/>
       <c r="E53" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="116"/>
-      <c r="G53" s="114"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="109"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="91"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="110"/>
-      <c r="D54" s="164"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="119"/>
       <c r="E54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="116"/>
-      <c r="G54" s="114"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="109"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="91"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="110"/>
-      <c r="D55" s="164"/>
+      <c r="A55" s="105"/>
+      <c r="B55" s="113"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="119"/>
       <c r="E55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="116"/>
-      <c r="G55" s="114"/>
-    </row>
-    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="91"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="110"/>
-      <c r="D56" s="164"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="109"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="105"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="119"/>
       <c r="E56" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="116"/>
-      <c r="G56" s="114"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="109"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="91"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="164"/>
+      <c r="A57" s="105"/>
+      <c r="B57" s="113"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="119"/>
       <c r="E57" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="116"/>
-      <c r="G57" s="114"/>
-    </row>
-    <row r="58" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="92"/>
-      <c r="B58" s="159"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="164"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="109"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="106"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="119"/>
       <c r="E58" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="156"/>
-      <c r="G58" s="157"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="110"/>
     </row>
     <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="90" t="s">
+      <c r="A59" s="104" t="s">
         <v>130</v>
       </c>
       <c r="B59" s="34" t="s">
@@ -3730,7 +3877,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="91"/>
+      <c r="A60" s="105"/>
       <c r="B60" s="43" t="s">
         <v>136</v>
       </c>
@@ -3751,7 +3898,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="91"/>
+      <c r="A61" s="105"/>
       <c r="B61" s="38" t="s">
         <v>140</v>
       </c>
@@ -3772,7 +3919,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="91"/>
+      <c r="A62" s="105"/>
       <c r="B62" s="43" t="s">
         <v>145</v>
       </c>
@@ -3793,7 +3940,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="91"/>
+      <c r="A63" s="105"/>
       <c r="B63" s="38" t="s">
         <v>149</v>
       </c>
@@ -3814,7 +3961,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="91"/>
+      <c r="A64" s="105"/>
       <c r="B64" s="43" t="s">
         <v>219</v>
       </c>
@@ -3835,7 +3982,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="91"/>
+      <c r="A65" s="105"/>
       <c r="B65" s="38" t="s">
         <v>154</v>
       </c>
@@ -3856,7 +4003,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="91"/>
+      <c r="A66" s="105"/>
       <c r="B66" s="43" t="s">
         <v>155</v>
       </c>
@@ -3877,7 +4024,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="91"/>
+      <c r="A67" s="105"/>
       <c r="B67" s="38" t="s">
         <v>157</v>
       </c>
@@ -3898,7 +4045,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="92"/>
+      <c r="A68" s="106"/>
       <c r="B68" s="59" t="s">
         <v>162</v>
       </c>
@@ -3919,7 +4066,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="104" t="s">
         <v>164</v>
       </c>
       <c r="B69" s="17" t="s">
@@ -3941,8 +4088,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="91"/>
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="105"/>
       <c r="B70" s="19" t="s">
         <v>166</v>
       </c>
@@ -3963,7 +4110,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="91"/>
+      <c r="A71" s="105"/>
       <c r="B71" s="18" t="s">
         <v>167</v>
       </c>
@@ -3984,11 +4131,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="91"/>
-      <c r="B72" s="95" t="s">
+      <c r="A72" s="105"/>
+      <c r="B72" s="158" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="93" t="s">
+      <c r="C72" s="160" t="s">
         <v>186</v>
       </c>
       <c r="D72" s="29" t="s">
@@ -4000,14 +4147,14 @@
       <c r="F72" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="G72" s="97" t="s">
+      <c r="G72" s="163" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="91"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="93"/>
+      <c r="A73" s="105"/>
+      <c r="B73" s="158"/>
+      <c r="C73" s="160"/>
       <c r="D73" s="29" t="s">
         <v>189</v>
       </c>
@@ -4017,12 +4164,12 @@
       <c r="F73" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="98"/>
+      <c r="G73" s="164"/>
     </row>
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="91"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="93"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="158"/>
+      <c r="C74" s="160"/>
       <c r="D74" s="29" t="s">
         <v>190</v>
       </c>
@@ -4032,12 +4179,12 @@
       <c r="F74" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="G74" s="98"/>
+      <c r="G74" s="164"/>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="91"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="93"/>
+      <c r="A75" s="105"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="160"/>
       <c r="D75" s="29" t="s">
         <v>191</v>
       </c>
@@ -4047,12 +4194,12 @@
       <c r="F75" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G75" s="98"/>
+      <c r="G75" s="164"/>
     </row>
     <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="91"/>
-      <c r="B76" s="96"/>
-      <c r="C76" s="94"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="162"/>
+      <c r="C76" s="161"/>
       <c r="D76" s="57" t="s">
         <v>192</v>
       </c>
@@ -4062,10 +4209,10 @@
       <c r="F76" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="99"/>
-    </row>
-    <row r="77" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="91"/>
+      <c r="G76" s="165"/>
+    </row>
+    <row r="77" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A77" s="105"/>
       <c r="B77" s="69" t="s">
         <v>169</v>
       </c>
@@ -4085,8 +4232,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="91"/>
+    <row r="78" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="105"/>
       <c r="B78" s="70" t="s">
         <v>170</v>
       </c>
@@ -4106,8 +4253,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A79" s="91"/>
+    <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A79" s="105"/>
       <c r="B79" s="71" t="s">
         <v>171</v>
       </c>
@@ -4127,8 +4274,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="91"/>
+    <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="105"/>
       <c r="B80" s="70" t="s">
         <v>172</v>
       </c>
@@ -4148,8 +4295,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="91"/>
+    <row r="81" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="105"/>
       <c r="B81" s="71" t="s">
         <v>173</v>
       </c>
@@ -4169,8 +4316,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A82" s="91"/>
+    <row r="82" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="105"/>
       <c r="B82" s="70" t="s">
         <v>174</v>
       </c>
@@ -4190,8 +4337,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="91"/>
+    <row r="83" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="105"/>
       <c r="B83" s="71" t="s">
         <v>175</v>
       </c>
@@ -4211,8 +4358,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="91"/>
+    <row r="84" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="105"/>
       <c r="B84" s="70" t="s">
         <v>176</v>
       </c>
@@ -4232,8 +4379,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="91"/>
+    <row r="85" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="105"/>
       <c r="B85" s="71" t="s">
         <v>177</v>
       </c>
@@ -4253,8 +4400,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A86" s="91"/>
+    <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="105"/>
       <c r="B86" s="70" t="s">
         <v>178</v>
       </c>
@@ -4274,8 +4421,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="92"/>
+    <row r="87" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="106"/>
       <c r="B87" s="75" t="s">
         <v>179</v>
       </c>
@@ -4295,8 +4442,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A88" s="154" t="s">
+    <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="102" t="s">
         <v>261</v>
       </c>
       <c r="B88" s="81" t="s">
@@ -4318,8 +4465,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A89" s="155"/>
+    <row r="89" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="103"/>
       <c r="B89" s="18" t="s">
         <v>263</v>
       </c>
@@ -4339,8 +4486,8 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A90" s="155"/>
+    <row r="90" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="103"/>
       <c r="B90" s="21" t="s">
         <v>264</v>
       </c>
@@ -4360,8 +4507,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A91" s="155"/>
+    <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="103"/>
       <c r="B91" s="18" t="s">
         <v>265</v>
       </c>
@@ -4381,8 +4528,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="155"/>
+    <row r="92" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="103"/>
       <c r="B92" s="21" t="s">
         <v>266</v>
       </c>
@@ -4403,7 +4550,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="155"/>
+      <c r="A93" s="103"/>
       <c r="B93" s="18" t="s">
         <v>267</v>
       </c>
@@ -4424,7 +4571,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="155"/>
+      <c r="A94" s="103"/>
       <c r="B94" s="21" t="s">
         <v>268</v>
       </c>
@@ -4444,8 +4591,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="155"/>
+    <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A95" s="103"/>
       <c r="B95" s="18" t="s">
         <v>269</v>
       </c>
@@ -4465,8 +4612,8 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="155"/>
+    <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="103"/>
       <c r="B96" s="21" t="s">
         <v>270</v>
       </c>
@@ -4486,8 +4633,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="155"/>
+    <row r="97" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="103"/>
       <c r="B97" s="18" t="s">
         <v>271</v>
       </c>
@@ -4507,8 +4654,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="155"/>
+    <row r="98" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="103"/>
       <c r="B98" s="21" t="s">
         <v>272</v>
       </c>
@@ -4528,8 +4675,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="155"/>
+    <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="103"/>
       <c r="B99" s="18" t="s">
         <v>273</v>
       </c>
@@ -4549,8 +4696,8 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="155"/>
+    <row r="100" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="103"/>
       <c r="B100" s="21" t="s">
         <v>274</v>
       </c>
@@ -4570,8 +4717,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="155"/>
+    <row r="101" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="103"/>
       <c r="B101" s="18" t="s">
         <v>275</v>
       </c>
@@ -4591,8 +4738,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="155"/>
+    <row r="102" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="103"/>
       <c r="B102" s="21" t="s">
         <v>276</v>
       </c>
@@ -4612,8 +4759,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="155"/>
+    <row r="103" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A103" s="103"/>
       <c r="B103" s="18" t="s">
         <v>277</v>
       </c>
@@ -4633,8 +4780,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="155"/>
+    <row r="104" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="103"/>
       <c r="B104" s="21" t="s">
         <v>278</v>
       </c>
@@ -4654,8 +4801,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="155"/>
+    <row r="105" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="103"/>
       <c r="B105" s="18" t="s">
         <v>279</v>
       </c>
@@ -4675,8 +4822,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="155"/>
+    <row r="106" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="103"/>
       <c r="B106" s="21" t="s">
         <v>280</v>
       </c>
@@ -4696,8 +4843,8 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="155"/>
+    <row r="107" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="103"/>
       <c r="B107" s="18" t="s">
         <v>281</v>
       </c>
@@ -4717,29 +4864,29 @@
         <v>364</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="155"/>
-      <c r="B108" s="165" t="s">
+    <row r="108" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="103"/>
+      <c r="B108" s="91" t="s">
         <v>282</v>
       </c>
-      <c r="C108" s="166" t="s">
+      <c r="C108" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="D108" s="167" t="s">
+      <c r="D108" s="93" t="s">
         <v>372</v>
       </c>
-      <c r="E108" s="167" t="s">
+      <c r="E108" s="93" t="s">
         <v>370</v>
       </c>
-      <c r="F108" s="168" t="s">
+      <c r="F108" s="94" t="s">
         <v>369</v>
       </c>
-      <c r="G108" s="169" t="s">
+      <c r="G108" s="95" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A109" s="170" t="s">
+      <c r="A109" s="100" t="s">
         <v>374</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -4762,7 +4909,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="171"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="80" t="s">
         <v>376</v>
       </c>
@@ -4783,7 +4930,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="171"/>
+      <c r="A111" s="101"/>
       <c r="B111" s="18" t="s">
         <v>377</v>
       </c>
@@ -4804,11 +4951,11 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="171"/>
+      <c r="A112" s="101"/>
       <c r="B112" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="C112" s="178" t="s">
+      <c r="C112" s="99" t="s">
         <v>409</v>
       </c>
       <c r="D112" s="45" t="s">
@@ -4825,7 +4972,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="171"/>
+      <c r="A113" s="101"/>
       <c r="B113" s="18" t="s">
         <v>379</v>
       </c>
@@ -4846,7 +4993,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="171"/>
+      <c r="A114" s="101"/>
       <c r="B114" s="19" t="s">
         <v>380</v>
       </c>
@@ -4867,28 +5014,236 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="172"/>
-      <c r="B115" s="173" t="s">
+      <c r="A115" s="177"/>
+      <c r="B115" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="C115" s="174" t="s">
+      <c r="C115" s="178" t="s">
         <v>409</v>
       </c>
-      <c r="D115" s="175" t="s">
+      <c r="D115" s="77" t="s">
         <v>408</v>
       </c>
-      <c r="E115" s="175" t="s">
+      <c r="E115" s="77" t="s">
         <v>414</v>
       </c>
-      <c r="F115" s="176" t="s">
+      <c r="F115" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="G115" s="177" t="s">
+      <c r="G115" s="79" t="s">
         <v>410</v>
       </c>
     </row>
+    <row r="116" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="179" t="s">
+        <v>415</v>
+      </c>
+      <c r="B116" s="183" t="s">
+        <v>416</v>
+      </c>
+      <c r="C116" s="82" t="s">
+        <v>425</v>
+      </c>
+      <c r="D116" s="83" t="s">
+        <v>428</v>
+      </c>
+      <c r="E116" s="83" t="s">
+        <v>429</v>
+      </c>
+      <c r="F116" s="84" t="s">
+        <v>427</v>
+      </c>
+      <c r="G116" s="85" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A117" s="180"/>
+      <c r="B117" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="E117" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="F117" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="G117" s="53" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A118" s="180"/>
+      <c r="B118" s="184" t="s">
+        <v>418</v>
+      </c>
+      <c r="C118" s="86" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118" s="87" t="s">
+        <v>435</v>
+      </c>
+      <c r="E118" s="87" t="s">
+        <v>436</v>
+      </c>
+      <c r="F118" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="G118" s="89" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="180"/>
+      <c r="B119" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="E119" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="F119" s="41" t="s">
+        <v>438</v>
+      </c>
+      <c r="G119" s="53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A120" s="180"/>
+      <c r="B120" s="184" t="s">
+        <v>420</v>
+      </c>
+      <c r="C120" s="86" t="s">
+        <v>443</v>
+      </c>
+      <c r="D120" s="87" t="s">
+        <v>446</v>
+      </c>
+      <c r="E120" s="87" t="s">
+        <v>445</v>
+      </c>
+      <c r="F120" s="88" t="s">
+        <v>447</v>
+      </c>
+      <c r="G120" s="89" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A121" s="180"/>
+      <c r="B121" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="C121" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="D121" s="40" t="s">
+        <v>450</v>
+      </c>
+      <c r="E121" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="F121" s="41" t="s">
+        <v>452</v>
+      </c>
+      <c r="G121" s="53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A122" s="180"/>
+      <c r="B122" s="184" t="s">
+        <v>422</v>
+      </c>
+      <c r="C122" s="86" t="s">
+        <v>453</v>
+      </c>
+      <c r="D122" s="87" t="s">
+        <v>456</v>
+      </c>
+      <c r="E122" s="87" t="s">
+        <v>455</v>
+      </c>
+      <c r="F122" s="88" t="s">
+        <v>457</v>
+      </c>
+      <c r="G122" s="89" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="181"/>
+      <c r="B123" s="182" t="s">
+        <v>423</v>
+      </c>
+      <c r="C123" s="96"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="98" t="s">
+        <v>424</v>
+      </c>
+      <c r="G123" s="98"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="A69:A87"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="D11:D18"/>
+    <mergeCell ref="C11:C18"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="F11:F18"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="A109:A115"/>
     <mergeCell ref="A88:A108"/>
     <mergeCell ref="A59:A68"/>
@@ -4905,51 +5260,6 @@
     <mergeCell ref="B45:B49"/>
     <mergeCell ref="C45:C49"/>
     <mergeCell ref="F43:F44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="D11:D18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="A69:A87"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="A4:A27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" location="L7" xr:uid="{F521EE9C-24C9-46E9-9B83-619AF2EE0F94}"/>
@@ -5020,8 +5330,15 @@
     <hyperlink ref="G113" r:id="rId66" location="L43" xr:uid="{5453F48C-25CE-406B-8FE5-1BB99A255094}"/>
     <hyperlink ref="G115" r:id="rId67" location="L49" xr:uid="{716659A6-A3C7-4400-932A-65AB06AC26AB}"/>
     <hyperlink ref="G112" r:id="rId68" location="L124" xr:uid="{A6E6413E-3729-4B91-AE98-1ECB6692CE2D}"/>
+    <hyperlink ref="G116" r:id="rId69" location="L22" xr:uid="{1511E465-7240-4AD1-9E69-902624F0E010}"/>
+    <hyperlink ref="G117" r:id="rId70" location="L31" xr:uid="{8C7F6878-318E-4B53-BD94-A623036DBA68}"/>
+    <hyperlink ref="G118" r:id="rId71" location="L69" xr:uid="{B5C66084-D08F-40D8-A6D4-374AA0CE8AEE}"/>
+    <hyperlink ref="G119" r:id="rId72" location="L60" xr:uid="{FD1794EE-C2D4-4E39-8485-68DC6EFA7F92}"/>
+    <hyperlink ref="G120" r:id="rId73" location="L51" xr:uid="{8ECF7719-5670-4B3F-B9C3-C3197DFD337B}"/>
+    <hyperlink ref="G121" r:id="rId74" location="L109" xr:uid="{FED95FC2-CDCC-44EC-BD1B-436544254C59}"/>
+    <hyperlink ref="G122" r:id="rId75" location="L66" xr:uid="{138045F9-41E1-4E3B-B191-777BEB42D922}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId69"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>
--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E626B0B9-714E-43A0-9899-62F7F6EAD8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB22D8B-441A-430D-A7A2-C8513B317F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="460">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -1497,9 +1497,6 @@
     <t>Single PLR transform</t>
   </si>
   <si>
-    <t>Perform a pivot logratio transformation on the selected column.</t>
-  </si>
-  <si>
     <t>alr.py</t>
   </si>
   <si>
@@ -1597,6 +1594,15 @@
   </si>
   <si>
     <t>Eine einzelne isometrische Logratios-Transformation auf die bereitgestellten Subkompositionen durchführen.</t>
+  </si>
+  <si>
+    <t>Führe eine Pivot-Logratio-Transformation auf der ausgewählten Spalte durch.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/transformations/coda/plr.py#L60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single_plr_transform, _single_plr_transform,  _single_plr_transform_by_index, _calculate_plr_scaling_factor, </t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2325,16 +2331,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2345,27 +2360,213 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2385,200 +2586,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2922,10 +2931,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116:A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2940,24 +2949,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="129"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="130"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -2983,7 +2992,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="107" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -3006,50 +3015,50 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
-      <c r="B5" s="133" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="143" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="139" t="s">
+      <c r="D5" s="149" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="163" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="140"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="150"/>
       <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="155"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="164"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="141"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="151"/>
       <c r="E7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="153"/>
-      <c r="G7" s="155"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="164"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
@@ -3070,7 +3079,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="105"/>
+      <c r="A9" s="108"/>
       <c r="B9" s="19" t="s">
         <v>214</v>
       </c>
@@ -3091,7 +3100,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="105"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="18" t="s">
         <v>215</v>
       </c>
@@ -3112,23 +3121,23 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
-      <c r="B11" s="158" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="156" t="s">
+      <c r="D11" s="118" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="153" t="s">
+      <c r="F11" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="159" t="s">
+      <c r="G11" s="124" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="2"/>
@@ -3143,15 +3152,15 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="156"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="153"/>
-      <c r="G12" s="159"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -3164,15 +3173,15 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="105"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="157"/>
-      <c r="D13" s="156"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="159"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="124"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3185,15 +3194,15 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="156"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="118"/>
       <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="153"/>
-      <c r="G14" s="159"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="124"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -3206,15 +3215,15 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="105"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="157"/>
-      <c r="D15" s="156"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="118"/>
       <c r="E15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="153"/>
-      <c r="G15" s="159"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="124"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3227,15 +3236,15 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="105"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="157"/>
-      <c r="D16" s="156"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="153"/>
-      <c r="G16" s="159"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="124"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3248,15 +3257,15 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="105"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="157"/>
-      <c r="D17" s="156"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="118"/>
       <c r="E17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="153"/>
-      <c r="G17" s="159"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3269,15 +3278,15 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="105"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="156"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="153"/>
-      <c r="G18" s="159"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="124"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -3290,182 +3299,182 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="105"/>
-      <c r="B19" s="145" t="s">
+      <c r="A19" s="108"/>
+      <c r="B19" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="152" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="151" t="s">
+      <c r="F19" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="152" t="s">
+      <c r="G19" s="162" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="105"/>
-      <c r="B20" s="146"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="143"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="153"/>
       <c r="E20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="151"/>
-      <c r="G20" s="152"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="162"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="105"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="143"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="151"/>
-      <c r="G21" s="152"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="162"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="105"/>
-      <c r="B22" s="147"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="144"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="154"/>
       <c r="E22" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="151"/>
-      <c r="G22" s="152"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="162"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="105"/>
-      <c r="B23" s="158" t="s">
+      <c r="A23" s="108"/>
+      <c r="B23" s="112" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="157" t="s">
+      <c r="C23" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="118" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="153" t="s">
+      <c r="F23" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="159" t="s">
+      <c r="G23" s="124" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="105"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="156"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="118"/>
       <c r="E24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="153"/>
-      <c r="G24" s="159"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="124"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="105"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="156"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="118"/>
       <c r="E25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="153"/>
-      <c r="G25" s="159"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="124"/>
     </row>
     <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="105"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="156"/>
+      <c r="A26" s="108"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="118"/>
       <c r="E26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="153"/>
-      <c r="G26" s="159"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="124"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="166"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="167"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="119"/>
       <c r="E27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="169"/>
-      <c r="G27" s="170"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="125"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="104" t="s">
+      <c r="A28" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="172" t="s">
+      <c r="B28" s="128" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="171" t="s">
+      <c r="C28" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="126" t="s">
+      <c r="D28" s="165" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="173" t="s">
+      <c r="F28" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="174" t="s">
+      <c r="G28" s="134" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="105"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="125"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="130"/>
       <c r="E29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="107"/>
-      <c r="G29" s="175"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="135"/>
     </row>
     <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="105"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="125"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="175"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="135"/>
     </row>
     <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="105"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="125"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="130"/>
       <c r="E31" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="107"/>
-      <c r="G31" s="176"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="136"/>
     </row>
     <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="105"/>
+      <c r="A32" s="108"/>
       <c r="B32" s="21" t="s">
         <v>68</v>
       </c>
@@ -3486,7 +3495,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="105"/>
+      <c r="A33" s="108"/>
       <c r="B33" s="21" t="s">
         <v>67</v>
       </c>
@@ -3507,7 +3516,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="105"/>
+      <c r="A34" s="108"/>
       <c r="B34" s="20" t="s">
         <v>78</v>
       </c>
@@ -3517,18 +3526,18 @@
       <c r="D34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="125" t="s">
+      <c r="E34" s="130" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="109" t="s">
+      <c r="G34" s="131" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="105"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="20" t="s">
         <v>80</v>
       </c>
@@ -3538,68 +3547,68 @@
       <c r="D35" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="125"/>
+      <c r="E35" s="130"/>
       <c r="F35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="109"/>
+      <c r="G35" s="131"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="105"/>
-      <c r="B36" s="123" t="s">
+      <c r="A36" s="108"/>
+      <c r="B36" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="124" t="s">
+      <c r="C36" s="168" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="170" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="121" t="s">
+      <c r="F36" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="122" t="s">
+      <c r="G36" s="167" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="105"/>
-      <c r="B37" s="123"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="120"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="169"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="170"/>
       <c r="E37" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="121"/>
-      <c r="G37" s="122"/>
+      <c r="F37" s="166"/>
+      <c r="G37" s="167"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="105"/>
-      <c r="B38" s="123"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="120"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="170"/>
       <c r="E38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="121"/>
-      <c r="G38" s="122"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="167"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="105"/>
-      <c r="B39" s="123"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="120"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="170"/>
       <c r="E39" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="121"/>
-      <c r="G39" s="122"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="167"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="105"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="20" t="s">
         <v>94</v>
       </c>
@@ -3609,18 +3618,18 @@
       <c r="D40" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="125" t="s">
+      <c r="E40" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="107" t="s">
+      <c r="F40" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="109" t="s">
+      <c r="G40" s="131" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="105"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="20" t="s">
         <v>97</v>
       </c>
@@ -3630,12 +3639,12 @@
       <c r="D41" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="125"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="109"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="131"/>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="105"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="21" t="s">
         <v>102</v>
       </c>
@@ -3656,205 +3665,205 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="105"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="111" t="s">
+      <c r="C43" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="125" t="s">
+      <c r="D43" s="130" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="125" t="s">
+      <c r="E43" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="107" t="s">
+      <c r="F43" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="109" t="s">
+      <c r="G43" s="131" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="105"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="109"/>
+      <c r="C44" s="127"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="131"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="105"/>
-      <c r="B45" s="123" t="s">
+      <c r="A45" s="108"/>
+      <c r="B45" s="169" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="124" t="s">
+      <c r="C45" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="115" t="s">
+      <c r="D45" s="180" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="120" t="s">
+      <c r="E45" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="121" t="s">
+      <c r="F45" s="166" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="122" t="s">
+      <c r="G45" s="167" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="105"/>
-      <c r="B46" s="123"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="122"/>
+      <c r="A46" s="108"/>
+      <c r="B46" s="169"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="167"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="105"/>
-      <c r="B47" s="123"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="116"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="122"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="169"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="181"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="166"/>
+      <c r="G47" s="167"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="105"/>
-      <c r="B48" s="123"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="120"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="122"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="181"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="166"/>
+      <c r="G48" s="167"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="105"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="120"/>
-      <c r="F49" s="121"/>
-      <c r="G49" s="122"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="169"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="182"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="166"/>
+      <c r="G49" s="167"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="105"/>
-      <c r="B50" s="113" t="s">
+      <c r="A50" s="108"/>
+      <c r="B50" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="111" t="s">
+      <c r="C50" s="127" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="118" t="s">
+      <c r="D50" s="183" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="107" t="s">
+      <c r="F50" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="109" t="s">
+      <c r="G50" s="131" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="105"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="119"/>
+      <c r="A51" s="108"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="127"/>
+      <c r="D51" s="184"/>
       <c r="E51" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="107"/>
-      <c r="G51" s="109"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="131"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="105"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="119"/>
+      <c r="A52" s="108"/>
+      <c r="B52" s="129"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="184"/>
       <c r="E52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="107"/>
-      <c r="G52" s="109"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="131"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="105"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="119"/>
+      <c r="A53" s="108"/>
+      <c r="B53" s="129"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="184"/>
       <c r="E53" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="107"/>
-      <c r="G53" s="109"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="131"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="105"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="119"/>
+      <c r="A54" s="108"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="184"/>
       <c r="E54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="107"/>
-      <c r="G54" s="109"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="131"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="105"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="119"/>
+      <c r="A55" s="108"/>
+      <c r="B55" s="129"/>
+      <c r="C55" s="127"/>
+      <c r="D55" s="184"/>
       <c r="E55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="107"/>
-      <c r="G55" s="109"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="131"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="105"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="119"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="184"/>
       <c r="E56" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="107"/>
-      <c r="G56" s="109"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="131"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="105"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="119"/>
+      <c r="A57" s="108"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="184"/>
       <c r="E57" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="107"/>
-      <c r="G57" s="109"/>
+      <c r="F57" s="133"/>
+      <c r="G57" s="131"/>
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="106"/>
-      <c r="B58" s="114"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="119"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="178"/>
+      <c r="D58" s="184"/>
       <c r="E58" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="108"/>
-      <c r="G58" s="110"/>
+      <c r="F58" s="176"/>
+      <c r="G58" s="177"/>
     </row>
     <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="104" t="s">
+      <c r="A59" s="107" t="s">
         <v>130</v>
       </c>
       <c r="B59" s="34" t="s">
@@ -3877,7 +3886,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="105"/>
+      <c r="A60" s="108"/>
       <c r="B60" s="43" t="s">
         <v>136</v>
       </c>
@@ -3898,7 +3907,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="105"/>
+      <c r="A61" s="108"/>
       <c r="B61" s="38" t="s">
         <v>140</v>
       </c>
@@ -3919,7 +3928,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="105"/>
+      <c r="A62" s="108"/>
       <c r="B62" s="43" t="s">
         <v>145</v>
       </c>
@@ -3940,7 +3949,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="105"/>
+      <c r="A63" s="108"/>
       <c r="B63" s="38" t="s">
         <v>149</v>
       </c>
@@ -3961,7 +3970,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="105"/>
+      <c r="A64" s="108"/>
       <c r="B64" s="43" t="s">
         <v>219</v>
       </c>
@@ -3982,7 +3991,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="105"/>
+      <c r="A65" s="108"/>
       <c r="B65" s="38" t="s">
         <v>154</v>
       </c>
@@ -4003,7 +4012,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="105"/>
+      <c r="A66" s="108"/>
       <c r="B66" s="43" t="s">
         <v>155</v>
       </c>
@@ -4024,7 +4033,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="105"/>
+      <c r="A67" s="108"/>
       <c r="B67" s="38" t="s">
         <v>157</v>
       </c>
@@ -4045,7 +4054,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="106"/>
+      <c r="A68" s="109"/>
       <c r="B68" s="59" t="s">
         <v>162</v>
       </c>
@@ -4066,7 +4075,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="107" t="s">
         <v>164</v>
       </c>
       <c r="B69" s="17" t="s">
@@ -4089,7 +4098,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="105"/>
+      <c r="A70" s="108"/>
       <c r="B70" s="19" t="s">
         <v>166</v>
       </c>
@@ -4110,7 +4119,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="105"/>
+      <c r="A71" s="108"/>
       <c r="B71" s="18" t="s">
         <v>167</v>
       </c>
@@ -4131,11 +4140,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="105"/>
-      <c r="B72" s="158" t="s">
+      <c r="A72" s="108"/>
+      <c r="B72" s="112" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="160" t="s">
+      <c r="C72" s="110" t="s">
         <v>186</v>
       </c>
       <c r="D72" s="29" t="s">
@@ -4147,14 +4156,14 @@
       <c r="F72" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="G72" s="163" t="s">
+      <c r="G72" s="114" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="105"/>
-      <c r="B73" s="158"/>
-      <c r="C73" s="160"/>
+      <c r="A73" s="108"/>
+      <c r="B73" s="112"/>
+      <c r="C73" s="110"/>
       <c r="D73" s="29" t="s">
         <v>189</v>
       </c>
@@ -4164,12 +4173,12 @@
       <c r="F73" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="164"/>
+      <c r="G73" s="115"/>
     </row>
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="105"/>
-      <c r="B74" s="158"/>
-      <c r="C74" s="160"/>
+      <c r="A74" s="108"/>
+      <c r="B74" s="112"/>
+      <c r="C74" s="110"/>
       <c r="D74" s="29" t="s">
         <v>190</v>
       </c>
@@ -4179,12 +4188,12 @@
       <c r="F74" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="G74" s="164"/>
+      <c r="G74" s="115"/>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="105"/>
-      <c r="B75" s="158"/>
-      <c r="C75" s="160"/>
+      <c r="A75" s="108"/>
+      <c r="B75" s="112"/>
+      <c r="C75" s="110"/>
       <c r="D75" s="29" t="s">
         <v>191</v>
       </c>
@@ -4194,12 +4203,12 @@
       <c r="F75" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G75" s="164"/>
+      <c r="G75" s="115"/>
     </row>
     <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="105"/>
-      <c r="B76" s="162"/>
-      <c r="C76" s="161"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="111"/>
       <c r="D76" s="57" t="s">
         <v>192</v>
       </c>
@@ -4209,10 +4218,10 @@
       <c r="F76" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="165"/>
+      <c r="G76" s="116"/>
     </row>
     <row r="77" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="105"/>
+      <c r="A77" s="108"/>
       <c r="B77" s="69" t="s">
         <v>169</v>
       </c>
@@ -4233,7 +4242,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="105"/>
+      <c r="A78" s="108"/>
       <c r="B78" s="70" t="s">
         <v>170</v>
       </c>
@@ -4254,7 +4263,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="105"/>
+      <c r="A79" s="108"/>
       <c r="B79" s="71" t="s">
         <v>171</v>
       </c>
@@ -4275,7 +4284,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="105"/>
+      <c r="A80" s="108"/>
       <c r="B80" s="70" t="s">
         <v>172</v>
       </c>
@@ -4296,7 +4305,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="105"/>
+      <c r="A81" s="108"/>
       <c r="B81" s="71" t="s">
         <v>173</v>
       </c>
@@ -4317,7 +4326,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="105"/>
+      <c r="A82" s="108"/>
       <c r="B82" s="70" t="s">
         <v>174</v>
       </c>
@@ -4338,7 +4347,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="105"/>
+      <c r="A83" s="108"/>
       <c r="B83" s="71" t="s">
         <v>175</v>
       </c>
@@ -4359,7 +4368,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="105"/>
+      <c r="A84" s="108"/>
       <c r="B84" s="70" t="s">
         <v>176</v>
       </c>
@@ -4380,7 +4389,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="105"/>
+      <c r="A85" s="108"/>
       <c r="B85" s="71" t="s">
         <v>177</v>
       </c>
@@ -4401,7 +4410,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="105"/>
+      <c r="A86" s="108"/>
       <c r="B86" s="70" t="s">
         <v>178</v>
       </c>
@@ -4422,7 +4431,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="106"/>
+      <c r="A87" s="109"/>
       <c r="B87" s="75" t="s">
         <v>179</v>
       </c>
@@ -4443,7 +4452,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="102" t="s">
+      <c r="A88" s="174" t="s">
         <v>261</v>
       </c>
       <c r="B88" s="81" t="s">
@@ -4466,7 +4475,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="103"/>
+      <c r="A89" s="175"/>
       <c r="B89" s="18" t="s">
         <v>263</v>
       </c>
@@ -4487,7 +4496,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="103"/>
+      <c r="A90" s="175"/>
       <c r="B90" s="21" t="s">
         <v>264</v>
       </c>
@@ -4508,7 +4517,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="103"/>
+      <c r="A91" s="175"/>
       <c r="B91" s="18" t="s">
         <v>265</v>
       </c>
@@ -4529,7 +4538,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="103"/>
+      <c r="A92" s="175"/>
       <c r="B92" s="21" t="s">
         <v>266</v>
       </c>
@@ -4550,7 +4559,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="103"/>
+      <c r="A93" s="175"/>
       <c r="B93" s="18" t="s">
         <v>267</v>
       </c>
@@ -4571,7 +4580,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="103"/>
+      <c r="A94" s="175"/>
       <c r="B94" s="21" t="s">
         <v>268</v>
       </c>
@@ -4592,7 +4601,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A95" s="103"/>
+      <c r="A95" s="175"/>
       <c r="B95" s="18" t="s">
         <v>269</v>
       </c>
@@ -4613,7 +4622,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="103"/>
+      <c r="A96" s="175"/>
       <c r="B96" s="21" t="s">
         <v>270</v>
       </c>
@@ -4634,7 +4643,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="103"/>
+      <c r="A97" s="175"/>
       <c r="B97" s="18" t="s">
         <v>271</v>
       </c>
@@ -4655,7 +4664,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="103"/>
+      <c r="A98" s="175"/>
       <c r="B98" s="21" t="s">
         <v>272</v>
       </c>
@@ -4676,7 +4685,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="103"/>
+      <c r="A99" s="175"/>
       <c r="B99" s="18" t="s">
         <v>273</v>
       </c>
@@ -4697,7 +4706,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="103"/>
+      <c r="A100" s="175"/>
       <c r="B100" s="21" t="s">
         <v>274</v>
       </c>
@@ -4718,7 +4727,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="103"/>
+      <c r="A101" s="175"/>
       <c r="B101" s="18" t="s">
         <v>275</v>
       </c>
@@ -4739,7 +4748,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="103"/>
+      <c r="A102" s="175"/>
       <c r="B102" s="21" t="s">
         <v>276</v>
       </c>
@@ -4760,7 +4769,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A103" s="103"/>
+      <c r="A103" s="175"/>
       <c r="B103" s="18" t="s">
         <v>277</v>
       </c>
@@ -4781,7 +4790,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="103"/>
+      <c r="A104" s="175"/>
       <c r="B104" s="21" t="s">
         <v>278</v>
       </c>
@@ -4802,7 +4811,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="103"/>
+      <c r="A105" s="175"/>
       <c r="B105" s="18" t="s">
         <v>279</v>
       </c>
@@ -4823,7 +4832,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="103"/>
+      <c r="A106" s="175"/>
       <c r="B106" s="21" t="s">
         <v>280</v>
       </c>
@@ -4844,7 +4853,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="103"/>
+      <c r="A107" s="175"/>
       <c r="B107" s="18" t="s">
         <v>281</v>
       </c>
@@ -4865,7 +4874,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="103"/>
+      <c r="A108" s="175"/>
       <c r="B108" s="91" t="s">
         <v>282</v>
       </c>
@@ -4886,7 +4895,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A109" s="100" t="s">
+      <c r="A109" s="171" t="s">
         <v>374</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -4909,7 +4918,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="101"/>
+      <c r="A110" s="172"/>
       <c r="B110" s="80" t="s">
         <v>376</v>
       </c>
@@ -4930,7 +4939,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="101"/>
+      <c r="A111" s="172"/>
       <c r="B111" s="18" t="s">
         <v>377</v>
       </c>
@@ -4951,7 +4960,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="101"/>
+      <c r="A112" s="172"/>
       <c r="B112" s="19" t="s">
         <v>378</v>
       </c>
@@ -4972,7 +4981,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="101"/>
+      <c r="A113" s="172"/>
       <c r="B113" s="18" t="s">
         <v>379</v>
       </c>
@@ -4993,7 +5002,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="101"/>
+      <c r="A114" s="172"/>
       <c r="B114" s="19" t="s">
         <v>380</v>
       </c>
@@ -5014,11 +5023,11 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="177"/>
+      <c r="A115" s="173"/>
       <c r="B115" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="C115" s="178" t="s">
+      <c r="C115" s="100" t="s">
         <v>409</v>
       </c>
       <c r="D115" s="77" t="s">
@@ -5035,186 +5044,203 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="179" t="s">
+      <c r="A116" s="104" t="s">
         <v>415</v>
       </c>
-      <c r="B116" s="183" t="s">
+      <c r="B116" s="102" t="s">
         <v>416</v>
       </c>
       <c r="C116" s="82" t="s">
+        <v>424</v>
+      </c>
+      <c r="D116" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="E116" s="83" t="s">
+        <v>428</v>
+      </c>
+      <c r="F116" s="84" t="s">
+        <v>426</v>
+      </c>
+      <c r="G116" s="85" t="s">
         <v>425</v>
       </c>
-      <c r="D116" s="83" t="s">
-        <v>428</v>
-      </c>
-      <c r="E116" s="83" t="s">
-        <v>429</v>
-      </c>
-      <c r="F116" s="84" t="s">
-        <v>427</v>
-      </c>
-      <c r="G116" s="85" t="s">
-        <v>426</v>
-      </c>
     </row>
     <row r="117" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A117" s="180"/>
+      <c r="A117" s="105"/>
       <c r="B117" s="38" t="s">
         <v>417</v>
       </c>
       <c r="C117" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>432</v>
+      </c>
+      <c r="E117" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="F117" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="D117" s="40" t="s">
+      <c r="G117" s="53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A118" s="105"/>
+      <c r="B118" s="103" t="s">
+        <v>418</v>
+      </c>
+      <c r="C118" s="86" t="s">
+        <v>424</v>
+      </c>
+      <c r="D118" s="87" t="s">
+        <v>434</v>
+      </c>
+      <c r="E118" s="87" t="s">
+        <v>435</v>
+      </c>
+      <c r="F118" s="88" t="s">
+        <v>438</v>
+      </c>
+      <c r="G118" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="E117" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="F117" s="41" t="s">
-        <v>431</v>
-      </c>
-      <c r="G117" s="53" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A118" s="180"/>
-      <c r="B118" s="184" t="s">
-        <v>418</v>
-      </c>
-      <c r="C118" s="86" t="s">
-        <v>425</v>
-      </c>
-      <c r="D118" s="87" t="s">
-        <v>435</v>
-      </c>
-      <c r="E118" s="87" t="s">
-        <v>436</v>
-      </c>
-      <c r="F118" s="88" t="s">
-        <v>439</v>
-      </c>
-      <c r="G118" s="89" t="s">
-        <v>434</v>
-      </c>
     </row>
     <row r="119" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="180"/>
+      <c r="A119" s="105"/>
       <c r="B119" s="38" t="s">
         <v>419</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E119" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="F119" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="G119" s="53" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A120" s="105"/>
+      <c r="B120" s="103" t="s">
+        <v>420</v>
+      </c>
+      <c r="C120" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="F119" s="41" t="s">
-        <v>438</v>
-      </c>
-      <c r="G119" s="53" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A120" s="180"/>
-      <c r="B120" s="184" t="s">
-        <v>420</v>
-      </c>
-      <c r="C120" s="86" t="s">
+      <c r="D120" s="87" t="s">
+        <v>445</v>
+      </c>
+      <c r="E120" s="87" t="s">
+        <v>444</v>
+      </c>
+      <c r="F120" s="88" t="s">
+        <v>446</v>
+      </c>
+      <c r="G120" s="89" t="s">
         <v>443</v>
       </c>
-      <c r="D120" s="87" t="s">
-        <v>446</v>
-      </c>
-      <c r="E120" s="87" t="s">
-        <v>445</v>
-      </c>
-      <c r="F120" s="88" t="s">
-        <v>447</v>
-      </c>
-      <c r="G120" s="89" t="s">
-        <v>444</v>
-      </c>
     </row>
     <row r="121" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A121" s="180"/>
+      <c r="A121" s="105"/>
       <c r="B121" s="38" t="s">
         <v>421</v>
       </c>
       <c r="C121" s="42" t="s">
+        <v>448</v>
+      </c>
+      <c r="D121" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="D121" s="40" t="s">
+      <c r="E121" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="E121" s="40" t="s">
+      <c r="F121" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="F121" s="41" t="s">
+      <c r="G121" s="53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A122" s="105"/>
+      <c r="B122" s="103" t="s">
+        <v>422</v>
+      </c>
+      <c r="C122" s="86" t="s">
         <v>452</v>
       </c>
-      <c r="G121" s="53" t="s">
+      <c r="D122" s="87" t="s">
+        <v>455</v>
+      </c>
+      <c r="E122" s="87" t="s">
+        <v>454</v>
+      </c>
+      <c r="F122" s="88" t="s">
+        <v>456</v>
+      </c>
+      <c r="G122" s="89" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="106"/>
+      <c r="B123" s="101" t="s">
+        <v>423</v>
+      </c>
+      <c r="C123" s="96" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A122" s="180"/>
-      <c r="B122" s="184" t="s">
-        <v>422</v>
-      </c>
-      <c r="C122" s="86" t="s">
-        <v>453</v>
-      </c>
-      <c r="D122" s="87" t="s">
-        <v>456</v>
-      </c>
-      <c r="E122" s="87" t="s">
-        <v>455</v>
-      </c>
-      <c r="F122" s="88" t="s">
+      <c r="D123" s="97" t="s">
+        <v>459</v>
+      </c>
+      <c r="E123" s="97" t="s">
+        <v>450</v>
+      </c>
+      <c r="F123" s="98" t="s">
         <v>457</v>
       </c>
-      <c r="G122" s="89" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="181"/>
-      <c r="B123" s="182" t="s">
-        <v>423</v>
-      </c>
-      <c r="C123" s="96"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="97"/>
-      <c r="F123" s="98" t="s">
-        <v>424</v>
-      </c>
-      <c r="G123" s="98"/>
+      <c r="G123" s="185" t="s">
+        <v>458</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A116:A123"/>
-    <mergeCell ref="A69:A87"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="A4:A27"/>
-    <mergeCell ref="D23:D27"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="F23:F27"/>
-    <mergeCell ref="G23:G27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="A59:A68"/>
+    <mergeCell ref="F50:F58"/>
+    <mergeCell ref="G50:G58"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="A28:A58"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="E45:E49"/>
+    <mergeCell ref="F45:F49"/>
+    <mergeCell ref="G45:G49"/>
+    <mergeCell ref="B45:B49"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D36:D39"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -5231,35 +5257,26 @@
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="F11:F18"/>
     <mergeCell ref="G11:G18"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
     <mergeCell ref="D28:D31"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A4:A27"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="F23:F27"/>
+    <mergeCell ref="A116:A123"/>
+    <mergeCell ref="A69:A87"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="G72:G76"/>
     <mergeCell ref="A109:A115"/>
     <mergeCell ref="A88:A108"/>
-    <mergeCell ref="A59:A68"/>
-    <mergeCell ref="F50:F58"/>
-    <mergeCell ref="G50:G58"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="A28:A58"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="E45:E49"/>
-    <mergeCell ref="F45:F49"/>
-    <mergeCell ref="G45:G49"/>
-    <mergeCell ref="B45:B49"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="F43:F44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" location="L7" xr:uid="{F521EE9C-24C9-46E9-9B83-619AF2EE0F94}"/>
@@ -5337,8 +5354,9 @@
     <hyperlink ref="G120" r:id="rId73" location="L51" xr:uid="{8ECF7719-5670-4B3F-B9C3-C3197DFD337B}"/>
     <hyperlink ref="G121" r:id="rId74" location="L109" xr:uid="{FED95FC2-CDCC-44EC-BD1B-436544254C59}"/>
     <hyperlink ref="G122" r:id="rId75" location="L66" xr:uid="{138045F9-41E1-4E3B-B191-777BEB42D922}"/>
+    <hyperlink ref="G123" r:id="rId76" location="L60" xr:uid="{59C06E23-9121-4645-8FD0-31CC6C9006A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB22D8B-441A-430D-A7A2-C8513B317F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E947A3-9ADE-48A4-9D25-F69C633A3F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TOOLKIT Funktionen" sheetId="1" r:id="rId1"/>
+    <sheet name="Fehlende Funktionen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="499">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -1603,6 +1604,125 @@
   </si>
   <si>
     <t xml:space="preserve">single_plr_transform, _single_plr_transform,  _single_plr_transform_by_index, _calculate_plr_scaling_factor, </t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Check raster grids</t>
+  </si>
+  <si>
+    <t>Combine raster bands</t>
+  </si>
+  <si>
+    <t>Convert raster nodata</t>
+  </si>
+  <si>
+    <t>Replace with nodata</t>
+  </si>
+  <si>
+    <t>Unify raster nodata</t>
+  </si>
+  <si>
+    <t>Set raster nodata</t>
+  </si>
+  <si>
+    <t>Split raster bands</t>
+  </si>
+  <si>
+    <t>Check if raster grids have same CRS, alignment, pixel size and optionally extent.</t>
+  </si>
+  <si>
+    <t>Combine multiple rasters into one multiband raster.</t>
+  </si>
+  <si>
+    <t>plot_prediction_area_curves.py</t>
+  </si>
+  <si>
+    <t>evaluation_functions.ipynb (Jupyternotebook)</t>
+  </si>
+  <si>
+    <t>Link wo das Funktion aufgerufen wird</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/notebooks/evaluation_functions.ipynb#L28</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/evaluation/plot_prediction_area_curves.py#L58</t>
+  </si>
+  <si>
+    <t>aufgerufen</t>
+  </si>
+  <si>
+    <t>calculate_base_metrics.py</t>
+  </si>
+  <si>
+    <t>algorithms/drafts/calculate_base_metrics.py, plot_prediction_area_curves (Nicht direkt aufgerufen im plot_prediction_area_curves, es dient als Eingabeschöpfer für die gegebene Funktion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculate_base_metrics, _calculate_base_metrics, </t>
+  </si>
+  <si>
+    <t>geopandas, numpy, pandas, rasterio, eis_toolkit.utilities.checks.geometry -&gt; check_geometry_types,  eis_toolkit.utilities.checks.raster -&gt; check_matching_crs</t>
+  </si>
+  <si>
+    <t>Berechne Werte für die wahre positive Rate, den Anteil der Fläche und die falsche positive Rate für verschiedene Schwellenwerte.
+Die Funktion berechnet die wahre positive Rate, den Anteil der Fläche und die falsche positive Rate für verschiedene Schwellenwerte, die anhand der eingegebenen Ablagerungsorte und der Mineralprospektivitätskarte bestimmt werden. Beachte, dass die Berechnung der falschen positiven Rate optional ist und nur durchgeführt wird, wenn negative Punktorte angegeben werden.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/evaluation/calculate_base_metrics.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/drafts/calculate_base_metrics.py#L4</t>
+  </si>
+  <si>
+    <t>plot_nn_model_performance.py</t>
+  </si>
+  <si>
+    <t>plot_nn_model_accuracy, plot_nn_model_loss</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>matplotlib.pyplot, pandas, seaborn, eis_toolkit.exceptions -&gt; InvalidDatasetException, InvalidDataShapeException</t>
+  </si>
+  <si>
+    <t>Plotte Trainings- und Validierungsgenauigkeiten für ein neuronales Netzwerkmodell.
+Plotte Trainings- und Validierungsverluste für ein neuronales Netzwerkmodell.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/evaluation/plot_nn_model_performance.py</t>
+  </si>
+  <si>
+    <t>matplotlib, numpy, pandas, matplotlib -&gt;  pyplot, shapely.geometry -&gt; LineString, eis_toolkit.exceptions -&gt; InvalidParameterValueException</t>
+  </si>
+  <si>
+    <t>plot_prediction_area_curves, _plot_prediction_area_curves, _get_pa_intersection</t>
+  </si>
+  <si>
+    <t>Plotte das Vorhersage-Flächen (P-A) Diagramm.</t>
+  </si>
+  <si>
+    <t>plot_rate_curve.py</t>
+  </si>
+  <si>
+    <t>plot_rate_curve, _plot_rate_curve</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/evaluation/plot_rate_curve.py</t>
+  </si>
+  <si>
+    <t>evaluation_functions.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/notebooks/evaluation_functions.ipynb#L27</t>
+  </si>
+  <si>
+    <t>matplotlib, numpy, pandas, matplotlib -&gt; pyplot, sklearn.metrics -&gt; auc, eis_toolkit.exceptions -&gt; InvalidParameterValueException</t>
+  </si>
+  <si>
+    <t>Plotte die Erfolgsrate</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1702,6 +1822,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -2036,7 +2168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -2319,39 +2451,27 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2382,6 +2502,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2442,6 +2571,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2526,9 +2658,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2544,21 +2673,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2586,8 +2700,111 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2929,12 +3146,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116:A123"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2992,7 +3209,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="103" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -3015,7 +3232,7 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="143" t="s">
         <v>213</v>
       </c>
@@ -3028,7 +3245,7 @@
       <c r="E5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="122" t="s">
+      <c r="F5" s="121" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="163" t="s">
@@ -3036,29 +3253,29 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="108"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="144"/>
       <c r="C6" s="147"/>
       <c r="D6" s="150"/>
       <c r="E6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="122"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="164"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="108"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="145"/>
       <c r="C7" s="148"/>
       <c r="D7" s="151"/>
       <c r="E7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="122"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="164"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="108"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
@@ -3079,7 +3296,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="108"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="19" t="s">
         <v>214</v>
       </c>
@@ -3100,7 +3317,7 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="108"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="18" t="s">
         <v>215</v>
       </c>
@@ -3121,23 +3338,23 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="108"/>
-      <c r="B11" s="112" t="s">
+      <c r="A11" s="104"/>
+      <c r="B11" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="117" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="122" t="s">
+      <c r="F11" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="123" t="s">
         <v>45</v>
       </c>
       <c r="H11" s="2"/>
@@ -3152,15 +3369,15 @@
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="108"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="118"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="117"/>
       <c r="E12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="122"/>
-      <c r="G12" s="124"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="123"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -3173,15 +3390,15 @@
       <c r="Q12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="108"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="118"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="117"/>
       <c r="E13" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="122"/>
-      <c r="G13" s="124"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="123"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3194,15 +3411,15 @@
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="108"/>
-      <c r="B14" s="112"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="118"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="124"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="123"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -3215,15 +3432,15 @@
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="108"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="118"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="122"/>
-      <c r="G15" s="124"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="123"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -3236,15 +3453,15 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="108"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="118"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="124"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="123"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -3257,15 +3474,15 @@
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="108"/>
-      <c r="B17" s="112"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="118"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="122"/>
-      <c r="G17" s="124"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="123"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -3278,15 +3495,15 @@
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="108"/>
-      <c r="B18" s="112"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="118"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="122"/>
-      <c r="G18" s="124"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="123"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -3299,7 +3516,7 @@
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="108"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="155" t="s">
         <v>216</v>
       </c>
@@ -3320,7 +3537,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="108"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="156"/>
       <c r="C20" s="159"/>
       <c r="D20" s="153"/>
@@ -3331,7 +3548,7 @@
       <c r="G20" s="162"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="108"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="156"/>
       <c r="C21" s="159"/>
       <c r="D21" s="153"/>
@@ -3342,7 +3559,7 @@
       <c r="G21" s="162"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="108"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="157"/>
       <c r="C22" s="160"/>
       <c r="D22" s="154"/>
@@ -3353,128 +3570,128 @@
       <c r="G22" s="162"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="108"/>
-      <c r="B23" s="112" t="s">
+      <c r="A23" s="104"/>
+      <c r="B23" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="117" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="122" t="s">
+      <c r="F23" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="124" t="s">
+      <c r="G23" s="123" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="108"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="118"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="117"/>
       <c r="E24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="122"/>
-      <c r="G24" s="124"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="123"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="108"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="118"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="117"/>
       <c r="E25" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="122"/>
-      <c r="G25" s="124"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="123"/>
     </row>
     <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="118"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="117"/>
       <c r="E26" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="122"/>
-      <c r="G26" s="124"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="123"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="117"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="119"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="118"/>
       <c r="E27" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="123"/>
-      <c r="G27" s="125"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="124"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="128" t="s">
+      <c r="B28" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="165" t="s">
+      <c r="D28" s="136" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="132" t="s">
+      <c r="F28" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="134" t="s">
+      <c r="G28" s="133" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="108"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="130"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="133"/>
-      <c r="G29" s="135"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="134"/>
     </row>
     <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="108"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="130"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="129"/>
       <c r="E30" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="133"/>
-      <c r="G30" s="135"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="134"/>
     </row>
     <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="108"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="130"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="129"/>
       <c r="E31" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="133"/>
-      <c r="G31" s="136"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="135"/>
     </row>
     <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="108"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="21" t="s">
         <v>68</v>
       </c>
@@ -3495,7 +3712,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="108"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="21" t="s">
         <v>67</v>
       </c>
@@ -3516,7 +3733,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="20" t="s">
         <v>78</v>
       </c>
@@ -3526,18 +3743,18 @@
       <c r="D34" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="130" t="s">
+      <c r="E34" s="129" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="131" t="s">
+      <c r="G34" s="130" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="20" t="s">
         <v>80</v>
       </c>
@@ -3547,68 +3764,68 @@
       <c r="D35" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="130"/>
+      <c r="E35" s="129"/>
       <c r="F35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="131"/>
+      <c r="G35" s="130"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="108"/>
-      <c r="B36" s="169" t="s">
+      <c r="A36" s="104"/>
+      <c r="B36" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="168" t="s">
+      <c r="C36" s="167" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="170" t="s">
+      <c r="D36" s="169" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="166" t="s">
+      <c r="F36" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="167" t="s">
+      <c r="G36" s="166" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="108"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="170"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="169"/>
       <c r="E37" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="166"/>
-      <c r="G37" s="167"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="166"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="108"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="170"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="169"/>
       <c r="E38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="166"/>
-      <c r="G38" s="167"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="166"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="108"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="170"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="169"/>
       <c r="E39" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="166"/>
-      <c r="G39" s="167"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="166"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="108"/>
+      <c r="A40" s="104"/>
       <c r="B40" s="20" t="s">
         <v>94</v>
       </c>
@@ -3618,18 +3835,18 @@
       <c r="D40" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="130" t="s">
+      <c r="E40" s="129" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="133" t="s">
+      <c r="F40" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="131" t="s">
+      <c r="G40" s="130" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="108"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="20" t="s">
         <v>97</v>
       </c>
@@ -3639,12 +3856,12 @@
       <c r="D41" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="131"/>
+      <c r="E41" s="129"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="130"/>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="108"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="21" t="s">
         <v>102</v>
       </c>
@@ -3665,205 +3882,205 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="108"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="127" t="s">
+      <c r="C43" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="130" t="s">
+      <c r="D43" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="130" t="s">
+      <c r="E43" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="133" t="s">
+      <c r="F43" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="131" t="s">
+      <c r="G43" s="130" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="108"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="127"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="131"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="130"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="108"/>
-      <c r="B45" s="169" t="s">
+      <c r="A45" s="104"/>
+      <c r="B45" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="168" t="s">
+      <c r="C45" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="180" t="s">
+      <c r="D45" s="174" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="170" t="s">
+      <c r="E45" s="169" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="166" t="s">
+      <c r="F45" s="165" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="167" t="s">
+      <c r="G45" s="166" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="108"/>
-      <c r="B46" s="169"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="181"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="166"/>
-      <c r="G46" s="167"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="165"/>
+      <c r="G46" s="166"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="108"/>
-      <c r="B47" s="169"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="181"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="167"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="167"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="169"/>
+      <c r="F47" s="165"/>
+      <c r="G47" s="166"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="108"/>
-      <c r="B48" s="169"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="181"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="166"/>
-      <c r="G48" s="167"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="175"/>
+      <c r="E48" s="169"/>
+      <c r="F48" s="165"/>
+      <c r="G48" s="166"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="108"/>
-      <c r="B49" s="169"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="182"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="167"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="176"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="166"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="108"/>
-      <c r="B50" s="129" t="s">
+      <c r="A50" s="104"/>
+      <c r="B50" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="183" t="s">
+      <c r="D50" s="177" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="133" t="s">
+      <c r="F50" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="131" t="s">
+      <c r="G50" s="130" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="108"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="127"/>
-      <c r="D51" s="184"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="126"/>
+      <c r="D51" s="178"/>
       <c r="E51" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="133"/>
-      <c r="G51" s="131"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="130"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="108"/>
-      <c r="B52" s="129"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="184"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="178"/>
       <c r="E52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="133"/>
-      <c r="G52" s="131"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="130"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="108"/>
-      <c r="B53" s="129"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="184"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="126"/>
+      <c r="D53" s="178"/>
       <c r="E53" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="133"/>
-      <c r="G53" s="131"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="130"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="108"/>
-      <c r="B54" s="129"/>
-      <c r="C54" s="127"/>
-      <c r="D54" s="184"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="126"/>
+      <c r="D54" s="178"/>
       <c r="E54" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="133"/>
-      <c r="G54" s="131"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="130"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="108"/>
-      <c r="B55" s="129"/>
-      <c r="C55" s="127"/>
-      <c r="D55" s="184"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="126"/>
+      <c r="D55" s="178"/>
       <c r="E55" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="133"/>
-      <c r="G55" s="131"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="130"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="108"/>
-      <c r="B56" s="129"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="184"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="126"/>
+      <c r="D56" s="178"/>
       <c r="E56" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="133"/>
-      <c r="G56" s="131"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="130"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="108"/>
-      <c r="B57" s="129"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="184"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="126"/>
+      <c r="D57" s="178"/>
       <c r="E57" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="133"/>
-      <c r="G57" s="131"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="130"/>
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="109"/>
-      <c r="B58" s="179"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="184"/>
+      <c r="A58" s="105"/>
+      <c r="B58" s="173"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="178"/>
       <c r="E58" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="176"/>
-      <c r="G58" s="177"/>
+      <c r="F58" s="170"/>
+      <c r="G58" s="171"/>
     </row>
     <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="107" t="s">
+      <c r="A59" s="103" t="s">
         <v>130</v>
       </c>
       <c r="B59" s="34" t="s">
@@ -3886,7 +4103,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="108"/>
+      <c r="A60" s="104"/>
       <c r="B60" s="43" t="s">
         <v>136</v>
       </c>
@@ -3907,7 +4124,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="108"/>
+      <c r="A61" s="104"/>
       <c r="B61" s="38" t="s">
         <v>140</v>
       </c>
@@ -3928,7 +4145,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="108"/>
+      <c r="A62" s="104"/>
       <c r="B62" s="43" t="s">
         <v>145</v>
       </c>
@@ -3949,7 +4166,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="108"/>
+      <c r="A63" s="104"/>
       <c r="B63" s="38" t="s">
         <v>149</v>
       </c>
@@ -3970,7 +4187,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="108"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="43" t="s">
         <v>219</v>
       </c>
@@ -3991,7 +4208,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="108"/>
+      <c r="A65" s="104"/>
       <c r="B65" s="38" t="s">
         <v>154</v>
       </c>
@@ -4012,7 +4229,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="108"/>
+      <c r="A66" s="104"/>
       <c r="B66" s="43" t="s">
         <v>155</v>
       </c>
@@ -4033,7 +4250,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="108"/>
+      <c r="A67" s="104"/>
       <c r="B67" s="38" t="s">
         <v>157</v>
       </c>
@@ -4054,7 +4271,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="109"/>
+      <c r="A68" s="105"/>
       <c r="B68" s="59" t="s">
         <v>162</v>
       </c>
@@ -4075,7 +4292,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="107" t="s">
+      <c r="A69" s="103" t="s">
         <v>164</v>
       </c>
       <c r="B69" s="17" t="s">
@@ -4098,7 +4315,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="108"/>
+      <c r="A70" s="104"/>
       <c r="B70" s="19" t="s">
         <v>166</v>
       </c>
@@ -4119,7 +4336,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="108"/>
+      <c r="A71" s="104"/>
       <c r="B71" s="18" t="s">
         <v>167</v>
       </c>
@@ -4140,11 +4357,11 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="108"/>
-      <c r="B72" s="112" t="s">
+      <c r="A72" s="104"/>
+      <c r="B72" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="110" t="s">
+      <c r="C72" s="106" t="s">
         <v>186</v>
       </c>
       <c r="D72" s="29" t="s">
@@ -4156,14 +4373,14 @@
       <c r="F72" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="G72" s="114" t="s">
+      <c r="G72" s="110" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="108"/>
-      <c r="B73" s="112"/>
-      <c r="C73" s="110"/>
+      <c r="A73" s="104"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="106"/>
       <c r="D73" s="29" t="s">
         <v>189</v>
       </c>
@@ -4173,12 +4390,12 @@
       <c r="F73" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="115"/>
+      <c r="G73" s="111"/>
     </row>
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="108"/>
-      <c r="B74" s="112"/>
-      <c r="C74" s="110"/>
+      <c r="A74" s="104"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="106"/>
       <c r="D74" s="29" t="s">
         <v>190</v>
       </c>
@@ -4188,12 +4405,12 @@
       <c r="F74" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="G74" s="115"/>
+      <c r="G74" s="111"/>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="108"/>
-      <c r="B75" s="112"/>
-      <c r="C75" s="110"/>
+      <c r="A75" s="104"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="106"/>
       <c r="D75" s="29" t="s">
         <v>191</v>
       </c>
@@ -4203,12 +4420,12 @@
       <c r="F75" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="G75" s="115"/>
+      <c r="G75" s="111"/>
     </row>
     <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="108"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="111"/>
+      <c r="A76" s="104"/>
+      <c r="B76" s="109"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="57" t="s">
         <v>192</v>
       </c>
@@ -4218,10 +4435,10 @@
       <c r="F76" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="116"/>
+      <c r="G76" s="112"/>
     </row>
     <row r="77" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="108"/>
+      <c r="A77" s="104"/>
       <c r="B77" s="69" t="s">
         <v>169</v>
       </c>
@@ -4242,7 +4459,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="108"/>
+      <c r="A78" s="104"/>
       <c r="B78" s="70" t="s">
         <v>170</v>
       </c>
@@ -4263,7 +4480,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="108"/>
+      <c r="A79" s="104"/>
       <c r="B79" s="71" t="s">
         <v>171</v>
       </c>
@@ -4284,7 +4501,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="108"/>
+      <c r="A80" s="104"/>
       <c r="B80" s="70" t="s">
         <v>172</v>
       </c>
@@ -4305,7 +4522,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="108"/>
+      <c r="A81" s="104"/>
       <c r="B81" s="71" t="s">
         <v>173</v>
       </c>
@@ -4326,7 +4543,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="108"/>
+      <c r="A82" s="104"/>
       <c r="B82" s="70" t="s">
         <v>174</v>
       </c>
@@ -4347,7 +4564,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="108"/>
+      <c r="A83" s="104"/>
       <c r="B83" s="71" t="s">
         <v>175</v>
       </c>
@@ -4368,7 +4585,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="108"/>
+      <c r="A84" s="104"/>
       <c r="B84" s="70" t="s">
         <v>176</v>
       </c>
@@ -4389,7 +4606,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="108"/>
+      <c r="A85" s="104"/>
       <c r="B85" s="71" t="s">
         <v>177</v>
       </c>
@@ -4410,7 +4627,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="108"/>
+      <c r="A86" s="104"/>
       <c r="B86" s="70" t="s">
         <v>178</v>
       </c>
@@ -4431,7 +4648,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="109"/>
+      <c r="A87" s="105"/>
       <c r="B87" s="75" t="s">
         <v>179</v>
       </c>
@@ -4452,7 +4669,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="174" t="s">
+      <c r="A88" s="190" t="s">
         <v>261</v>
       </c>
       <c r="B88" s="81" t="s">
@@ -4475,7 +4692,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="175"/>
+      <c r="A89" s="191"/>
       <c r="B89" s="18" t="s">
         <v>263</v>
       </c>
@@ -4496,7 +4713,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="175"/>
+      <c r="A90" s="191"/>
       <c r="B90" s="21" t="s">
         <v>264</v>
       </c>
@@ -4517,7 +4734,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="175"/>
+      <c r="A91" s="191"/>
       <c r="B91" s="18" t="s">
         <v>265</v>
       </c>
@@ -4538,7 +4755,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="175"/>
+      <c r="A92" s="191"/>
       <c r="B92" s="21" t="s">
         <v>266</v>
       </c>
@@ -4559,7 +4776,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="175"/>
+      <c r="A93" s="191"/>
       <c r="B93" s="18" t="s">
         <v>267</v>
       </c>
@@ -4580,7 +4797,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="175"/>
+      <c r="A94" s="191"/>
       <c r="B94" s="21" t="s">
         <v>268</v>
       </c>
@@ -4601,7 +4818,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A95" s="175"/>
+      <c r="A95" s="191"/>
       <c r="B95" s="18" t="s">
         <v>269</v>
       </c>
@@ -4622,7 +4839,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="175"/>
+      <c r="A96" s="191"/>
       <c r="B96" s="21" t="s">
         <v>270</v>
       </c>
@@ -4643,7 +4860,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="175"/>
+      <c r="A97" s="191"/>
       <c r="B97" s="18" t="s">
         <v>271</v>
       </c>
@@ -4664,7 +4881,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="175"/>
+      <c r="A98" s="191"/>
       <c r="B98" s="21" t="s">
         <v>272</v>
       </c>
@@ -4685,7 +4902,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="175"/>
+      <c r="A99" s="191"/>
       <c r="B99" s="18" t="s">
         <v>273</v>
       </c>
@@ -4706,7 +4923,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="175"/>
+      <c r="A100" s="191"/>
       <c r="B100" s="21" t="s">
         <v>274</v>
       </c>
@@ -4727,7 +4944,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="175"/>
+      <c r="A101" s="191"/>
       <c r="B101" s="18" t="s">
         <v>275</v>
       </c>
@@ -4748,7 +4965,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="175"/>
+      <c r="A102" s="191"/>
       <c r="B102" s="21" t="s">
         <v>276</v>
       </c>
@@ -4769,7 +4986,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A103" s="175"/>
+      <c r="A103" s="191"/>
       <c r="B103" s="18" t="s">
         <v>277</v>
       </c>
@@ -4790,7 +5007,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="175"/>
+      <c r="A104" s="191"/>
       <c r="B104" s="21" t="s">
         <v>278</v>
       </c>
@@ -4811,7 +5028,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="175"/>
+      <c r="A105" s="191"/>
       <c r="B105" s="18" t="s">
         <v>279</v>
       </c>
@@ -4832,7 +5049,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="175"/>
+      <c r="A106" s="191"/>
       <c r="B106" s="21" t="s">
         <v>280</v>
       </c>
@@ -4853,7 +5070,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="175"/>
+      <c r="A107" s="191"/>
       <c r="B107" s="18" t="s">
         <v>281</v>
       </c>
@@ -4874,7 +5091,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="175"/>
+      <c r="A108" s="191"/>
       <c r="B108" s="91" t="s">
         <v>282</v>
       </c>
@@ -4895,7 +5112,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A109" s="171" t="s">
+      <c r="A109" s="113" t="s">
         <v>374</v>
       </c>
       <c r="B109" s="17" t="s">
@@ -4918,7 +5135,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="172"/>
+      <c r="A110" s="114"/>
       <c r="B110" s="80" t="s">
         <v>376</v>
       </c>
@@ -4939,7 +5156,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="172"/>
+      <c r="A111" s="114"/>
       <c r="B111" s="18" t="s">
         <v>377</v>
       </c>
@@ -4960,11 +5177,11 @@
       </c>
     </row>
     <row r="112" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="172"/>
+      <c r="A112" s="114"/>
       <c r="B112" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="C112" s="99" t="s">
+      <c r="C112" s="96" t="s">
         <v>409</v>
       </c>
       <c r="D112" s="45" t="s">
@@ -4981,7 +5198,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="172"/>
+      <c r="A113" s="114"/>
       <c r="B113" s="18" t="s">
         <v>379</v>
       </c>
@@ -5002,7 +5219,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="172"/>
+      <c r="A114" s="114"/>
       <c r="B114" s="19" t="s">
         <v>380</v>
       </c>
@@ -5023,11 +5240,11 @@
       </c>
     </row>
     <row r="115" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="173"/>
+      <c r="A115" s="115"/>
       <c r="B115" s="90" t="s">
         <v>381</v>
       </c>
-      <c r="C115" s="100" t="s">
+      <c r="C115" s="97" t="s">
         <v>409</v>
       </c>
       <c r="D115" s="77" t="s">
@@ -5044,10 +5261,10 @@
       </c>
     </row>
     <row r="116" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="104" t="s">
+      <c r="A116" s="101" t="s">
         <v>415</v>
       </c>
-      <c r="B116" s="102" t="s">
+      <c r="B116" s="98" t="s">
         <v>416</v>
       </c>
       <c r="C116" s="82" t="s">
@@ -5067,7 +5284,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A117" s="105"/>
+      <c r="A117" s="102"/>
       <c r="B117" s="38" t="s">
         <v>417</v>
       </c>
@@ -5088,8 +5305,8 @@
       </c>
     </row>
     <row r="118" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A118" s="105"/>
-      <c r="B118" s="103" t="s">
+      <c r="A118" s="102"/>
+      <c r="B118" s="99" t="s">
         <v>418</v>
       </c>
       <c r="C118" s="86" t="s">
@@ -5109,7 +5326,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="105"/>
+      <c r="A119" s="102"/>
       <c r="B119" s="38" t="s">
         <v>419</v>
       </c>
@@ -5130,8 +5347,8 @@
       </c>
     </row>
     <row r="120" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A120" s="105"/>
-      <c r="B120" s="103" t="s">
+      <c r="A120" s="102"/>
+      <c r="B120" s="99" t="s">
         <v>420</v>
       </c>
       <c r="C120" s="86" t="s">
@@ -5151,7 +5368,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A121" s="105"/>
+      <c r="A121" s="102"/>
       <c r="B121" s="38" t="s">
         <v>421</v>
       </c>
@@ -5172,8 +5389,8 @@
       </c>
     </row>
     <row r="122" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A122" s="105"/>
-      <c r="B122" s="103" t="s">
+      <c r="A122" s="102"/>
+      <c r="B122" s="99" t="s">
         <v>422</v>
       </c>
       <c r="C122" s="86" t="s">
@@ -5193,28 +5410,112 @@
       </c>
     </row>
     <row r="123" spans="1:7" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="106"/>
-      <c r="B123" s="101" t="s">
+      <c r="A123" s="179"/>
+      <c r="B123" s="180" t="s">
         <v>423</v>
       </c>
-      <c r="C123" s="96" t="s">
+      <c r="C123" s="97" t="s">
         <v>448</v>
       </c>
-      <c r="D123" s="97" t="s">
+      <c r="D123" s="77" t="s">
         <v>459</v>
       </c>
-      <c r="E123" s="97" t="s">
+      <c r="E123" s="77" t="s">
         <v>450</v>
       </c>
-      <c r="F123" s="98" t="s">
+      <c r="F123" s="78" t="s">
         <v>457</v>
       </c>
-      <c r="G123" s="185" t="s">
+      <c r="G123" s="79" t="s">
         <v>458</v>
       </c>
     </row>
+    <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="103" t="s">
+        <v>460</v>
+      </c>
+      <c r="B124" s="181" t="s">
+        <v>461</v>
+      </c>
+      <c r="C124" s="182"/>
+      <c r="D124" s="183"/>
+      <c r="E124" s="183"/>
+      <c r="F124" s="184" t="s">
+        <v>468</v>
+      </c>
+      <c r="G124" s="184"/>
+    </row>
+    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="104"/>
+      <c r="B125" s="186" t="s">
+        <v>462</v>
+      </c>
+      <c r="C125" s="187"/>
+      <c r="D125" s="188"/>
+      <c r="E125" s="188"/>
+      <c r="F125" s="189" t="s">
+        <v>469</v>
+      </c>
+      <c r="G125" s="189"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="104"/>
+      <c r="B126" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="C126" s="47"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="46"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="104"/>
+      <c r="B127" s="186" t="s">
+        <v>464</v>
+      </c>
+      <c r="C127" s="187"/>
+      <c r="D127" s="188"/>
+      <c r="E127" s="188"/>
+      <c r="F127" s="189"/>
+      <c r="G127" s="189"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="104"/>
+      <c r="B128" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="C128" s="47"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="46"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="104"/>
+      <c r="B129" s="186" t="s">
+        <v>467</v>
+      </c>
+      <c r="C129" s="187"/>
+      <c r="D129" s="188"/>
+      <c r="E129" s="188"/>
+      <c r="F129" s="189"/>
+      <c r="G129" s="189"/>
+    </row>
+    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="116"/>
+      <c r="B130" s="185" t="s">
+        <v>465</v>
+      </c>
+      <c r="C130" s="96"/>
+      <c r="D130" s="100"/>
+      <c r="E130" s="100"/>
+      <c r="F130" s="48"/>
+      <c r="G130" s="48"/>
+    </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="63">
+    <mergeCell ref="A124:A130"/>
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="F50:F58"/>
     <mergeCell ref="G50:G58"/>
@@ -5359,4 +5660,187 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC374DC0-6B38-44DC-990C-3E2EEBDDFA20}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="3" width="37.44140625" style="192" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="206" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="206" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="206" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" style="206" customWidth="1"/>
+    <col min="8" max="8" width="65" style="206" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="139"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="140"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="142"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="193" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="195" t="s">
+        <v>475</v>
+      </c>
+      <c r="D3" s="196" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="194" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="196" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="214" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="198" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="197" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" s="202" t="s">
+        <v>478</v>
+      </c>
+      <c r="E4" s="202" t="s">
+        <v>479</v>
+      </c>
+      <c r="F4" s="202" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" s="209" t="s">
+        <v>481</v>
+      </c>
+      <c r="H4" s="209" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="104"/>
+      <c r="B5" s="199" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" s="199" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="203" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" s="203" t="s">
+        <v>486</v>
+      </c>
+      <c r="F5" s="203" t="s">
+        <v>487</v>
+      </c>
+      <c r="G5" s="210" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" s="211" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="104"/>
+      <c r="B6" s="200" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="200" t="s">
+        <v>471</v>
+      </c>
+      <c r="D6" s="204" t="s">
+        <v>490</v>
+      </c>
+      <c r="E6" s="204" t="s">
+        <v>489</v>
+      </c>
+      <c r="F6" s="208" t="s">
+        <v>491</v>
+      </c>
+      <c r="G6" s="212" t="s">
+        <v>474</v>
+      </c>
+      <c r="H6" s="212" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="116"/>
+      <c r="B7" s="201" t="s">
+        <v>492</v>
+      </c>
+      <c r="C7" s="201" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="205" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" s="207" t="s">
+        <v>497</v>
+      </c>
+      <c r="F7" s="205" t="s">
+        <v>498</v>
+      </c>
+      <c r="G7" s="213" t="s">
+        <v>494</v>
+      </c>
+      <c r="H7" s="213" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A4:A7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" location="L28" xr:uid="{B04D7226-E4C4-4E3A-B827-04DBB55FE032}"/>
+    <hyperlink ref="G6" r:id="rId2" location="L58" xr:uid="{837C92EE-22AF-4058-B18C-1728F1BA8EB7}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{D44B8646-47EA-420C-86AF-0EEB8F5BCFA0}"/>
+    <hyperlink ref="H4" r:id="rId4" location="L4" xr:uid="{A1715482-93CF-4E16-A269-1E28A4D4075E}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{DBF175BB-DB92-435B-BA52-F606543B824A}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{7C83257E-FE5C-4816-94B0-A7876AC5655C}"/>
+    <hyperlink ref="H7" r:id="rId7" location="L27" xr:uid="{09E0F68D-20AE-49F1-9CDE-11B7767C3377}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E947A3-9ADE-48A4-9D25-F69C633A3F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF43A4D8-A17C-4218-A885-AE63FDAD0564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="586">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -1630,12 +1630,6 @@
     <t>Split raster bands</t>
   </si>
   <si>
-    <t>Check if raster grids have same CRS, alignment, pixel size and optionally extent.</t>
-  </si>
-  <si>
-    <t>Combine multiple rasters into one multiband raster.</t>
-  </si>
-  <si>
     <t>plot_prediction_area_curves.py</t>
   </si>
   <si>
@@ -1723,6 +1717,274 @@
   </si>
   <si>
     <t>Plotte die Erfolgsrate</t>
+  </si>
+  <si>
+    <t>Sets nodata value in raster metadata to the specified value.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/utilities/checks/raster.py#L113</t>
+  </si>
+  <si>
+    <t>check_matching_crs, check_matching_pixel_alignment, check_matching_bounds</t>
+  </si>
+  <si>
+    <t>rasterio -&gt; transform, profiles, crs, eis_toolkit.exceptions -&gt; InvalidParameterValueException</t>
+  </si>
+  <si>
+    <t>Prüfen, ob Rasterraster dieselbe CRS, Ausrichtung, Pixelgröße und optional Ausdehnung haben</t>
+  </si>
+  <si>
+    <t>eis_toolkit/utilities /raster.py</t>
+  </si>
+  <si>
+    <t>eis_toolkit/utilities/checks /raster.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/utilities/raster.py#L47</t>
+  </si>
+  <si>
+    <t>combine_raster_bands, check_raster_grids</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.exceptions -&gt;  InvalidParameterValueException</t>
+  </si>
+  <si>
+    <t>Kombiniere mehrere Raster zu einem Multiband-Raster.</t>
+  </si>
+  <si>
+    <t>eis_toolkit/utilities /nodata.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/utilities/nodata.py#L72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert_raster_nodata, </t>
+  </si>
+  <si>
+    <t>eis_toolkit.exceptions -&gt;  InvalidParameterValueException,
+eis_toolkit.utilities.miscellaneous -&gt; replace_values, numpy, rasterio</t>
+  </si>
+  <si>
+    <t>Konvertierung vorhandener Nodata-Werte in einen neuen Nodata-Wert für ein Raster.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/utilities/nodata.py#L15</t>
+  </si>
+  <si>
+    <t>unify_raster_nodata, convert_raster_nodata</t>
+  </si>
+  <si>
+    <t>Vereinheitlicht die Noddaten für die Eingaberaster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set_raster_nodata, </t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/utilities/nodata.py#L52</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/utilities/nodata.py#L105</t>
+  </si>
+  <si>
+    <t>replace_with_nodata</t>
+  </si>
+  <si>
+    <t>Ersetzen von Rasterpixelwerten durch Nodata.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/utilities/raster.py#L19</t>
+  </si>
+  <si>
+    <t>eis_toolkit/utilities/raster.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> split_raster_bands</t>
+  </si>
+  <si>
+    <t>Teilt Multibandraster in Einzelbandraster auf.</t>
+  </si>
+  <si>
+    <t>Calculate geometry</t>
+  </si>
+  <si>
+    <t>Cell based association</t>
+  </si>
+  <si>
+    <t>Distance computation</t>
+  </si>
+  <si>
+    <t>Extract shared lines</t>
+  </si>
+  <si>
+    <t>IDW intepolation</t>
+  </si>
+  <si>
+    <t>Kriging interpolation</t>
+  </si>
+  <si>
+    <t>Proximity computation</t>
+  </si>
+  <si>
+    <t>Rastarize</t>
+  </si>
+  <si>
+    <t>Reproject vector</t>
+  </si>
+  <si>
+    <t>Vector density</t>
+  </si>
+  <si>
+    <t>Vector processing</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/calculate_geometry.py#L8</t>
+  </si>
+  <si>
+    <t>vector_processing/calculate_geometry.py</t>
+  </si>
+  <si>
+    <t>calculate_geometry, _calculate_value</t>
+  </si>
+  <si>
+    <t>geopandas, eis_toolkit.exceptions -&gt; EmptyDataFrameException</t>
+  </si>
+  <si>
+    <t>Berechnung der Vektorgeometrie (Länge, Fläche) für Linien und Polygone.</t>
+  </si>
+  <si>
+    <t>cell_based_association.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/cell_based_association.py#L23</t>
+  </si>
+  <si>
+    <t>cell_based_association, _add_layer, _to_raster,  _prepare_grid, _get_disc,  _init_from_vector_data,  _get_grid,  _check_and_prepare_param</t>
+  </si>
+  <si>
+    <t>geopandas, numpy, pandas, rasterio, shapely.geometry, shapely, eis_toolkit.exceptions -&gt;  EmptyDataFrameException, InvalidColumnException, InvalidParameterValueException</t>
+  </si>
+  <si>
+    <t>Eine CBA-Matrix erstellen.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/distance_computation.py</t>
+  </si>
+  <si>
+    <t>distance_computation.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance_computation,  check_raster_profile, _compute_distances_core,  _generate_raster_points, _point_to_segment_distance,  _point_in_polygon, </t>
+  </si>
+  <si>
+    <t>geopandas, numpy, numba, rasterio, eis_toolkit -&gt; exceptions, eis_toolkit.utilities.checks.raster -&gt; check_raster_profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _extract_shared_lines, extract_shared_lines</t>
+  </si>
+  <si>
+    <t>extract_shared_lines.py</t>
+  </si>
+  <si>
+    <t>Berechnung der euklidischen Entfernungen von Rasterzellen zu den nächstgelegenen Vektorgeometrien.</t>
+  </si>
+  <si>
+    <t>geopandas, eis_toolkit.exceptions -&gt; EmptyDataFrameException, InvalidParameterValueException</t>
+  </si>
+  <si>
+    <t>Gemeinsame Linien zwischen Polygonmerkmalen extrahieren.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/extract_shared_lines.py#L31</t>
+  </si>
+  <si>
+    <t>idw_interpolation.py</t>
+  </si>
+  <si>
+    <t>idw, check_raster_profile, _idw_interpolation, _idw_core</t>
+  </si>
+  <si>
+    <t>geopandas, numpy, rasterio, eis_toolkit.exceptions -&gt; EmptyDataFrameException, InvalidParameterValueException, NonMatchingCrsException, eis_toolkit.utilities.checks.raster -&gt; check_raster_profile</t>
+  </si>
+  <si>
+    <t>kriging_interpolation.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kriging, check_raster_profile, UniversalKriging, OrdinaryKriging, _kriging</t>
+  </si>
+  <si>
+    <t>geopandas, numpy, pykrige.ok -&gt; OrdinaryKriging, pykrige.uk -&gt; UniversalKriging, rasterio -&gt; profiles, transform, eis_toolkit.exceptions -&gt; EmptyDataFrameException, InvalidParameterValueException, NonMatchingCrsException, eis_toolkit.utilities.checks.raster -&gt; check_raster_profile, eis_toolkit.exceptions -&gt; EmptyDataFrameException, InvalidParameterValueException, NonMatchingCrsException, eis_toolkit.utilities.checks.raster -&gt; check_raster_profile</t>
+  </si>
+  <si>
+    <t>Durchführung von Kriging-Interpolation auf Vektordaten.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/kriging_interpolation.py#L48</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/idw_interpolation.py#L83</t>
+  </si>
+  <si>
+    <t>Führen Sie eine IDW-Interpolation (inverse Distanzgewichtung) für Vektordaten durch.</t>
+  </si>
+  <si>
+    <t>proximity_computation, _linear_proximity_computation, distance_computation,  _min_max_scaling</t>
+  </si>
+  <si>
+    <t>proximity_computation.py</t>
+  </si>
+  <si>
+    <t>geopandas, numpy, rasterio, eis_toolkit.transformations.linear -&gt; _min_max_scaling, eis_toolkit.vector_processing.distance_computation -&gt; distance_computation</t>
+  </si>
+  <si>
+    <t>Berechnung von Näherungen von Rasterzellen zu nächstgelegenen Vektorgeometrien.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/proximity_computation.py#L14</t>
+  </si>
+  <si>
+    <t>rasterize_vector.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/rasterize_vector.py#L18</t>
+  </si>
+  <si>
+    <t>Rasterisieren einer Vektorebene</t>
+  </si>
+  <si>
+    <t>geopandas, numpy, rasterio -&gt; features, profiles, transform, rasterio.enums -&gt;  MergeAlg, eis_toolkit.exceptions -&gt;  EmptyDataFrameException, InvalidColumnException, NonMatchingCrsException,    NumericValueSignException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rasterize_vector, check_raster_profile, _rasterize_vector, getattr, _rasterize_vector, </t>
+  </si>
+  <si>
+    <t>Reprojiziert Vektordaten auf ein gegebenes Koordinatenreferenzsystem (EPSG). Reprojiziert Vektordaten auf ein gegebenes Koordinatenreferenzsystem (EPSG).</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/reproject_vector.py</t>
+  </si>
+  <si>
+    <t>reproject_vector.py</t>
+  </si>
+  <si>
+    <t>reproject_vector</t>
+  </si>
+  <si>
+    <t>geopandas, eis_toolkit.exceptions -&gt; MatchingCrsException</t>
+  </si>
+  <si>
+    <t>geopandas, numpy, rasterio -&gt; profile, eis_toolkit.vector_processing.rasterize_vector -&gt; rasterize_vector</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/vector_processing/vector_density.py</t>
+  </si>
+  <si>
+    <t>Berechnung der Dichte von Geometrien im RasterBerechnung der Dichte von Geometrien im Raster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vector_density, rasterize_vector</t>
+  </si>
+  <si>
+    <t>vector_density.py</t>
   </si>
 </sst>
 </file>
@@ -1791,7 +2053,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1834,8 +2096,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -2163,17 +2431,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2202,36 +2563,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2266,38 +2600,17 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2334,18 +2647,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2359,18 +2660,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2403,15 +2692,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2422,9 +2702,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2433,15 +2710,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2451,282 +2719,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2734,9 +2741,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2803,8 +2807,379 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3146,2375 +3521,2655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B7"/>
+      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" style="16" customWidth="1"/>
-    <col min="5" max="5" width="37.77734375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="31" style="13" customWidth="1"/>
-    <col min="7" max="7" width="102.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="200" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="196" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="197" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" style="198" customWidth="1"/>
+    <col min="5" max="5" width="37.77734375" style="198" customWidth="1"/>
+    <col min="6" max="6" width="31" style="199" customWidth="1"/>
+    <col min="7" max="7" width="102.5546875" style="199" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="195"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="139"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="154"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="142"/>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="157"/>
+    </row>
+    <row r="3" spans="1:17" s="200" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="110" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="143" t="s">
+      <c r="A5" s="120"/>
+      <c r="B5" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="149" t="s">
+      <c r="D5" s="164" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="121" t="s">
+      <c r="F5" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="163" t="s">
+      <c r="G5" s="178" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="29" t="s">
+      <c r="A6" s="120"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="121"/>
-      <c r="G6" s="164"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="179"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="104"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="29" t="s">
+      <c r="A7" s="120"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="164"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="179"/>
     </row>
     <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="120"/>
+      <c r="B8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="104"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="120"/>
+      <c r="B9" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="32" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="104"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="120"/>
+      <c r="B10" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="35" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="104"/>
-      <c r="B11" s="108" t="s">
+      <c r="A11" s="120"/>
+      <c r="B11" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="119" t="s">
+      <c r="C11" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="117" t="s">
+      <c r="D11" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="H11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="201"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="201"/>
+      <c r="Q11" s="201"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="29" t="s">
+      <c r="A12" s="120"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="201"/>
+      <c r="Q12" s="201"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="29" t="s">
+      <c r="A13" s="120"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="121"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201"/>
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="104"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="29" t="s">
+      <c r="A14" s="120"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="201"/>
+      <c r="O14" s="201"/>
+      <c r="P14" s="201"/>
+      <c r="Q14" s="201"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="104"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="29" t="s">
+      <c r="A15" s="120"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="201"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="201"/>
+      <c r="Q15" s="201"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="104"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="29" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="201"/>
+      <c r="I16" s="201"/>
+      <c r="J16" s="201"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201"/>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="104"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="29" t="s">
+      <c r="A17" s="120"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="201"/>
+      <c r="I17" s="201"/>
+      <c r="J17" s="201"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="201"/>
+      <c r="O17" s="201"/>
+      <c r="P17" s="201"/>
+      <c r="Q17" s="201"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="104"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="29" t="s">
+      <c r="A18" s="120"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="201"/>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="201"/>
+      <c r="Q18" s="201"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="104"/>
-      <c r="B19" s="155" t="s">
+      <c r="A19" s="120"/>
+      <c r="B19" s="170" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="158" t="s">
+      <c r="C19" s="173" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="161" t="s">
+      <c r="F19" s="176" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="162" t="s">
+      <c r="G19" s="177" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="104"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="30" t="s">
+      <c r="A20" s="120"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="161"/>
-      <c r="G20" s="162"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="177"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="104"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="30" t="s">
+      <c r="A21" s="120"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="161"/>
-      <c r="G21" s="162"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="177"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="104"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="160"/>
-      <c r="D22" s="154"/>
-      <c r="E22" s="30" t="s">
+      <c r="A22" s="120"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="161"/>
-      <c r="G22" s="162"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="177"/>
     </row>
     <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="104"/>
-      <c r="B23" s="108" t="s">
+      <c r="A23" s="120"/>
+      <c r="B23" s="124" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="117" t="s">
+      <c r="D23" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="121" t="s">
+      <c r="F23" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="123" t="s">
+      <c r="G23" s="137" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="104"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="29" t="s">
+      <c r="A24" s="120"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="121"/>
-      <c r="G24" s="123"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="137"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="104"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="29" t="s">
+      <c r="A25" s="120"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="121"/>
-      <c r="G25" s="123"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="137"/>
     </row>
     <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="104"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="29" t="s">
+      <c r="A26" s="120"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="121"/>
-      <c r="G26" s="123"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="137"/>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="116"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="31" t="s">
+      <c r="A27" s="134"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="122"/>
-      <c r="G27" s="124"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="138"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="127" t="s">
+      <c r="B28" s="141" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="125" t="s">
+      <c r="C28" s="139" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="136" t="s">
+      <c r="D28" s="150" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="131" t="s">
+      <c r="F28" s="145" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="133" t="s">
+      <c r="G28" s="147" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="104"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="15" t="s">
+      <c r="A29" s="120"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="140"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="132"/>
-      <c r="G29" s="134"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="148"/>
     </row>
     <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="15" t="s">
+      <c r="A30" s="120"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="132"/>
-      <c r="G30" s="134"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="148"/>
     </row>
     <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="104"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="15" t="s">
+      <c r="A31" s="120"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="132"/>
-      <c r="G31" s="135"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="149"/>
     </row>
     <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="104"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="120"/>
+      <c r="B32" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="36" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="104"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="120"/>
+      <c r="B33" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="104"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="120"/>
+      <c r="B34" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="129" t="s">
+      <c r="E34" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="130" t="s">
+      <c r="G34" s="144" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="104"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="120"/>
+      <c r="B35" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="129"/>
-      <c r="F35" s="6" t="s">
+      <c r="E35" s="143"/>
+      <c r="F35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="130"/>
+      <c r="G35" s="144"/>
     </row>
     <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="104"/>
-      <c r="B36" s="168" t="s">
+      <c r="A36" s="120"/>
+      <c r="B36" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="167" t="s">
+      <c r="C36" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="169" t="s">
+      <c r="D36" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="33" t="s">
+      <c r="E36" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="165" t="s">
+      <c r="F36" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="166" t="s">
+      <c r="G36" s="181" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="104"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="33" t="s">
+      <c r="A37" s="120"/>
+      <c r="B37" s="183"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="165"/>
-      <c r="G37" s="166"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="181"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="104"/>
-      <c r="B38" s="168"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="33" t="s">
+      <c r="A38" s="120"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="165"/>
-      <c r="G38" s="166"/>
+      <c r="F38" s="180"/>
+      <c r="G38" s="181"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="104"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="169"/>
-      <c r="E39" s="33" t="s">
+      <c r="A39" s="120"/>
+      <c r="B39" s="183"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="165"/>
-      <c r="G39" s="166"/>
+      <c r="F39" s="180"/>
+      <c r="G39" s="181"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="104"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="120"/>
+      <c r="B40" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="15" t="s">
+      <c r="D40" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="129" t="s">
+      <c r="E40" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="132" t="s">
+      <c r="F40" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="130" t="s">
+      <c r="G40" s="144" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="104"/>
-      <c r="B41" s="20" t="s">
+      <c r="A41" s="120"/>
+      <c r="B41" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="129"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="130"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="144"/>
     </row>
     <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="104"/>
-      <c r="B42" s="21" t="s">
+      <c r="A42" s="120"/>
+      <c r="B42" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G42" s="55" t="s">
+      <c r="G42" s="37" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="104"/>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="120"/>
+      <c r="B43" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="126" t="s">
+      <c r="C43" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="129" t="s">
+      <c r="D43" s="151" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="129" t="s">
+      <c r="E43" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="132" t="s">
+      <c r="F43" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="130" t="s">
+      <c r="G43" s="144" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="104"/>
-      <c r="B44" s="20" t="s">
+      <c r="A44" s="120"/>
+      <c r="B44" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="126"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="130"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="143"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="144"/>
     </row>
     <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="104"/>
-      <c r="B45" s="168" t="s">
+      <c r="A45" s="120"/>
+      <c r="B45" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="167" t="s">
+      <c r="C45" s="182" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="174" t="s">
+      <c r="D45" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="169" t="s">
+      <c r="E45" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="165" t="s">
+      <c r="F45" s="180" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="166" t="s">
+      <c r="G45" s="181" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="104"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="175"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="165"/>
-      <c r="G46" s="166"/>
+      <c r="A46" s="120"/>
+      <c r="B46" s="183"/>
+      <c r="C46" s="182"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="181"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="104"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="175"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="165"/>
-      <c r="G47" s="166"/>
+      <c r="A47" s="120"/>
+      <c r="B47" s="183"/>
+      <c r="C47" s="182"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="194"/>
+      <c r="F47" s="180"/>
+      <c r="G47" s="181"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="104"/>
-      <c r="B48" s="168"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="175"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="165"/>
-      <c r="G48" s="166"/>
+      <c r="A48" s="120"/>
+      <c r="B48" s="183"/>
+      <c r="C48" s="182"/>
+      <c r="D48" s="190"/>
+      <c r="E48" s="194"/>
+      <c r="F48" s="180"/>
+      <c r="G48" s="181"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="104"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="165"/>
-      <c r="G49" s="166"/>
+      <c r="A49" s="120"/>
+      <c r="B49" s="183"/>
+      <c r="C49" s="182"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="180"/>
+      <c r="G49" s="181"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="104"/>
-      <c r="B50" s="128" t="s">
+      <c r="A50" s="120"/>
+      <c r="B50" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="126" t="s">
+      <c r="C50" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="177" t="s">
+      <c r="D50" s="192" t="s">
         <v>129</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="132" t="s">
+      <c r="F50" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="130" t="s">
+      <c r="G50" s="144" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="104"/>
-      <c r="B51" s="128"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="178"/>
-      <c r="E51" s="15" t="s">
+      <c r="A51" s="120"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="132"/>
-      <c r="G51" s="130"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="144"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="104"/>
-      <c r="B52" s="128"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="15" t="s">
+      <c r="A52" s="120"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="193"/>
+      <c r="E52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="132"/>
-      <c r="G52" s="130"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="144"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="104"/>
-      <c r="B53" s="128"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="15" t="s">
+      <c r="A53" s="120"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="193"/>
+      <c r="E53" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="132"/>
-      <c r="G53" s="130"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="144"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="104"/>
-      <c r="B54" s="128"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="15" t="s">
+      <c r="A54" s="120"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="132"/>
-      <c r="G54" s="130"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="144"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="104"/>
-      <c r="B55" s="128"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="15" t="s">
+      <c r="A55" s="120"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="193"/>
+      <c r="E55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="132"/>
-      <c r="G55" s="130"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="144"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="104"/>
-      <c r="B56" s="128"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="178"/>
-      <c r="E56" s="15" t="s">
+      <c r="A56" s="120"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="193"/>
+      <c r="E56" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="132"/>
-      <c r="G56" s="130"/>
+      <c r="F56" s="146"/>
+      <c r="G56" s="144"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="104"/>
-      <c r="B57" s="128"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="178"/>
-      <c r="E57" s="15" t="s">
+      <c r="A57" s="120"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="140"/>
+      <c r="D57" s="193"/>
+      <c r="E57" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="132"/>
-      <c r="G57" s="130"/>
+      <c r="F57" s="146"/>
+      <c r="G57" s="144"/>
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="105"/>
-      <c r="B58" s="173"/>
-      <c r="C58" s="172"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="8" t="s">
+      <c r="A58" s="121"/>
+      <c r="B58" s="188"/>
+      <c r="C58" s="187"/>
+      <c r="D58" s="193"/>
+      <c r="E58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="170"/>
-      <c r="G58" s="171"/>
+      <c r="F58" s="185"/>
+      <c r="G58" s="186"/>
     </row>
     <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="103" t="s">
+      <c r="A59" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="D59" s="36" t="s">
+      <c r="D59" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="E59" s="36" t="s">
+      <c r="E59" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F59" s="37" t="s">
+      <c r="F59" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G59" s="56" t="s">
+      <c r="G59" s="38" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="104"/>
-      <c r="B60" s="43" t="s">
+      <c r="A60" s="120"/>
+      <c r="B60" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="D60" s="45" t="s">
+      <c r="D60" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="G60" s="50" t="s">
+      <c r="G60" s="32" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="104"/>
-      <c r="B61" s="38" t="s">
+      <c r="A61" s="120"/>
+      <c r="B61" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="D61" s="40" t="s">
+      <c r="D61" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E61" s="40" t="s">
+      <c r="E61" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F61" s="41" t="s">
+      <c r="F61" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="G61" s="53" t="s">
+      <c r="G61" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="104"/>
-      <c r="B62" s="43" t="s">
+      <c r="A62" s="120"/>
+      <c r="B62" s="95" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="45" t="s">
+      <c r="D62" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="E62" s="45" t="s">
+      <c r="E62" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="F62" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="G62" s="50" t="s">
+      <c r="G62" s="32" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="104"/>
-      <c r="B63" s="38" t="s">
+      <c r="A63" s="120"/>
+      <c r="B63" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="40" t="s">
+      <c r="E63" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F63" s="41" t="s">
+      <c r="F63" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="G63" s="53" t="s">
+      <c r="G63" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="104"/>
-      <c r="B64" s="43" t="s">
+      <c r="A64" s="120"/>
+      <c r="B64" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="C64" s="47" t="s">
+      <c r="C64" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F64" s="46" t="s">
+      <c r="F64" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="G64" s="50" t="s">
+      <c r="G64" s="32" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="104"/>
-      <c r="B65" s="38" t="s">
+      <c r="A65" s="120"/>
+      <c r="B65" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D65" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E65" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F65" s="41" t="s">
+      <c r="F65" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="G65" s="53" t="s">
+      <c r="G65" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="104"/>
-      <c r="B66" s="43" t="s">
+      <c r="A66" s="120"/>
+      <c r="B66" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C66" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D66" s="45" t="s">
+      <c r="D66" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="G66" s="50" t="s">
+      <c r="G66" s="32" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="104"/>
-      <c r="B67" s="38" t="s">
+      <c r="A67" s="120"/>
+      <c r="B67" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="40" t="s">
+      <c r="E67" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="F67" s="41" t="s">
+      <c r="F67" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="G67" s="53" t="s">
+      <c r="G67" s="35" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="105"/>
-      <c r="B68" s="59" t="s">
+      <c r="A68" s="121"/>
+      <c r="B68" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="60" t="s">
+      <c r="C68" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="D68" s="61" t="s">
+      <c r="D68" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="61" t="s">
+      <c r="E68" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="F68" s="62" t="s">
+      <c r="F68" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="G68" s="63" t="s">
+      <c r="G68" s="41" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="103" t="s">
+      <c r="A69" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="65" t="s">
+      <c r="C69" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="F69" s="72" t="s">
+      <c r="F69" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="G69" s="52" t="s">
+      <c r="G69" s="34" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="104"/>
-      <c r="B70" s="19" t="s">
+      <c r="A70" s="120"/>
+      <c r="B70" s="44" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E70" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="F70" s="73" t="s">
+      <c r="F70" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="G70" s="74" t="s">
+      <c r="G70" s="48" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="104"/>
-      <c r="B71" s="18" t="s">
+      <c r="A71" s="120"/>
+      <c r="B71" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E71" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F71" s="41" t="s">
+      <c r="F71" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="G71" s="53" t="s">
+      <c r="G71" s="35" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="104"/>
-      <c r="B72" s="108" t="s">
+      <c r="A72" s="120"/>
+      <c r="B72" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="106" t="s">
+      <c r="C72" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="E72" s="29" t="s">
+      <c r="E72" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="G72" s="110" t="s">
+      <c r="G72" s="126" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="104"/>
-      <c r="B73" s="108"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="29" t="s">
+      <c r="A73" s="120"/>
+      <c r="B73" s="124"/>
+      <c r="C73" s="122"/>
+      <c r="D73" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="E73" s="29" t="s">
+      <c r="E73" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="111"/>
+      <c r="G73" s="127"/>
     </row>
     <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="104"/>
-      <c r="B74" s="108"/>
-      <c r="C74" s="106"/>
-      <c r="D74" s="29" t="s">
+      <c r="A74" s="120"/>
+      <c r="B74" s="124"/>
+      <c r="C74" s="122"/>
+      <c r="D74" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="E74" s="29" t="s">
+      <c r="E74" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F74" s="46" t="s">
+      <c r="F74" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="G74" s="111"/>
+      <c r="G74" s="127"/>
     </row>
     <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="104"/>
-      <c r="B75" s="108"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="29" t="s">
+      <c r="A75" s="120"/>
+      <c r="B75" s="124"/>
+      <c r="C75" s="122"/>
+      <c r="D75" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="E75" s="29" t="s">
+      <c r="E75" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="F75" s="46" t="s">
+      <c r="F75" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="G75" s="111"/>
+      <c r="G75" s="127"/>
     </row>
     <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="104"/>
-      <c r="B76" s="109"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="57" t="s">
+      <c r="A76" s="120"/>
+      <c r="B76" s="125"/>
+      <c r="C76" s="123"/>
+      <c r="D76" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="E76" s="31" t="s">
+      <c r="E76" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F76" s="48" t="s">
+      <c r="F76" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="112"/>
+      <c r="G76" s="128"/>
     </row>
     <row r="77" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="104"/>
-      <c r="B77" s="69" t="s">
+      <c r="A77" s="120"/>
+      <c r="B77" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E77" s="36" t="s">
+      <c r="E77" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F77" s="72" t="s">
+      <c r="F77" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="G77" s="52" t="s">
+      <c r="G77" s="34" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="104"/>
-      <c r="B78" s="70" t="s">
+      <c r="A78" s="120"/>
+      <c r="B78" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="D78" s="29" t="s">
+      <c r="D78" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="E78" s="45" t="s">
+      <c r="E78" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="F78" s="46" t="s">
+      <c r="F78" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="G78" s="50" t="s">
+      <c r="G78" s="32" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="104"/>
-      <c r="B79" s="71" t="s">
+      <c r="A79" s="120"/>
+      <c r="B79" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D79" s="30" t="s">
+      <c r="D79" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F79" s="41" t="s">
+      <c r="F79" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="G79" s="53" t="s">
+      <c r="G79" s="35" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="104"/>
-      <c r="B80" s="70" t="s">
+      <c r="A80" s="120"/>
+      <c r="B80" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D80" s="29" t="s">
+      <c r="D80" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="E80" s="45" t="s">
+      <c r="E80" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="F80" s="46" t="s">
+      <c r="F80" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="G80" s="50" t="s">
+      <c r="G80" s="32" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="104"/>
-      <c r="B81" s="71" t="s">
+      <c r="A81" s="120"/>
+      <c r="B81" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="E81" s="40" t="s">
+      <c r="E81" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F81" s="41" t="s">
+      <c r="F81" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="G81" s="53" t="s">
+      <c r="G81" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="104"/>
-      <c r="B82" s="70" t="s">
+      <c r="A82" s="120"/>
+      <c r="B82" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="E82" s="45" t="s">
+      <c r="E82" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="F82" s="46" t="s">
+      <c r="F82" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="G82" s="50" t="s">
+      <c r="G82" s="32" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="104"/>
-      <c r="B83" s="71" t="s">
+      <c r="A83" s="120"/>
+      <c r="B83" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C83" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="D83" s="30" t="s">
+      <c r="D83" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F83" s="41" t="s">
+      <c r="F83" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="G83" s="53" t="s">
+      <c r="G83" s="35" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="104"/>
-      <c r="B84" s="70" t="s">
+      <c r="A84" s="120"/>
+      <c r="B84" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D84" s="29" t="s">
+      <c r="D84" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="E84" s="45" t="s">
+      <c r="E84" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="F84" s="46" t="s">
+      <c r="F84" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="G84" s="50" t="s">
+      <c r="G84" s="32" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="104"/>
-      <c r="B85" s="71" t="s">
+      <c r="A85" s="120"/>
+      <c r="B85" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="D85" s="30" t="s">
+      <c r="D85" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="F85" s="41" t="s">
+      <c r="F85" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="G85" s="53" t="s">
+      <c r="G85" s="35" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="104"/>
-      <c r="B86" s="70" t="s">
+      <c r="A86" s="120"/>
+      <c r="B86" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="D86" s="68" t="s">
+      <c r="D86" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="E86" s="45" t="s">
+      <c r="E86" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="F86" s="46" t="s">
+      <c r="F86" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="G86" s="50" t="s">
+      <c r="G86" s="32" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="105"/>
-      <c r="B87" s="75" t="s">
+      <c r="A87" s="121"/>
+      <c r="B87" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="76" t="s">
+      <c r="C87" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="D87" s="58" t="s">
+      <c r="D87" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="E87" s="77" t="s">
+      <c r="E87" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="F87" s="78" t="s">
+      <c r="F87" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="G87" s="79" t="s">
+      <c r="G87" s="53" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="190" t="s">
+      <c r="A88" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="81" t="s">
+      <c r="B88" s="103" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="82" t="s">
+      <c r="C88" s="115" t="s">
         <v>283</v>
       </c>
-      <c r="D88" s="83" t="s">
+      <c r="D88" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="E88" s="83" t="s">
+      <c r="E88" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="F88" s="84" t="s">
+      <c r="F88" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="G88" s="85" t="s">
+      <c r="G88" s="56" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="191"/>
-      <c r="B89" s="18" t="s">
+      <c r="A89" s="133"/>
+      <c r="B89" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="C89" s="42" t="s">
+      <c r="C89" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D89" s="40" t="s">
+      <c r="D89" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F89" s="41" t="s">
+      <c r="F89" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="G89" s="53" t="s">
+      <c r="G89" s="35" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="191"/>
-      <c r="B90" s="21" t="s">
+      <c r="A90" s="133"/>
+      <c r="B90" s="99" t="s">
         <v>264</v>
       </c>
-      <c r="C90" s="86" t="s">
+      <c r="C90" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D90" s="87" t="s">
+      <c r="D90" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="E90" s="87" t="s">
+      <c r="E90" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="F90" s="88" t="s">
+      <c r="F90" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="G90" s="89" t="s">
+      <c r="G90" s="59" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="191"/>
-      <c r="B91" s="18" t="s">
+      <c r="A91" s="133"/>
+      <c r="B91" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="C91" s="42" t="s">
+      <c r="C91" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="D91" s="40" t="s">
+      <c r="D91" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E91" s="40" t="s">
+      <c r="E91" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="F91" s="41" t="s">
+      <c r="F91" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="G91" s="53" t="s">
+      <c r="G91" s="35" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="191"/>
-      <c r="B92" s="21" t="s">
+      <c r="A92" s="133"/>
+      <c r="B92" s="99" t="s">
         <v>266</v>
       </c>
-      <c r="C92" s="86" t="s">
+      <c r="C92" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D92" s="87" t="s">
+      <c r="D92" s="57" t="s">
         <v>305</v>
       </c>
-      <c r="E92" s="87" t="s">
+      <c r="E92" s="57" t="s">
         <v>304</v>
       </c>
-      <c r="F92" s="88" t="s">
+      <c r="F92" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="G92" s="89" t="s">
+      <c r="G92" s="59" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="191"/>
-      <c r="B93" s="18" t="s">
+      <c r="A93" s="133"/>
+      <c r="B93" s="45" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="42" t="s">
+      <c r="C93" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="D93" s="40" t="s">
+      <c r="D93" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F93" s="41" t="s">
+      <c r="F93" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="G93" s="53" t="s">
+      <c r="G93" s="35" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="191"/>
-      <c r="B94" s="21" t="s">
+      <c r="A94" s="133"/>
+      <c r="B94" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="C94" s="86" t="s">
+      <c r="C94" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D94" s="87" t="s">
+      <c r="D94" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="E94" s="87" t="s">
+      <c r="E94" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="F94" s="88" t="s">
+      <c r="F94" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="G94" s="89" t="s">
+      <c r="G94" s="59" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A95" s="191"/>
-      <c r="B95" s="18" t="s">
+      <c r="A95" s="133"/>
+      <c r="B95" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="D95" s="40" t="s">
+      <c r="D95" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="40" t="s">
+      <c r="E95" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="F95" s="41" t="s">
+      <c r="F95" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="G95" s="53" t="s">
+      <c r="G95" s="35" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="191"/>
-      <c r="B96" s="21" t="s">
+      <c r="A96" s="133"/>
+      <c r="B96" s="99" t="s">
         <v>270</v>
       </c>
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D96" s="87" t="s">
+      <c r="D96" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="87" t="s">
+      <c r="E96" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="F96" s="88" t="s">
+      <c r="F96" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="G96" s="89" t="s">
+      <c r="G96" s="59" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="191"/>
-      <c r="B97" s="18" t="s">
+      <c r="A97" s="133"/>
+      <c r="B97" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="C97" s="42" t="s">
+      <c r="C97" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D97" s="40" t="s">
+      <c r="D97" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="E97" s="40" t="s">
+      <c r="E97" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="F97" s="41" t="s">
+      <c r="F97" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="G97" s="53" t="s">
+      <c r="G97" s="35" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="191"/>
-      <c r="B98" s="21" t="s">
+      <c r="A98" s="133"/>
+      <c r="B98" s="99" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="86" t="s">
+      <c r="C98" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D98" s="87" t="s">
+      <c r="D98" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="E98" s="87" t="s">
+      <c r="E98" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="F98" s="88" t="s">
+      <c r="F98" s="58" t="s">
         <v>331</v>
       </c>
-      <c r="G98" s="89" t="s">
+      <c r="G98" s="59" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="191"/>
-      <c r="B99" s="18" t="s">
+      <c r="A99" s="133"/>
+      <c r="B99" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D99" s="40" t="s">
+      <c r="D99" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="E99" s="40" t="s">
+      <c r="E99" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="F99" s="41" t="s">
+      <c r="F99" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="G99" s="53" t="s">
+      <c r="G99" s="35" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="191"/>
-      <c r="B100" s="21" t="s">
+      <c r="A100" s="133"/>
+      <c r="B100" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="C100" s="86" t="s">
+      <c r="C100" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D100" s="87" t="s">
+      <c r="D100" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="E100" s="87" t="s">
+      <c r="E100" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="F100" s="88" t="s">
+      <c r="F100" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="G100" s="89" t="s">
+      <c r="G100" s="59" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="191"/>
-      <c r="B101" s="18" t="s">
+      <c r="A101" s="133"/>
+      <c r="B101" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="C101" s="42" t="s">
+      <c r="C101" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="D101" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="E101" s="40" t="s">
+      <c r="E101" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="F101" s="41" t="s">
+      <c r="F101" s="26" t="s">
         <v>341</v>
       </c>
-      <c r="G101" s="53" t="s">
+      <c r="G101" s="35" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="191"/>
-      <c r="B102" s="21" t="s">
+      <c r="A102" s="133"/>
+      <c r="B102" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="C102" s="86" t="s">
+      <c r="C102" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D102" s="87" t="s">
+      <c r="D102" s="57" t="s">
         <v>342</v>
       </c>
-      <c r="E102" s="87" t="s">
+      <c r="E102" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="F102" s="88" t="s">
+      <c r="F102" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="G102" s="89" t="s">
+      <c r="G102" s="59" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A103" s="191"/>
-      <c r="B103" s="18" t="s">
+      <c r="A103" s="133"/>
+      <c r="B103" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="C103" s="42" t="s">
+      <c r="C103" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D103" s="40" t="s">
+      <c r="D103" s="25" t="s">
         <v>346</v>
       </c>
-      <c r="E103" s="40" t="s">
+      <c r="E103" s="25" t="s">
         <v>347</v>
       </c>
-      <c r="F103" s="41" t="s">
+      <c r="F103" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="G103" s="53" t="s">
+      <c r="G103" s="35" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="191"/>
-      <c r="B104" s="21" t="s">
+      <c r="A104" s="133"/>
+      <c r="B104" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="C104" s="86" t="s">
+      <c r="C104" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="D104" s="87" t="s">
+      <c r="D104" s="57" t="s">
         <v>355</v>
       </c>
-      <c r="E104" s="87" t="s">
+      <c r="E104" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="F104" s="88" t="s">
+      <c r="F104" s="58" t="s">
         <v>353</v>
       </c>
-      <c r="G104" s="89" t="s">
+      <c r="G104" s="59" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="191"/>
-      <c r="B105" s="18" t="s">
+      <c r="A105" s="133"/>
+      <c r="B105" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="C105" s="42" t="s">
+      <c r="C105" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="D105" s="40" t="s">
+      <c r="D105" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="E105" s="40" t="s">
+      <c r="E105" s="25" t="s">
         <v>356</v>
       </c>
-      <c r="F105" s="41" t="s">
+      <c r="F105" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="G105" s="53" t="s">
+      <c r="G105" s="35" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="191"/>
-      <c r="B106" s="21" t="s">
+      <c r="A106" s="133"/>
+      <c r="B106" s="99" t="s">
         <v>280</v>
       </c>
-      <c r="C106" s="86" t="s">
+      <c r="C106" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="D106" s="87" t="s">
+      <c r="D106" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="E106" s="87" t="s">
+      <c r="E106" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="F106" s="88" t="s">
+      <c r="F106" s="58" t="s">
         <v>363</v>
       </c>
-      <c r="G106" s="89" t="s">
+      <c r="G106" s="59" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="191"/>
-      <c r="B107" s="18" t="s">
+      <c r="A107" s="133"/>
+      <c r="B107" s="45" t="s">
         <v>281</v>
       </c>
-      <c r="C107" s="42" t="s">
+      <c r="C107" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="D107" s="40" t="s">
+      <c r="D107" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="E107" s="40" t="s">
+      <c r="E107" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="F107" s="41" t="s">
+      <c r="F107" s="26" t="s">
         <v>367</v>
       </c>
-      <c r="G107" s="53" t="s">
+      <c r="G107" s="35" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="191"/>
-      <c r="B108" s="91" t="s">
+      <c r="A108" s="133"/>
+      <c r="B108" s="104" t="s">
         <v>282</v>
       </c>
-      <c r="C108" s="92" t="s">
+      <c r="C108" s="116" t="s">
         <v>371</v>
       </c>
-      <c r="D108" s="93" t="s">
+      <c r="D108" s="60" t="s">
         <v>372</v>
       </c>
-      <c r="E108" s="93" t="s">
+      <c r="E108" s="60" t="s">
         <v>370</v>
       </c>
-      <c r="F108" s="94" t="s">
+      <c r="F108" s="61" t="s">
         <v>369</v>
       </c>
-      <c r="G108" s="95" t="s">
+      <c r="G108" s="62" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A109" s="113" t="s">
+      <c r="A109" s="129" t="s">
         <v>374</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="42" t="s">
         <v>386</v>
       </c>
-      <c r="D109" s="36" t="s">
+      <c r="D109" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="E109" s="36" t="s">
+      <c r="E109" s="23" t="s">
         <v>384</v>
       </c>
-      <c r="F109" s="72" t="s">
+      <c r="F109" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="G109" s="52" t="s">
+      <c r="G109" s="34" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="114"/>
-      <c r="B110" s="80" t="s">
+      <c r="A110" s="130"/>
+      <c r="B110" s="97" t="s">
         <v>376</v>
       </c>
-      <c r="C110" s="47" t="s">
+      <c r="C110" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D110" s="45" t="s">
+      <c r="D110" s="27" t="s">
         <v>390</v>
       </c>
-      <c r="E110" s="45" t="s">
+      <c r="E110" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="F110" s="46" t="s">
+      <c r="F110" s="28" t="s">
         <v>387</v>
       </c>
-      <c r="G110" s="50" t="s">
+      <c r="G110" s="32" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="114"/>
-      <c r="B111" s="18" t="s">
+      <c r="A111" s="130"/>
+      <c r="B111" s="45" t="s">
         <v>377</v>
       </c>
-      <c r="C111" s="42" t="s">
+      <c r="C111" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="D111" s="40" t="s">
+      <c r="D111" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="E111" s="40" t="s">
+      <c r="E111" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="F111" s="41" t="s">
+      <c r="F111" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="G111" s="53" t="s">
+      <c r="G111" s="35" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="114"/>
-      <c r="B112" s="19" t="s">
+      <c r="A112" s="130"/>
+      <c r="B112" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="C112" s="96" t="s">
+      <c r="C112" s="63" t="s">
         <v>409</v>
       </c>
-      <c r="D112" s="45" t="s">
+      <c r="D112" s="27" t="s">
         <v>411</v>
       </c>
-      <c r="E112" s="45" t="s">
+      <c r="E112" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="F112" s="46" t="s">
+      <c r="F112" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="G112" s="50" t="s">
+      <c r="G112" s="32" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="114"/>
-      <c r="B113" s="18" t="s">
+      <c r="A113" s="130"/>
+      <c r="B113" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="C113" s="42" t="s">
+      <c r="C113" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="D113" s="40" t="s">
+      <c r="D113" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="E113" s="40" t="s">
+      <c r="E113" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="F113" s="41" t="s">
+      <c r="F113" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="G113" s="53" t="s">
+      <c r="G113" s="35" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="114"/>
-      <c r="B114" s="19" t="s">
+      <c r="A114" s="130"/>
+      <c r="B114" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="C114" s="47" t="s">
+      <c r="C114" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="D114" s="45" t="s">
+      <c r="D114" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="E114" s="45" t="s">
+      <c r="E114" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="F114" s="46" t="s">
+      <c r="F114" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="G114" s="50" t="s">
+      <c r="G114" s="32" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="115"/>
-      <c r="B115" s="90" t="s">
+      <c r="A115" s="131"/>
+      <c r="B115" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="C115" s="97" t="s">
+      <c r="C115" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="D115" s="77" t="s">
+      <c r="D115" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="E115" s="77" t="s">
+      <c r="E115" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="F115" s="78" t="s">
+      <c r="F115" s="52" t="s">
         <v>407</v>
       </c>
-      <c r="G115" s="79" t="s">
+      <c r="G115" s="53" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="101" t="s">
+      <c r="A116" s="119" t="s">
         <v>415</v>
       </c>
-      <c r="B116" s="98" t="s">
+      <c r="B116" s="105" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="82" t="s">
+      <c r="C116" s="115" t="s">
         <v>424</v>
       </c>
-      <c r="D116" s="83" t="s">
+      <c r="D116" s="54" t="s">
         <v>427</v>
       </c>
-      <c r="E116" s="83" t="s">
+      <c r="E116" s="54" t="s">
         <v>428</v>
       </c>
-      <c r="F116" s="84" t="s">
+      <c r="F116" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="G116" s="85" t="s">
+      <c r="G116" s="56" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A117" s="102"/>
-      <c r="B117" s="38" t="s">
+      <c r="A117" s="120"/>
+      <c r="B117" s="101" t="s">
         <v>417</v>
       </c>
-      <c r="C117" s="42" t="s">
+      <c r="C117" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="D117" s="40" t="s">
+      <c r="D117" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="E117" s="40" t="s">
+      <c r="E117" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="F117" s="41" t="s">
+      <c r="F117" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="G117" s="53" t="s">
+      <c r="G117" s="35" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A118" s="102"/>
-      <c r="B118" s="99" t="s">
+      <c r="A118" s="120"/>
+      <c r="B118" s="106" t="s">
         <v>418</v>
       </c>
-      <c r="C118" s="86" t="s">
+      <c r="C118" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="D118" s="87" t="s">
+      <c r="D118" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="E118" s="87" t="s">
+      <c r="E118" s="57" t="s">
         <v>435</v>
       </c>
-      <c r="F118" s="88" t="s">
+      <c r="F118" s="58" t="s">
         <v>438</v>
       </c>
-      <c r="G118" s="89" t="s">
+      <c r="G118" s="59" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="102"/>
-      <c r="B119" s="38" t="s">
+      <c r="A119" s="120"/>
+      <c r="B119" s="101" t="s">
         <v>419</v>
       </c>
-      <c r="C119" s="42" t="s">
+      <c r="C119" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="D119" s="40" t="s">
+      <c r="D119" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="E119" s="40" t="s">
+      <c r="E119" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="F119" s="41" t="s">
+      <c r="F119" s="26" t="s">
         <v>437</v>
       </c>
-      <c r="G119" s="53" t="s">
+      <c r="G119" s="35" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A120" s="102"/>
-      <c r="B120" s="99" t="s">
+      <c r="A120" s="120"/>
+      <c r="B120" s="106" t="s">
         <v>420</v>
       </c>
-      <c r="C120" s="86" t="s">
+      <c r="C120" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="D120" s="87" t="s">
+      <c r="D120" s="57" t="s">
         <v>445</v>
       </c>
-      <c r="E120" s="87" t="s">
+      <c r="E120" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="F120" s="88" t="s">
+      <c r="F120" s="58" t="s">
         <v>446</v>
       </c>
-      <c r="G120" s="89" t="s">
+      <c r="G120" s="59" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A121" s="102"/>
-      <c r="B121" s="38" t="s">
+      <c r="A121" s="120"/>
+      <c r="B121" s="101" t="s">
         <v>421</v>
       </c>
-      <c r="C121" s="42" t="s">
+      <c r="C121" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="D121" s="40" t="s">
+      <c r="D121" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="E121" s="40" t="s">
+      <c r="E121" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="F121" s="41" t="s">
+      <c r="F121" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="G121" s="53" t="s">
+      <c r="G121" s="35" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A122" s="102"/>
-      <c r="B122" s="99" t="s">
+      <c r="A122" s="120"/>
+      <c r="B122" s="106" t="s">
         <v>422</v>
       </c>
-      <c r="C122" s="86" t="s">
+      <c r="C122" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="D122" s="87" t="s">
+      <c r="D122" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="E122" s="87" t="s">
+      <c r="E122" s="57" t="s">
         <v>454</v>
       </c>
-      <c r="F122" s="88" t="s">
+      <c r="F122" s="58" t="s">
         <v>456</v>
       </c>
-      <c r="G122" s="89" t="s">
+      <c r="G122" s="59" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="179"/>
-      <c r="B123" s="180" t="s">
+      <c r="A123" s="121"/>
+      <c r="B123" s="107" t="s">
         <v>423</v>
       </c>
-      <c r="C123" s="97" t="s">
+      <c r="C123" s="65" t="s">
         <v>448</v>
       </c>
-      <c r="D123" s="77" t="s">
+      <c r="D123" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="E123" s="77" t="s">
+      <c r="E123" s="51" t="s">
         <v>450</v>
       </c>
-      <c r="F123" s="78" t="s">
+      <c r="F123" s="52" t="s">
         <v>457</v>
       </c>
-      <c r="G123" s="79" t="s">
+      <c r="G123" s="53" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="103" t="s">
+      <c r="A124" s="119" t="s">
         <v>460</v>
       </c>
-      <c r="B124" s="181" t="s">
+      <c r="B124" s="108" t="s">
         <v>461</v>
       </c>
-      <c r="C124" s="182"/>
-      <c r="D124" s="183"/>
-      <c r="E124" s="183"/>
-      <c r="F124" s="184" t="s">
-        <v>468</v>
-      </c>
-      <c r="G124" s="184"/>
+      <c r="C124" s="117" t="s">
+        <v>503</v>
+      </c>
+      <c r="D124" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="E124" s="66" t="s">
+        <v>500</v>
+      </c>
+      <c r="F124" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="G124" s="93" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="104"/>
-      <c r="B125" s="186" t="s">
+      <c r="A125" s="120"/>
+      <c r="B125" s="109" t="s">
         <v>462</v>
       </c>
-      <c r="C125" s="187"/>
-      <c r="D125" s="188"/>
-      <c r="E125" s="188"/>
-      <c r="F125" s="189" t="s">
-        <v>469</v>
-      </c>
-      <c r="G125" s="189"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="104"/>
-      <c r="B126" s="43" t="s">
+      <c r="C125" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="D125" s="68" t="s">
+        <v>505</v>
+      </c>
+      <c r="E125" s="68" t="s">
+        <v>506</v>
+      </c>
+      <c r="F125" s="69" t="s">
+        <v>507</v>
+      </c>
+      <c r="G125" s="94" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="120"/>
+      <c r="B126" s="95" t="s">
         <v>463</v>
       </c>
-      <c r="C126" s="47"/>
-      <c r="D126" s="45"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="46"/>
-      <c r="G126" s="46"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="104"/>
-      <c r="B127" s="186" t="s">
+      <c r="C126" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D126" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="120"/>
+      <c r="B127" s="109" t="s">
         <v>464</v>
       </c>
-      <c r="C127" s="187"/>
-      <c r="D127" s="188"/>
-      <c r="E127" s="188"/>
-      <c r="F127" s="189"/>
-      <c r="G127" s="189"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="104"/>
-      <c r="B128" s="43" t="s">
+      <c r="C127" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D127" s="68" t="s">
+        <v>519</v>
+      </c>
+      <c r="E127" s="68" t="s">
+        <v>511</v>
+      </c>
+      <c r="F127" s="69" t="s">
+        <v>520</v>
+      </c>
+      <c r="G127" s="94" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="120"/>
+      <c r="B128" s="95" t="s">
         <v>466</v>
       </c>
-      <c r="C128" s="47"/>
-      <c r="D128" s="45"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="104"/>
-      <c r="B129" s="186" t="s">
+      <c r="C128" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D128" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="G128" s="32" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="120"/>
+      <c r="B129" s="109" t="s">
         <v>467</v>
       </c>
-      <c r="C129" s="187"/>
-      <c r="D129" s="188"/>
-      <c r="E129" s="188"/>
-      <c r="F129" s="189"/>
-      <c r="G129" s="189"/>
-    </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="116"/>
-      <c r="B130" s="185" t="s">
+      <c r="C129" s="118" t="s">
+        <v>522</v>
+      </c>
+      <c r="D129" s="68" t="s">
+        <v>523</v>
+      </c>
+      <c r="E129" s="68" t="s">
+        <v>506</v>
+      </c>
+      <c r="F129" s="69" t="s">
+        <v>524</v>
+      </c>
+      <c r="G129" s="94" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="121"/>
+      <c r="B130" s="102" t="s">
         <v>465</v>
       </c>
-      <c r="C130" s="96"/>
-      <c r="D130" s="100"/>
-      <c r="E130" s="100"/>
-      <c r="F130" s="48"/>
-      <c r="G130" s="48"/>
+      <c r="C130" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="D130" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="E130" s="202" t="s">
+        <v>511</v>
+      </c>
+      <c r="F130" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="G130" s="41" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="203" t="s">
+        <v>535</v>
+      </c>
+      <c r="B131" s="206" t="s">
+        <v>525</v>
+      </c>
+      <c r="C131" s="207" t="s">
+        <v>537</v>
+      </c>
+      <c r="D131" s="111" t="s">
+        <v>538</v>
+      </c>
+      <c r="E131" s="111" t="s">
+        <v>539</v>
+      </c>
+      <c r="F131" s="208" t="s">
+        <v>540</v>
+      </c>
+      <c r="G131" s="209" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A132" s="204"/>
+      <c r="B132" s="212" t="s">
+        <v>526</v>
+      </c>
+      <c r="C132" s="213" t="s">
+        <v>541</v>
+      </c>
+      <c r="D132" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="E132" s="57" t="s">
+        <v>544</v>
+      </c>
+      <c r="F132" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="G132" s="59" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="204"/>
+      <c r="B133" s="210" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133" s="211" t="s">
+        <v>547</v>
+      </c>
+      <c r="D133" s="68" t="s">
+        <v>548</v>
+      </c>
+      <c r="E133" s="68" t="s">
+        <v>549</v>
+      </c>
+      <c r="F133" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="G133" s="94" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="204"/>
+      <c r="B134" s="212" t="s">
+        <v>528</v>
+      </c>
+      <c r="C134" s="213" t="s">
+        <v>551</v>
+      </c>
+      <c r="D134" s="57" t="s">
+        <v>550</v>
+      </c>
+      <c r="E134" s="57" t="s">
+        <v>553</v>
+      </c>
+      <c r="F134" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="G134" s="59" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="204"/>
+      <c r="B135" s="210" t="s">
+        <v>529</v>
+      </c>
+      <c r="C135" s="211" t="s">
+        <v>556</v>
+      </c>
+      <c r="D135" s="68" t="s">
+        <v>557</v>
+      </c>
+      <c r="E135" s="68" t="s">
+        <v>558</v>
+      </c>
+      <c r="F135" s="69" t="s">
+        <v>565</v>
+      </c>
+      <c r="G135" s="94" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="204"/>
+      <c r="B136" s="212" t="s">
+        <v>530</v>
+      </c>
+      <c r="C136" s="213" t="s">
+        <v>559</v>
+      </c>
+      <c r="D136" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="E136" s="57" t="s">
+        <v>561</v>
+      </c>
+      <c r="F136" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="G136" s="59" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A137" s="204"/>
+      <c r="B137" s="210" t="s">
+        <v>531</v>
+      </c>
+      <c r="C137" s="211" t="s">
+        <v>567</v>
+      </c>
+      <c r="D137" s="68" t="s">
+        <v>566</v>
+      </c>
+      <c r="E137" s="68" t="s">
+        <v>568</v>
+      </c>
+      <c r="F137" s="69" t="s">
+        <v>569</v>
+      </c>
+      <c r="G137" s="94" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="204"/>
+      <c r="B138" s="212" t="s">
+        <v>532</v>
+      </c>
+      <c r="C138" s="213" t="s">
+        <v>571</v>
+      </c>
+      <c r="D138" s="57" t="s">
+        <v>575</v>
+      </c>
+      <c r="E138" s="57" t="s">
+        <v>574</v>
+      </c>
+      <c r="F138" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="G138" s="59" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A139" s="204"/>
+      <c r="B139" s="210" t="s">
+        <v>533</v>
+      </c>
+      <c r="C139" s="211" t="s">
+        <v>578</v>
+      </c>
+      <c r="D139" s="68" t="s">
+        <v>579</v>
+      </c>
+      <c r="E139" s="68" t="s">
+        <v>580</v>
+      </c>
+      <c r="F139" s="69" t="s">
+        <v>576</v>
+      </c>
+      <c r="G139" s="94" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="205"/>
+      <c r="B140" s="214" t="s">
+        <v>534</v>
+      </c>
+      <c r="C140" s="215" t="s">
+        <v>585</v>
+      </c>
+      <c r="D140" s="216" t="s">
+        <v>584</v>
+      </c>
+      <c r="E140" s="216" t="s">
+        <v>581</v>
+      </c>
+      <c r="F140" s="217" t="s">
+        <v>583</v>
+      </c>
+      <c r="G140" s="218" t="s">
+        <v>582</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="64">
+    <mergeCell ref="A131:A140"/>
     <mergeCell ref="A124:A130"/>
     <mergeCell ref="A59:A68"/>
     <mergeCell ref="F50:F58"/>
@@ -5656,9 +6311,26 @@
     <hyperlink ref="G121" r:id="rId74" location="L109" xr:uid="{FED95FC2-CDCC-44EC-BD1B-436544254C59}"/>
     <hyperlink ref="G122" r:id="rId75" location="L66" xr:uid="{138045F9-41E1-4E3B-B191-777BEB42D922}"/>
     <hyperlink ref="G123" r:id="rId76" location="L60" xr:uid="{59C06E23-9121-4645-8FD0-31CC6C9006A3}"/>
+    <hyperlink ref="G124" r:id="rId77" location="L113" xr:uid="{ABF714FF-0DEB-448A-B745-5BD996C271E4}"/>
+    <hyperlink ref="G125" r:id="rId78" location="L47" xr:uid="{FED6409C-C6E6-4A98-BD8D-AD02B502F94E}"/>
+    <hyperlink ref="G126" r:id="rId79" location="L72" xr:uid="{F53B75D8-3CD4-4425-9365-6F719CDD40C5}"/>
+    <hyperlink ref="G130" r:id="rId80" location="L15" xr:uid="{44C99AFC-CF36-43E5-88E0-A8AAF6C95A02}"/>
+    <hyperlink ref="G128" r:id="rId81" location="L52" xr:uid="{2BF12171-7E1D-4A06-BCBA-2138726C42FE}"/>
+    <hyperlink ref="G127" r:id="rId82" location="L105" xr:uid="{DCD815E6-738F-46B5-9034-08D72C515A13}"/>
+    <hyperlink ref="G129" r:id="rId83" location="L19" xr:uid="{3B08DCB3-CA15-4E16-9634-784728036B66}"/>
+    <hyperlink ref="G131" r:id="rId84" location="L8" xr:uid="{1DE2F5E9-172A-4747-80A9-862772694D1E}"/>
+    <hyperlink ref="G132" r:id="rId85" location="L23" xr:uid="{797D3A3F-9A60-46E2-99C6-911AA773FF20}"/>
+    <hyperlink ref="G133" r:id="rId86" xr:uid="{3B8E8795-8E7F-4D19-9927-5793F49AE319}"/>
+    <hyperlink ref="G134" r:id="rId87" location="L31" xr:uid="{56A620D8-FC0D-4C2F-8658-B1135C821A4B}"/>
+    <hyperlink ref="G136" r:id="rId88" location="L48" xr:uid="{81A8B19F-CC52-4EA3-8026-5645D887454D}"/>
+    <hyperlink ref="G135" r:id="rId89" location="L83" xr:uid="{DA13F89B-C8AB-408F-B1C7-4F436F049804}"/>
+    <hyperlink ref="G137" r:id="rId90" location="L14" xr:uid="{2E237080-7E70-40ED-BA8F-014B41B0B28E}"/>
+    <hyperlink ref="G138" r:id="rId91" location="L18" xr:uid="{30E51DD2-0817-4A4E-B8C4-5084D5FBFFE2}"/>
+    <hyperlink ref="G139" r:id="rId92" xr:uid="{65E4F485-F4F0-4136-B420-9602453C2FE3}"/>
+    <hyperlink ref="G140" r:id="rId93" xr:uid="{4FEAAB82-391A-459C-AF24-03F6B433A0C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId77"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
 </worksheet>
 </file>
 
@@ -5666,165 +6338,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC374DC0-6B38-44DC-990C-3E2EEBDDFA20}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="3" width="37.44140625" style="192" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="206" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="206" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="206" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" style="206" customWidth="1"/>
-    <col min="8" max="8" width="65" style="206" customWidth="1"/>
+    <col min="2" max="3" width="37.44140625" style="71" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" style="85" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="85" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" style="85" customWidth="1"/>
+    <col min="8" max="8" width="65" style="85" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="139"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="154"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="140"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="142"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="195" t="s">
+      <c r="C3" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="70" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="196" t="s">
-        <v>319</v>
-      </c>
-      <c r="E3" s="194" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="196" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="196" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="214" t="s">
+      <c r="D4" s="81" t="s">
+        <v>476</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>477</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>478</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>479</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="120"/>
+      <c r="B5" s="78" t="s">
+        <v>481</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>485</v>
+      </c>
+      <c r="G5" s="89" t="s">
+        <v>486</v>
+      </c>
+      <c r="H5" s="90" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="120"/>
+      <c r="B6" s="79" t="s">
+        <v>468</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>488</v>
+      </c>
+      <c r="E6" s="83" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6" s="87" t="s">
+        <v>489</v>
+      </c>
+      <c r="G6" s="91" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="198" t="s">
-        <v>476</v>
-      </c>
-      <c r="C4" s="197" t="s">
-        <v>477</v>
-      </c>
-      <c r="D4" s="202" t="s">
-        <v>478</v>
-      </c>
-      <c r="E4" s="202" t="s">
-        <v>479</v>
-      </c>
-      <c r="F4" s="202" t="s">
-        <v>480</v>
-      </c>
-      <c r="G4" s="209" t="s">
-        <v>481</v>
-      </c>
-      <c r="H4" s="209" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="104"/>
-      <c r="B5" s="199" t="s">
-        <v>483</v>
-      </c>
-      <c r="C5" s="199" t="s">
-        <v>485</v>
-      </c>
-      <c r="D5" s="203" t="s">
-        <v>484</v>
-      </c>
-      <c r="E5" s="203" t="s">
-        <v>486</v>
-      </c>
-      <c r="F5" s="203" t="s">
-        <v>487</v>
-      </c>
-      <c r="G5" s="210" t="s">
-        <v>488</v>
-      </c>
-      <c r="H5" s="211" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="104"/>
-      <c r="B6" s="200" t="s">
-        <v>470</v>
-      </c>
-      <c r="C6" s="200" t="s">
+      <c r="H6" s="91" t="s">
         <v>471</v>
       </c>
-      <c r="D6" s="204" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="134"/>
+      <c r="B7" s="80" t="s">
         <v>490</v>
       </c>
-      <c r="E6" s="204" t="s">
-        <v>489</v>
-      </c>
-      <c r="F6" s="208" t="s">
+      <c r="C7" s="80" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" s="84" t="s">
         <v>491</v>
       </c>
-      <c r="G6" s="212" t="s">
-        <v>474</v>
-      </c>
-      <c r="H6" s="212" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="116"/>
-      <c r="B7" s="201" t="s">
+      <c r="E7" s="86" t="s">
+        <v>495</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>496</v>
+      </c>
+      <c r="G7" s="92" t="s">
         <v>492</v>
       </c>
-      <c r="C7" s="201" t="s">
-        <v>495</v>
-      </c>
-      <c r="D7" s="205" t="s">
-        <v>493</v>
-      </c>
-      <c r="E7" s="207" t="s">
-        <v>497</v>
-      </c>
-      <c r="F7" s="205" t="s">
-        <v>498</v>
-      </c>
-      <c r="G7" s="213" t="s">
+      <c r="H7" s="92" t="s">
         <v>494</v>
-      </c>
-      <c r="H7" s="213" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/EIS_TOOL.xlsx
+++ b/EIS_TOOL.xlsx
@@ -1,43 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BEAK_Arbeit\EIS_TOOLKIT_FUNCTIONS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF43A4D8-A17C-4218-A885-AE63FDAD0564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C5D5763F-541F-4E53-AD9E-96294ACC5C82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TOOLKIT Funktionen" sheetId="1" r:id="rId1"/>
     <sheet name="Fehlende Funktionen" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="757">
   <si>
     <t>EIS_TOOLKIT</t>
   </si>
@@ -1986,12 +1974,527 @@
   <si>
     <t>vector_density.py</t>
   </si>
+  <si>
+    <t>basic_plots_seaborn.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from seaborn import barplot, boxplot, ecdfplot, heatmap 
+from seaborn import histplot as histogram  
+from seaborn import kdeplot, lineplot, pairplot, regplot, scatterplot </t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/exploratory_analyses/basic_plots_seaborn.py</t>
+  </si>
+  <si>
+    <t>correlation_matrix.py</t>
+  </si>
+  <si>
+    <t>eis_toolkit/cli.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/exploratory_analyses/correlation_matrix.py#L13</t>
+  </si>
+  <si>
+    <t>Berechne die Korrelationsmatrix für die Eingabedaten.</t>
+  </si>
+  <si>
+    <t>numpy, pandas, eis_toolkit.utilities.checks.dataframe -&gt; check_empty_dataframe, eis_toolkit.exceptions -&gt; EmptyDataFrameException, InvalidParameterValueException, NonNumericDataException</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L502</t>
+  </si>
+  <si>
+    <t>correlation_matrix, check_empty_dataframe</t>
+  </si>
+  <si>
+    <t>plot_correlation_matrix</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/tests/exploratory_analyses/correlation_matrix_test.py#L64</t>
+  </si>
+  <si>
+    <t>correlation_matrix_test.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/exploratory_analyses/correlation_matrix.py#L63</t>
+  </si>
+  <si>
+    <t>numpy, pandas, seaborn,  eis_toolkit.exceptions -&gt; EmptyDataFrameException</t>
+  </si>
+  <si>
+    <t>Erstelle eine Seaborn-Wärmekarte, um die Korrelationsmatrix zu visualisieren.</t>
+  </si>
+  <si>
+    <t>Berechne die Covariance matrix für die Eingabedaten.</t>
+  </si>
+  <si>
+    <t>covariance_matrix.py</t>
+  </si>
+  <si>
+    <t>covariance_matrix</t>
+  </si>
+  <si>
+    <t>numpy, pandas, eis_toolkit.exceptions -&gt; EmptyDataFrameException, InvalidParameterValueException, NonNumericDataException, eis_toolkit.utilities.checks.dataframe -&gt; check_empty_dataframe</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/exploratory_analyses/covariance_matrix.py#L11</t>
+  </si>
+  <si>
+    <t>covariance_matrix_cli</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L532</t>
+  </si>
+  <si>
+    <t>plot_utils.py</t>
+  </si>
+  <si>
+    <t>get_default_palette</t>
+  </si>
+  <si>
+    <t>Hole die Standardpalette basierend auf dem Datentyp.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/exploratory_analyses/plot_utils.py</t>
+  </si>
+  <si>
+    <t>conversions</t>
+  </si>
+  <si>
+    <t>csv_to_geodataframe.py</t>
+  </si>
+  <si>
+    <t>raster_to_dataframe.py</t>
+  </si>
+  <si>
+    <t>CSV-Datei in ein GeoDataFrame einlesen</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/conversions/csv_to_geodataframe.py#L80</t>
+  </si>
+  <si>
+    <t>csv_to_geodataframe, _csv_to_geodataframe</t>
+  </si>
+  <si>
+    <t>csv, pathlib, geopandas, eis_tookit.exceptions -&gt; IncalidColumnIndexException, IncalidParameterValueException, InvalidWktformatException</t>
+  </si>
+  <si>
+    <t>raster_to_dataframe, _raster_to_dataframe</t>
+  </si>
+  <si>
+    <t>numpy, pandas, eis_toolkit.exceptions -&gt; InvalidRasterBandException, eis_toolkit.utilities.check.raster -&gt; check_raster_bands</t>
+  </si>
+  <si>
+    <t>Raster in ein Pandas DataFrame umwandeln</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/conversions/raster_to_dataframe.py#L41</t>
+  </si>
+  <si>
+    <t>prediction</t>
+  </si>
+  <si>
+    <t>machine_learning_general.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save_model, load_model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">split_data, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reshape_predictions, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepare_data_for_ml, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_read_and_stack_feature_raster, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">read_data_for_evaluation, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">_train_and_validate_sklearn_model, </t>
+  </si>
+  <si>
+    <t>_get_cross_validator</t>
+  </si>
+  <si>
+    <t>Speichern Sie ein trainiertes Sklearn-Modell in einer .joblib-Datei und laden Sie ein Sklearn-Modell aus einer .joblib-Datei.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/prediction/machine_learning_general.py</t>
+  </si>
+  <si>
+    <t>classifier_test_cli</t>
+  </si>
+  <si>
+    <t>logistic_regression_train_cli</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L2396</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/machine_learning_general.py#L156</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L3734</t>
+  </si>
+  <si>
+    <t>summarize_label_metrics_binary_cli</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/logistic_regression.py#L8</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/random_forests.py#L8</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/gradient_boosting.py#L10</t>
+  </si>
+  <si>
+    <t>_train_and_validate_sklearn_model</t>
+  </si>
+  <si>
+    <t>keras, pathlib, geopandas, joblib, numpy, pandas, rasterio, scipy, sklearn.base, sklearn.model_selection, eis_toolkit.evaluation.scoring -&gt; score_predictions, eis_toolkit.exceptions -&gt; InvalidDatasetException, InvalidParameterValueException, NonMatchingParameterLengthsException, NonMatchingRasterMetadataException,</t>
+  </si>
+  <si>
+    <t>Teile die Daten in zwei Teile. Kann für Trainings-Test- oder Trainings-Validierungsaufteilungen verwendet werden.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/machine_learning_general.py#L61</t>
+  </si>
+  <si>
+    <t>machine_learning_general_test.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/tests/prediction/machine_learning_general_test.py#L15</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L2808</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/machine_learning_general.py#L96</t>
+  </si>
+  <si>
+    <t>Forme 1D Vorhersageergebnisse in ein 2D Numpy-Array um.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/machine_learning_general.py#L124</t>
+  </si>
+  <si>
+    <t>Bereite die Daten für das Training eines Machine-Learning-Modells vor</t>
+  </si>
+  <si>
+    <t>Lese alle Bänder der Rasterdatei mit Merkmals-/Beweisdaten in einem Stack</t>
+  </si>
+  <si>
+    <t>Bereite die Daten für die Auswertung der Modellergebnisse vor.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/machine_learning_general.py#L229</t>
+  </si>
+  <si>
+    <t>Trainiere und validiere das Sklearn-Modell.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/machine_learning_general.py#L292</t>
+  </si>
+  <si>
+    <t>Erstelle einen Sklearn-Kreuzvalidierer</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/machine_learning_general.py#L397</t>
+  </si>
+  <si>
+    <t>predict_regressor</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L2809</t>
+  </si>
+  <si>
+    <t>testing_classifier_evaluation.ipynb</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/notebooks/testing_classifier_evaluation.ipynb#L30</t>
+  </si>
+  <si>
+    <t>scoring_test.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/tests/evaluation/scoring_test.py#L5</t>
+  </si>
+  <si>
+    <t>Vorhersagen mit einem trainierten Klassifikationsmodell.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/machine_learning_predict.py#L12</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/machine_learning_predict.py#L64</t>
+  </si>
+  <si>
+    <t>Vorhersagen mit einem trainierten Regressionsmodell.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L2858</t>
+  </si>
+  <si>
+    <t>numpy, pandas, sklearn.base, tensorflow, eis_toolkit.exceptions -&gt; InvalidDataShapeException, InvalidModelTypeException</t>
+  </si>
+  <si>
+    <t>raster_processing</t>
+  </si>
+  <si>
+    <t>extract_values_from_raster.py</t>
+  </si>
+  <si>
+    <t>extract_values_from_raster, _extract_values_from_raster</t>
+  </si>
+  <si>
+    <t>geopandas, pandas ,os, rasterio, eis_toolkit.exceptions -&gt; NonMatchingParameterLengthsException</t>
+  </si>
+  <si>
+    <t>Extrahiere Rasterwerte mithilfe von Punktdaten in ein DataFrame.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/extract_values_from_raster.py#L45</t>
+  </si>
+  <si>
+    <t>cli.py, extract_values_from_raster_test.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L1461</t>
+  </si>
+  <si>
+    <t>resampling.py</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, rasterio.enums</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/resampling.py</t>
+  </si>
+  <si>
+    <t>Resample das Raster gemäß der angegebenen Auflösung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cli.py, </t>
+  </si>
+  <si>
+    <t>snap_test.py</t>
+  </si>
+  <si>
+    <t>resample</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/tests/raster_processing/snap_test.py#L9</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L1513</t>
+  </si>
+  <si>
+    <t>snapping.py</t>
+  </si>
+  <si>
+    <t>snap_with_raster, _snap</t>
+  </si>
+  <si>
+    <t>math, numpy, rasterio, eis_toolkit.exceptions -&gt; MatchingRasterGridException, NonMatchingCrsException, eis_toolkit.utilities.checks.raster -&gt; check_matching_crs</t>
+  </si>
+  <si>
+    <t>Richtet das Raster auf das gegebene Snap-Raster aus.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/raster_processing/snapping.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L1546</t>
+  </si>
+  <si>
+    <t>unifying.py</t>
+  </si>
+  <si>
+    <t>unify_raster_grids, _unify_raster_grids,  _mask_nodata, _calculate_snapped_grid</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, rasterio.enums, rasterio.profiles, rasterio -&gt; warp, eis_toolkit.exceptions -&gt; InvalidParameterValueException, eis_toolkit.raster_processing.resampling -&gt; RESAMPLE_METHOD_MAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">masking.py, cli.py, </t>
+  </si>
+  <si>
+    <t>Vereint die gegebenen Raster mit dem Basisraster.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/raster_processing/unifying.py#L128</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/raster_processing/masking.py</t>
+  </si>
+  <si>
+    <t>raster_processing/ derivatives</t>
+  </si>
+  <si>
+    <t>parameters.py</t>
+  </si>
+  <si>
+    <t>first_order, second_order_basic_set, _divide, _first_order, _second_order_basic_set</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, eis_toolkit.exceptions -&gt; InvalidParameterValueException, InvalidRasterBandException, NonSquarePixelSizeException, eis_toolkit.raster_processing.derivatives.partial_derivatives -&gt; _coefficients, eis_toolkit.raster_processing.derivatives.utilities -&gt; _scale_raster, _set_flat_pixels, eis_toolkit.utilities.checks.raster -&gt; check_quadratic_pixels, eis_toolkit.utilities.conversions -&gt; convert_rad_to_deg, convert_rad_to_rise, eis_toolkit.utilities.miscellaneous -&gt; reduce_ndim, eis_toolkit.utilities.nodata -&gt; nan_to_nodata, nodata_to_nan</t>
+  </si>
+  <si>
+    <t>Berechne die ersten Ordnungsoberflächenattribute., Berechne die Oberflächenattribute zweiter Ordnung, Teile zwei Arrays sicher.</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/cli.py#L1689</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/raster_processing/derivatives/parameters.py</t>
+  </si>
+  <si>
+    <t>cli.py, first_order_derivatives_test.py, second_order_derivatives_test.py</t>
+  </si>
+  <si>
+    <t>partial_derivatives.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/raster_processing/derivatives/partial_derivatives.py</t>
+  </si>
+  <si>
+    <t>Berechne die partiellen Ableitungen einer gegebenen Oberfläche mit verschiedenen Methoden.</t>
+  </si>
+  <si>
+    <t>_coefficients_evans, _coefficients, _coefficients_horn, _coefficients_zevenbergen, _coefficients_young</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/derivatives/parameters.py#L13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numpy, scipy, </t>
+  </si>
+  <si>
+    <t>utilities.py</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/raster_processing/derivatives/utilities.py</t>
+  </si>
+  <si>
+    <t>Skaliere Rasterdaten mit einem gegebenen Faktor und Behandlung von Werten unter einem bestimmten Gradienten als flache Oberfläche.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _set_flat_pixels, _scale_raster</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/derivatives/parameters.py#L14</t>
+  </si>
+  <si>
+    <t>numpy, numbers</t>
+  </si>
+  <si>
+    <t>raster_processing/ filters</t>
+  </si>
+  <si>
+    <t>kernels.py</t>
+  </si>
+  <si>
+    <t>_get_kernel_size</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/filters/utilities.py#L10</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/raster_processing/filters/kernels.py</t>
+  </si>
+  <si>
+    <t>_create_grid</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/filters/focal.py#L8</t>
+  </si>
+  <si>
+    <t>_basic_kernel, _gaussian_kernel, _mexican_hat_kernel</t>
+  </si>
+  <si>
+    <t>numpy, scipy.signal -&gt; ricker</t>
+  </si>
+  <si>
+    <t>Berechne die Kerngröße und den Radius basierend auf den gegebenen Parametern.</t>
+  </si>
+  <si>
+    <t>Erstelle ein Koordinatengitter</t>
+  </si>
+  <si>
+    <t>Erzeuge verschiedene Kerne.</t>
+  </si>
+  <si>
+    <t>_apply_generic_filter</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/filters/speckle.py#L7</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/filters/focal.py#L11</t>
+  </si>
+  <si>
+    <t>_apply_correlated_filter</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/raster_processing/filters/focal.py#L10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _check_filter_size</t>
+  </si>
+  <si>
+    <t>_check_inputs</t>
+  </si>
+  <si>
+    <t>focal.py/ speckle.py</t>
+  </si>
+  <si>
+    <t>numpy, rasterio, scipy.ndimage -&gt; correlate, generic_filter, eis_toolkit.exceptions -&gt; InvalidParameterValueException, InvalidRasterBandException, from eis_toolkit.raster_processing.filters.kernels -&gt; _get_kernel_size, from eis_toolkit.utilities.checks.raster -&gt; check_single_band</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/raster_processing/filters/utilities.py</t>
+  </si>
+  <si>
+    <t>Wende einen generischen Filter auf das Eingabearray an</t>
+  </si>
+  <si>
+    <t>Wende einen korrelierten Filter auf das Eingabearray an</t>
+  </si>
+  <si>
+    <t>Überprüfe die Filtergröße und wirf Ausnahmen, wenn sie nicht den Anforderungen entspricht.</t>
+  </si>
+  <si>
+    <t>Überprüfe die Eingaben</t>
+  </si>
+  <si>
+    <t>Training_data_tools</t>
+  </si>
+  <si>
+    <t>class_balancing.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> balance_SMOTETomek</t>
+  </si>
+  <si>
+    <t>Gleicht die Klassen des Eingabedatensatzes unter Verwendung der SMOTETomek-Resampling-Methode aus.</t>
+  </si>
+  <si>
+    <t>numpy, pandas, imblearn.combine -&gt; SMOTETomek</t>
+  </si>
+  <si>
+    <t>https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/training_data_tools/class_balancing.py</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2052,8 +2555,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2102,6 +2617,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="36">
     <border>
@@ -2533,7 +3054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2740,9 +3261,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2768,9 +3286,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2780,15 +3295,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2798,15 +3307,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2884,234 +3387,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3136,55 +3411,488 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3520,58 +4228,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A14118C-3B2E-47A8-AB52-8BB0F98EF7A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" style="200" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="196" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" style="197" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44" style="198" customWidth="1"/>
-    <col min="5" max="5" width="37.77734375" style="198" customWidth="1"/>
-    <col min="6" max="6" width="31" style="199" customWidth="1"/>
-    <col min="7" max="7" width="102.5546875" style="199" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="195"/>
+    <col min="1" max="1" width="18.625" style="118" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.75" style="114" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="115" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44" style="116" customWidth="1"/>
+    <col min="5" max="5" width="37.75" style="116" customWidth="1"/>
+    <col min="6" max="6" width="31" style="117" customWidth="1"/>
+    <col min="7" max="7" width="102.5" style="117" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="113"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:17" ht="21.6" customHeight="1">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="154"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="157"/>
-    </row>
-    <row r="3" spans="1:17" s="200" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="198"/>
+    </row>
+    <row r="2" spans="1:17" thickBot="1">
+      <c r="A2" s="199"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="201"/>
+    </row>
+    <row r="3" spans="1:17" s="118" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="90" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="104" t="s">
         <v>319</v>
       </c>
       <c r="E3" s="12" t="s">
@@ -3584,8 +4292,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+    <row r="4" spans="1:17" ht="71.25">
+      <c r="A4" s="163" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="43" t="s">
@@ -3607,51 +4315,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
-      <c r="B5" s="158" t="s">
+    <row r="5" spans="1:17" ht="14.45" customHeight="1">
+      <c r="A5" s="164"/>
+      <c r="B5" s="202" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="D5" s="208" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="179" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="178" t="s">
+      <c r="G5" s="222" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="165"/>
+    <row r="6" spans="1:17" ht="14.25">
+      <c r="A6" s="164"/>
+      <c r="B6" s="203"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="209"/>
       <c r="E6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="135"/>
-      <c r="G6" s="179"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="120"/>
-      <c r="B7" s="160"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="166"/>
+      <c r="F6" s="179"/>
+      <c r="G6" s="223"/>
+    </row>
+    <row r="7" spans="1:17" ht="14.25">
+      <c r="A7" s="164"/>
+      <c r="B7" s="204"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="135"/>
-      <c r="G7" s="179"/>
-    </row>
-    <row r="8" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
+      <c r="F7" s="179"/>
+      <c r="G7" s="223"/>
+    </row>
+    <row r="8" spans="1:17" ht="28.5">
+      <c r="A8" s="164"/>
       <c r="B8" s="45" t="s">
         <v>21</v>
       </c>
@@ -3671,8 +4379,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
+    <row r="9" spans="1:17" ht="14.25">
+      <c r="A9" s="164"/>
       <c r="B9" s="44" t="s">
         <v>214</v>
       </c>
@@ -3692,8 +4400,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="120"/>
+    <row r="10" spans="1:17" ht="28.5">
+      <c r="A10" s="164"/>
       <c r="B10" s="45" t="s">
         <v>215</v>
       </c>
@@ -3713,362 +4421,362 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="124" t="s">
+    <row r="11" spans="1:17" ht="14.25">
+      <c r="A11" s="164"/>
+      <c r="B11" s="168" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="171" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="201"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="120"/>
-      <c r="B12" s="124"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="127"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+    </row>
+    <row r="12" spans="1:17" ht="14.25">
+      <c r="A12" s="164"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="171"/>
       <c r="E12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="135"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="201"/>
-      <c r="J12" s="201"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="201"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="120"/>
-      <c r="B13" s="124"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="127"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+    </row>
+    <row r="13" spans="1:17" ht="14.25">
+      <c r="A13" s="164"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="135"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="120"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="127"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+    </row>
+    <row r="14" spans="1:17" ht="14.25">
+      <c r="A14" s="164"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="135"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="201"/>
-      <c r="I14" s="201"/>
-      <c r="J14" s="201"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="201"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="120"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="127"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+    </row>
+    <row r="15" spans="1:17" ht="14.25">
+      <c r="A15" s="164"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="135"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="201"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="201"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="120"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="127"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25">
+      <c r="A16" s="164"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="135"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="201"/>
-      <c r="I16" s="201"/>
-      <c r="J16" s="201"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="201"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="120"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="127"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+    </row>
+    <row r="17" spans="1:17" ht="14.25">
+      <c r="A17" s="164"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="135"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="201"/>
-      <c r="I17" s="201"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="201"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="120"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="127"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+    </row>
+    <row r="18" spans="1:17" ht="14.25">
+      <c r="A18" s="164"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="135"/>
-      <c r="G18" s="137"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
-      <c r="O18" s="201"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="201"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="120"/>
-      <c r="B19" s="170" t="s">
+      <c r="F18" s="179"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+    </row>
+    <row r="19" spans="1:17" ht="14.25">
+      <c r="A19" s="164"/>
+      <c r="B19" s="214" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="173" t="s">
+      <c r="C19" s="217" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="167" t="s">
+      <c r="D19" s="211" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="176" t="s">
+      <c r="F19" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="177" t="s">
+      <c r="G19" s="221" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="120"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="168"/>
+    <row r="20" spans="1:17" ht="14.25">
+      <c r="A20" s="164"/>
+      <c r="B20" s="215"/>
+      <c r="C20" s="218"/>
+      <c r="D20" s="212"/>
       <c r="E20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="176"/>
-      <c r="G20" s="177"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="120"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="168"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="221"/>
+    </row>
+    <row r="21" spans="1:17" ht="14.25">
+      <c r="A21" s="164"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="212"/>
       <c r="E21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="176"/>
-      <c r="G21" s="177"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="120"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="169"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="221"/>
+    </row>
+    <row r="22" spans="1:17" ht="14.25">
+      <c r="A22" s="164"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="213"/>
       <c r="E22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="176"/>
-      <c r="G22" s="177"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="120"/>
-      <c r="B23" s="124" t="s">
+      <c r="F22" s="220"/>
+      <c r="G22" s="221"/>
+    </row>
+    <row r="23" spans="1:17" ht="14.45" customHeight="1">
+      <c r="A23" s="164"/>
+      <c r="B23" s="168" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="122" t="s">
+      <c r="C23" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="127" t="s">
+      <c r="D23" s="171" t="s">
         <v>52</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="135" t="s">
+      <c r="F23" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="137" t="s">
+      <c r="G23" s="181" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="120"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="122"/>
-      <c r="D24" s="127"/>
+    <row r="24" spans="1:17" ht="14.25">
+      <c r="A24" s="164"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="171"/>
       <c r="E24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="135"/>
-      <c r="G24" s="137"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="120"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="127"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="181"/>
+    </row>
+    <row r="25" spans="1:17" ht="14.25">
+      <c r="A25" s="164"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="171"/>
       <c r="E25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="135"/>
-      <c r="G25" s="137"/>
-    </row>
-    <row r="26" spans="1:17" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="120"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="127"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="181"/>
+    </row>
+    <row r="26" spans="1:17" ht="12.6" customHeight="1">
+      <c r="A26" s="164"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="171"/>
       <c r="E26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="135"/>
-      <c r="G26" s="137"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="134"/>
-      <c r="B27" s="125"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="128"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="181"/>
+    </row>
+    <row r="27" spans="1:17" thickBot="1">
+      <c r="A27" s="178"/>
+      <c r="B27" s="169"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="136"/>
-      <c r="G27" s="138"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="119" t="s">
+      <c r="F27" s="180"/>
+      <c r="G27" s="182"/>
+    </row>
+    <row r="28" spans="1:17" ht="14.25">
+      <c r="A28" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="141" t="s">
+      <c r="B28" s="185" t="s">
         <v>218</v>
       </c>
-      <c r="C28" s="139" t="s">
+      <c r="C28" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="150" t="s">
+      <c r="D28" s="194" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="145" t="s">
+      <c r="F28" s="189" t="s">
         <v>65</v>
       </c>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="191" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="120"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="151"/>
+    <row r="29" spans="1:17" ht="14.25">
+      <c r="A29" s="164"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="195"/>
       <c r="E29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="146"/>
-      <c r="G29" s="148"/>
-    </row>
-    <row r="30" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="120"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="151"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="192"/>
+    </row>
+    <row r="30" spans="1:17" ht="32.450000000000003" customHeight="1">
+      <c r="A30" s="164"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="184"/>
+      <c r="D30" s="195"/>
       <c r="E30" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="146"/>
-      <c r="G30" s="148"/>
-    </row>
-    <row r="31" spans="1:17" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="120"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="151"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="192"/>
+    </row>
+    <row r="31" spans="1:17" ht="41.45" customHeight="1" thickBot="1">
+      <c r="A31" s="164"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="195"/>
       <c r="E31" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="146"/>
-      <c r="G31" s="149"/>
-    </row>
-    <row r="32" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="120"/>
-      <c r="B32" s="99" t="s">
+      <c r="F31" s="190"/>
+      <c r="G31" s="193"/>
+    </row>
+    <row r="32" spans="1:17" ht="31.15" customHeight="1">
+      <c r="A32" s="164"/>
+      <c r="B32" s="93" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -4087,9 +4795,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="120"/>
-      <c r="B33" s="99" t="s">
+    <row r="33" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="A33" s="164"/>
+      <c r="B33" s="93" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -4108,9 +4816,9 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="120"/>
-      <c r="B34" s="98" t="s">
+    <row r="34" spans="1:7" ht="43.15" customHeight="1">
+      <c r="A34" s="164"/>
+      <c r="B34" s="92" t="s">
         <v>78</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -4119,19 +4827,19 @@
       <c r="D34" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="143" t="s">
+      <c r="E34" s="187" t="s">
         <v>85</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="144" t="s">
+      <c r="G34" s="188" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="120"/>
-      <c r="B35" s="98" t="s">
+    <row r="35" spans="1:7" ht="28.9" customHeight="1">
+      <c r="A35" s="164"/>
+      <c r="B35" s="92" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -4140,69 +4848,69 @@
       <c r="D35" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="143"/>
+      <c r="E35" s="187"/>
       <c r="F35" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="144"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="120"/>
-      <c r="B36" s="183" t="s">
+      <c r="G35" s="188"/>
+    </row>
+    <row r="36" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A36" s="164"/>
+      <c r="B36" s="227" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="182" t="s">
+      <c r="C36" s="226" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="184" t="s">
+      <c r="D36" s="228" t="s">
         <v>88</v>
       </c>
       <c r="E36" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="180" t="s">
+      <c r="F36" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="G36" s="181" t="s">
+      <c r="G36" s="225" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="120"/>
-      <c r="B37" s="183"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="184"/>
+    <row r="37" spans="1:7" ht="28.5">
+      <c r="A37" s="164"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="228"/>
       <c r="E37" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="180"/>
-      <c r="G37" s="181"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="120"/>
-      <c r="B38" s="183"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="184"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="225"/>
+    </row>
+    <row r="38" spans="1:7" ht="14.25">
+      <c r="A38" s="164"/>
+      <c r="B38" s="227"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="228"/>
       <c r="E38" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="180"/>
-      <c r="G38" s="181"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="120"/>
-      <c r="B39" s="183"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="184"/>
+      <c r="F38" s="224"/>
+      <c r="G38" s="225"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25">
+      <c r="A39" s="164"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="228"/>
       <c r="E39" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="180"/>
-      <c r="G39" s="181"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="120"/>
-      <c r="B40" s="98" t="s">
+      <c r="F39" s="224"/>
+      <c r="G39" s="225"/>
+    </row>
+    <row r="40" spans="1:7" ht="14.25">
+      <c r="A40" s="164"/>
+      <c r="B40" s="92" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -4211,19 +4919,19 @@
       <c r="D40" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="143" t="s">
+      <c r="E40" s="187" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="146" t="s">
+      <c r="F40" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="G40" s="144" t="s">
+      <c r="G40" s="188" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="120"/>
-      <c r="B41" s="98" t="s">
+    <row r="41" spans="1:7" ht="14.25">
+      <c r="A41" s="164"/>
+      <c r="B41" s="92" t="s">
         <v>97</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -4232,13 +4940,13 @@
       <c r="D41" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="E41" s="143"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="144"/>
-    </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="120"/>
-      <c r="B42" s="99" t="s">
+      <c r="E41" s="187"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="188"/>
+    </row>
+    <row r="42" spans="1:7" ht="28.5">
+      <c r="A42" s="164"/>
+      <c r="B42" s="93" t="s">
         <v>102</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -4257,209 +4965,209 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="120"/>
-      <c r="B43" s="98" t="s">
+    <row r="43" spans="1:7" ht="14.25">
+      <c r="A43" s="164"/>
+      <c r="B43" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="140" t="s">
+      <c r="C43" s="184" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="151" t="s">
+      <c r="D43" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="143" t="s">
+      <c r="E43" s="187" t="s">
         <v>113</v>
       </c>
-      <c r="F43" s="146" t="s">
+      <c r="F43" s="190" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="144" t="s">
+      <c r="G43" s="188" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="120"/>
-      <c r="B44" s="98" t="s">
+    <row r="44" spans="1:7" ht="14.25">
+      <c r="A44" s="164"/>
+      <c r="B44" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="140"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="143"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="144"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="120"/>
-      <c r="B45" s="183" t="s">
+      <c r="C44" s="184"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="188"/>
+    </row>
+    <row r="45" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A45" s="164"/>
+      <c r="B45" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="226" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="189" t="s">
+      <c r="D45" s="236" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="194" t="s">
+      <c r="E45" s="241" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="180" t="s">
+      <c r="F45" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="181" t="s">
+      <c r="G45" s="225" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="120"/>
-      <c r="B46" s="183"/>
-      <c r="C46" s="182"/>
-      <c r="D46" s="190"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="180"/>
-      <c r="G46" s="181"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="120"/>
-      <c r="B47" s="183"/>
-      <c r="C47" s="182"/>
-      <c r="D47" s="190"/>
-      <c r="E47" s="194"/>
-      <c r="F47" s="180"/>
-      <c r="G47" s="181"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="120"/>
-      <c r="B48" s="183"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="194"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="181"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="120"/>
-      <c r="B49" s="183"/>
-      <c r="C49" s="182"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="194"/>
-      <c r="F49" s="180"/>
-      <c r="G49" s="181"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="120"/>
-      <c r="B50" s="142" t="s">
+    <row r="46" spans="1:7" ht="14.25">
+      <c r="A46" s="164"/>
+      <c r="B46" s="227"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="237"/>
+      <c r="E46" s="241"/>
+      <c r="F46" s="224"/>
+      <c r="G46" s="225"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.25">
+      <c r="A47" s="164"/>
+      <c r="B47" s="227"/>
+      <c r="C47" s="226"/>
+      <c r="D47" s="237"/>
+      <c r="E47" s="241"/>
+      <c r="F47" s="224"/>
+      <c r="G47" s="225"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.25">
+      <c r="A48" s="164"/>
+      <c r="B48" s="227"/>
+      <c r="C48" s="226"/>
+      <c r="D48" s="237"/>
+      <c r="E48" s="241"/>
+      <c r="F48" s="224"/>
+      <c r="G48" s="225"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.25">
+      <c r="A49" s="164"/>
+      <c r="B49" s="227"/>
+      <c r="C49" s="226"/>
+      <c r="D49" s="238"/>
+      <c r="E49" s="241"/>
+      <c r="F49" s="224"/>
+      <c r="G49" s="225"/>
+    </row>
+    <row r="50" spans="1:7" ht="14.25">
+      <c r="A50" s="164"/>
+      <c r="B50" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="140" t="s">
+      <c r="C50" s="184" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="192" t="s">
+      <c r="D50" s="239" t="s">
         <v>129</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="146" t="s">
+      <c r="F50" s="190" t="s">
         <v>127</v>
       </c>
-      <c r="G50" s="144" t="s">
+      <c r="G50" s="188" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="120"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="193"/>
+    <row r="51" spans="1:7" ht="14.25">
+      <c r="A51" s="164"/>
+      <c r="B51" s="186"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="240"/>
       <c r="E51" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="146"/>
-      <c r="G51" s="144"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="120"/>
-      <c r="B52" s="142"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="193"/>
+      <c r="F51" s="190"/>
+      <c r="G51" s="188"/>
+    </row>
+    <row r="52" spans="1:7" ht="14.25">
+      <c r="A52" s="164"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="240"/>
       <c r="E52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="146"/>
-      <c r="G52" s="144"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="120"/>
-      <c r="B53" s="142"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="193"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="188"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25">
+      <c r="A53" s="164"/>
+      <c r="B53" s="186"/>
+      <c r="C53" s="184"/>
+      <c r="D53" s="240"/>
       <c r="E53" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F53" s="146"/>
-      <c r="G53" s="144"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="120"/>
-      <c r="B54" s="142"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="193"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="188"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25">
+      <c r="A54" s="164"/>
+      <c r="B54" s="186"/>
+      <c r="C54" s="184"/>
+      <c r="D54" s="240"/>
       <c r="E54" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="146"/>
-      <c r="G54" s="144"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="120"/>
-      <c r="B55" s="142"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="193"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="188"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25">
+      <c r="A55" s="164"/>
+      <c r="B55" s="186"/>
+      <c r="C55" s="184"/>
+      <c r="D55" s="240"/>
       <c r="E55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="146"/>
-      <c r="G55" s="144"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="120"/>
-      <c r="B56" s="142"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="193"/>
+      <c r="F55" s="190"/>
+      <c r="G55" s="188"/>
+    </row>
+    <row r="56" spans="1:7" ht="14.25">
+      <c r="A56" s="164"/>
+      <c r="B56" s="186"/>
+      <c r="C56" s="184"/>
+      <c r="D56" s="240"/>
       <c r="E56" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="146"/>
-      <c r="G56" s="144"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="120"/>
-      <c r="B57" s="142"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="193"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="188"/>
+    </row>
+    <row r="57" spans="1:7" ht="14.25">
+      <c r="A57" s="164"/>
+      <c r="B57" s="186"/>
+      <c r="C57" s="184"/>
+      <c r="D57" s="240"/>
       <c r="E57" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="F57" s="146"/>
-      <c r="G57" s="144"/>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="121"/>
-      <c r="B58" s="188"/>
-      <c r="C58" s="187"/>
-      <c r="D58" s="193"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="188"/>
+    </row>
+    <row r="58" spans="1:7" thickBot="1">
+      <c r="A58" s="165"/>
+      <c r="B58" s="235"/>
+      <c r="C58" s="234"/>
+      <c r="D58" s="240"/>
       <c r="E58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="F58" s="185"/>
-      <c r="G58" s="186"/>
-    </row>
-    <row r="59" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="119" t="s">
+      <c r="F58" s="232"/>
+      <c r="G58" s="233"/>
+    </row>
+    <row r="59" spans="1:7" ht="57">
+      <c r="A59" s="163" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="100" t="s">
+      <c r="B59" s="94" t="s">
         <v>131</v>
       </c>
       <c r="C59" s="42" t="s">
@@ -4478,12 +5186,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="120"/>
-      <c r="B60" s="95" t="s">
+    <row r="60" spans="1:7" ht="42.75">
+      <c r="A60" s="164"/>
+      <c r="B60" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="113" t="s">
+      <c r="C60" s="107" t="s">
         <v>141</v>
       </c>
       <c r="D60" s="27" t="s">
@@ -4499,12 +5207,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="120"/>
-      <c r="B61" s="101" t="s">
+    <row r="61" spans="1:7" ht="42.75">
+      <c r="A61" s="164"/>
+      <c r="B61" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="114" t="s">
+      <c r="C61" s="108" t="s">
         <v>141</v>
       </c>
       <c r="D61" s="25" t="s">
@@ -4520,9 +5228,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="120"/>
-      <c r="B62" s="95" t="s">
+    <row r="62" spans="1:7" ht="57">
+      <c r="A62" s="164"/>
+      <c r="B62" s="89" t="s">
         <v>145</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -4541,9 +5249,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="120"/>
-      <c r="B63" s="101" t="s">
+    <row r="63" spans="1:7" ht="28.5">
+      <c r="A63" s="164"/>
+      <c r="B63" s="95" t="s">
         <v>149</v>
       </c>
       <c r="C63" s="14" t="s">
@@ -4562,9 +5270,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="120"/>
-      <c r="B64" s="95" t="s">
+    <row r="64" spans="1:7" ht="57">
+      <c r="A64" s="164"/>
+      <c r="B64" s="89" t="s">
         <v>219</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -4583,9 +5291,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="120"/>
-      <c r="B65" s="101" t="s">
+    <row r="65" spans="1:7" ht="57">
+      <c r="A65" s="164"/>
+      <c r="B65" s="95" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="14" t="s">
@@ -4604,9 +5312,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="120"/>
-      <c r="B66" s="95" t="s">
+    <row r="66" spans="1:7" ht="42.75">
+      <c r="A66" s="164"/>
+      <c r="B66" s="89" t="s">
         <v>155</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -4625,9 +5333,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="120"/>
-      <c r="B67" s="101" t="s">
+    <row r="67" spans="1:7" ht="42.75">
+      <c r="A67" s="164"/>
+      <c r="B67" s="95" t="s">
         <v>157</v>
       </c>
       <c r="C67" s="14" t="s">
@@ -4646,9 +5354,9 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="121"/>
-      <c r="B68" s="102" t="s">
+    <row r="68" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A68" s="165"/>
+      <c r="B68" s="96" t="s">
         <v>162</v>
       </c>
       <c r="C68" s="64" t="s">
@@ -4667,8 +5375,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="119" t="s">
+    <row r="69" spans="1:7" ht="57">
+      <c r="A69" s="163" t="s">
         <v>164</v>
       </c>
       <c r="B69" s="43" t="s">
@@ -4690,8 +5398,8 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="120"/>
+    <row r="70" spans="1:7" ht="28.5">
+      <c r="A70" s="164"/>
       <c r="B70" s="44" t="s">
         <v>166</v>
       </c>
@@ -4711,8 +5419,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="120"/>
+    <row r="71" spans="1:7" ht="99.75">
+      <c r="A71" s="164"/>
       <c r="B71" s="45" t="s">
         <v>167</v>
       </c>
@@ -4732,12 +5440,12 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="120"/>
-      <c r="B72" s="124" t="s">
+    <row r="72" spans="1:7" ht="28.5">
+      <c r="A72" s="164"/>
+      <c r="B72" s="168" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="122" t="s">
+      <c r="C72" s="166" t="s">
         <v>186</v>
       </c>
       <c r="D72" s="27" t="s">
@@ -4749,14 +5457,14 @@
       <c r="F72" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="G72" s="126" t="s">
+      <c r="G72" s="170" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="120"/>
-      <c r="B73" s="124"/>
-      <c r="C73" s="122"/>
+    <row r="73" spans="1:7" ht="42.75">
+      <c r="A73" s="164"/>
+      <c r="B73" s="168"/>
+      <c r="C73" s="166"/>
       <c r="D73" s="27" t="s">
         <v>189</v>
       </c>
@@ -4766,12 +5474,12 @@
       <c r="F73" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="G73" s="127"/>
-    </row>
-    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="120"/>
-      <c r="B74" s="124"/>
-      <c r="C74" s="122"/>
+      <c r="G73" s="171"/>
+    </row>
+    <row r="74" spans="1:7" ht="28.5">
+      <c r="A74" s="164"/>
+      <c r="B74" s="168"/>
+      <c r="C74" s="166"/>
       <c r="D74" s="27" t="s">
         <v>190</v>
       </c>
@@ -4781,12 +5489,12 @@
       <c r="F74" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="G74" s="127"/>
-    </row>
-    <row r="75" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="120"/>
-      <c r="B75" s="124"/>
-      <c r="C75" s="122"/>
+      <c r="G74" s="171"/>
+    </row>
+    <row r="75" spans="1:7" ht="28.5">
+      <c r="A75" s="164"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="166"/>
       <c r="D75" s="27" t="s">
         <v>191</v>
       </c>
@@ -4796,12 +5504,12 @@
       <c r="F75" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="G75" s="127"/>
-    </row>
-    <row r="76" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="120"/>
-      <c r="B76" s="125"/>
-      <c r="C76" s="123"/>
+      <c r="G75" s="171"/>
+    </row>
+    <row r="76" spans="1:7" ht="29.25" thickBot="1">
+      <c r="A76" s="164"/>
+      <c r="B76" s="169"/>
+      <c r="C76" s="167"/>
       <c r="D76" s="39" t="s">
         <v>192</v>
       </c>
@@ -4811,10 +5519,10 @@
       <c r="F76" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="G76" s="128"/>
-    </row>
-    <row r="77" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A77" s="120"/>
+      <c r="G76" s="172"/>
+    </row>
+    <row r="77" spans="1:7" ht="99.75">
+      <c r="A77" s="164"/>
       <c r="B77" s="43" t="s">
         <v>169</v>
       </c>
@@ -4834,8 +5542,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="120"/>
+    <row r="78" spans="1:7" ht="99.75">
+      <c r="A78" s="164"/>
       <c r="B78" s="44" t="s">
         <v>170</v>
       </c>
@@ -4855,8 +5563,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A79" s="120"/>
+    <row r="79" spans="1:7" ht="71.25">
+      <c r="A79" s="164"/>
       <c r="B79" s="45" t="s">
         <v>171</v>
       </c>
@@ -4876,8 +5584,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="120"/>
+    <row r="80" spans="1:7" ht="85.5">
+      <c r="A80" s="164"/>
       <c r="B80" s="44" t="s">
         <v>172</v>
       </c>
@@ -4897,8 +5605,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="120"/>
+    <row r="81" spans="1:7" ht="85.5">
+      <c r="A81" s="164"/>
       <c r="B81" s="45" t="s">
         <v>173</v>
       </c>
@@ -4918,8 +5626,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="120"/>
+    <row r="82" spans="1:7" ht="99.75">
+      <c r="A82" s="164"/>
       <c r="B82" s="44" t="s">
         <v>174</v>
       </c>
@@ -4939,8 +5647,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="120"/>
+    <row r="83" spans="1:7" ht="99.75">
+      <c r="A83" s="164"/>
       <c r="B83" s="45" t="s">
         <v>175</v>
       </c>
@@ -4960,8 +5668,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="120"/>
+    <row r="84" spans="1:7" ht="99.75">
+      <c r="A84" s="164"/>
       <c r="B84" s="44" t="s">
         <v>176</v>
       </c>
@@ -4981,8 +5689,8 @@
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="120"/>
+    <row r="85" spans="1:7" ht="114">
+      <c r="A85" s="164"/>
       <c r="B85" s="45" t="s">
         <v>177</v>
       </c>
@@ -5002,15 +5710,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="120"/>
+    <row r="86" spans="1:7" ht="87.75">
+      <c r="A86" s="164"/>
       <c r="B86" s="44" t="s">
         <v>178</v>
       </c>
       <c r="C86" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="D86" s="112" t="s">
+      <c r="D86" s="106" t="s">
         <v>253</v>
       </c>
       <c r="E86" s="27" t="s">
@@ -5023,8 +5731,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="121"/>
+    <row r="87" spans="1:7" ht="129" thickBot="1">
+      <c r="A87" s="165"/>
       <c r="B87" s="49" t="s">
         <v>179</v>
       </c>
@@ -5044,14 +5752,14 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="132" t="s">
+    <row r="88" spans="1:7" ht="42.75">
+      <c r="A88" s="176" t="s">
         <v>261</v>
       </c>
-      <c r="B88" s="103" t="s">
+      <c r="B88" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="C88" s="115" t="s">
+      <c r="C88" s="109" t="s">
         <v>283</v>
       </c>
       <c r="D88" s="54" t="s">
@@ -5067,8 +5775,8 @@
         <v>284</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="133"/>
+    <row r="89" spans="1:7" ht="114">
+      <c r="A89" s="177"/>
       <c r="B89" s="45" t="s">
         <v>263</v>
       </c>
@@ -5088,9 +5796,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="133"/>
-      <c r="B90" s="99" t="s">
+    <row r="90" spans="1:7" ht="85.5">
+      <c r="A90" s="177"/>
+      <c r="B90" s="93" t="s">
         <v>264</v>
       </c>
       <c r="C90" s="7" t="s">
@@ -5109,8 +5817,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="133"/>
+    <row r="91" spans="1:7" ht="85.5">
+      <c r="A91" s="177"/>
       <c r="B91" s="45" t="s">
         <v>265</v>
       </c>
@@ -5130,9 +5838,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="133"/>
-      <c r="B92" s="99" t="s">
+    <row r="92" spans="1:7" ht="171">
+      <c r="A92" s="177"/>
+      <c r="B92" s="93" t="s">
         <v>266</v>
       </c>
       <c r="C92" s="7" t="s">
@@ -5151,8 +5859,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="133"/>
+    <row r="93" spans="1:7" ht="28.5">
+      <c r="A93" s="177"/>
       <c r="B93" s="45" t="s">
         <v>267</v>
       </c>
@@ -5172,9 +5880,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A94" s="133"/>
-      <c r="B94" s="99" t="s">
+    <row r="94" spans="1:7" ht="71.25">
+      <c r="A94" s="177"/>
+      <c r="B94" s="93" t="s">
         <v>268</v>
       </c>
       <c r="C94" s="7" t="s">
@@ -5193,8 +5901,8 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A95" s="133"/>
+    <row r="95" spans="1:7" ht="71.25">
+      <c r="A95" s="177"/>
       <c r="B95" s="45" t="s">
         <v>269</v>
       </c>
@@ -5214,9 +5922,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="133"/>
-      <c r="B96" s="99" t="s">
+    <row r="96" spans="1:7" ht="85.5">
+      <c r="A96" s="177"/>
+      <c r="B96" s="93" t="s">
         <v>270</v>
       </c>
       <c r="C96" s="7" t="s">
@@ -5235,8 +5943,8 @@
         <v>323</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="133"/>
+    <row r="97" spans="1:7" ht="85.5">
+      <c r="A97" s="177"/>
       <c r="B97" s="45" t="s">
         <v>271</v>
       </c>
@@ -5256,9 +5964,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="133"/>
-      <c r="B98" s="99" t="s">
+    <row r="98" spans="1:7" ht="85.5">
+      <c r="A98" s="177"/>
+      <c r="B98" s="93" t="s">
         <v>272</v>
       </c>
       <c r="C98" s="7" t="s">
@@ -5277,8 +5985,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="133"/>
+    <row r="99" spans="1:7" ht="85.5">
+      <c r="A99" s="177"/>
       <c r="B99" s="45" t="s">
         <v>273</v>
       </c>
@@ -5298,9 +6006,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="133"/>
-      <c r="B100" s="99" t="s">
+    <row r="100" spans="1:7" ht="85.5">
+      <c r="A100" s="177"/>
+      <c r="B100" s="93" t="s">
         <v>274</v>
       </c>
       <c r="C100" s="7" t="s">
@@ -5319,8 +6027,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="133"/>
+    <row r="101" spans="1:7" ht="85.5">
+      <c r="A101" s="177"/>
       <c r="B101" s="45" t="s">
         <v>275</v>
       </c>
@@ -5340,9 +6048,9 @@
         <v>340</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="133"/>
-      <c r="B102" s="99" t="s">
+    <row r="102" spans="1:7" ht="85.5">
+      <c r="A102" s="177"/>
+      <c r="B102" s="93" t="s">
         <v>276</v>
       </c>
       <c r="C102" s="7" t="s">
@@ -5361,8 +6069,8 @@
         <v>344</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A103" s="133"/>
+    <row r="103" spans="1:7" ht="71.25">
+      <c r="A103" s="177"/>
       <c r="B103" s="45" t="s">
         <v>277</v>
       </c>
@@ -5382,9 +6090,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="133"/>
-      <c r="B104" s="99" t="s">
+    <row r="104" spans="1:7" ht="101.25">
+      <c r="A104" s="177"/>
+      <c r="B104" s="93" t="s">
         <v>278</v>
       </c>
       <c r="C104" s="7" t="s">
@@ -5403,8 +6111,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="133"/>
+    <row r="105" spans="1:7" ht="85.5">
+      <c r="A105" s="177"/>
       <c r="B105" s="45" t="s">
         <v>279</v>
       </c>
@@ -5424,9 +6132,9 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="133"/>
-      <c r="B106" s="99" t="s">
+    <row r="106" spans="1:7" ht="99.75">
+      <c r="A106" s="177"/>
+      <c r="B106" s="93" t="s">
         <v>280</v>
       </c>
       <c r="C106" s="7" t="s">
@@ -5445,8 +6153,8 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="133"/>
+    <row r="107" spans="1:7" ht="99.75">
+      <c r="A107" s="177"/>
       <c r="B107" s="45" t="s">
         <v>281</v>
       </c>
@@ -5466,12 +6174,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="133"/>
-      <c r="B108" s="104" t="s">
+    <row r="108" spans="1:7" ht="86.25" thickBot="1">
+      <c r="A108" s="177"/>
+      <c r="B108" s="98" t="s">
         <v>282</v>
       </c>
-      <c r="C108" s="116" t="s">
+      <c r="C108" s="110" t="s">
         <v>371</v>
       </c>
       <c r="D108" s="60" t="s">
@@ -5487,8 +6195,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A109" s="129" t="s">
+    <row r="109" spans="1:7" ht="142.5">
+      <c r="A109" s="173" t="s">
         <v>374</v>
       </c>
       <c r="B109" s="43" t="s">
@@ -5510,9 +6218,9 @@
         <v>383</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="130"/>
-      <c r="B110" s="97" t="s">
+    <row r="110" spans="1:7" ht="199.5">
+      <c r="A110" s="174"/>
+      <c r="B110" s="91" t="s">
         <v>376</v>
       </c>
       <c r="C110" s="8" t="s">
@@ -5531,8 +6239,8 @@
         <v>388</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="130"/>
+    <row r="111" spans="1:7" ht="185.25">
+      <c r="A111" s="174"/>
       <c r="B111" s="45" t="s">
         <v>377</v>
       </c>
@@ -5552,8 +6260,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="130"/>
+    <row r="112" spans="1:7" ht="171.75" thickBot="1">
+      <c r="A112" s="174"/>
       <c r="B112" s="44" t="s">
         <v>378</v>
       </c>
@@ -5573,8 +6281,8 @@
         <v>413</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="130"/>
+    <row r="113" spans="1:7" ht="199.5">
+      <c r="A113" s="174"/>
       <c r="B113" s="45" t="s">
         <v>379</v>
       </c>
@@ -5594,8 +6302,8 @@
         <v>403</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A114" s="130"/>
+    <row r="114" spans="1:7" ht="185.25">
+      <c r="A114" s="174"/>
       <c r="B114" s="44" t="s">
         <v>380</v>
       </c>
@@ -5615,8 +6323,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="131"/>
+    <row r="115" spans="1:7" ht="171.75" thickBot="1">
+      <c r="A115" s="175"/>
       <c r="B115" s="49" t="s">
         <v>381</v>
       </c>
@@ -5636,14 +6344,14 @@
         <v>410</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="119" t="s">
+    <row r="116" spans="1:7" ht="99.75">
+      <c r="A116" s="163" t="s">
         <v>415</v>
       </c>
-      <c r="B116" s="105" t="s">
+      <c r="B116" s="99" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="115" t="s">
+      <c r="C116" s="109" t="s">
         <v>424</v>
       </c>
       <c r="D116" s="54" t="s">
@@ -5659,9 +6367,9 @@
         <v>425</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A117" s="120"/>
-      <c r="B117" s="101" t="s">
+    <row r="117" spans="1:7" ht="71.25">
+      <c r="A117" s="164"/>
+      <c r="B117" s="95" t="s">
         <v>417</v>
       </c>
       <c r="C117" s="14" t="s">
@@ -5680,9 +6388,9 @@
         <v>431</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A118" s="120"/>
-      <c r="B118" s="106" t="s">
+    <row r="118" spans="1:7" ht="71.25">
+      <c r="A118" s="164"/>
+      <c r="B118" s="100" t="s">
         <v>418</v>
       </c>
       <c r="C118" s="7" t="s">
@@ -5701,9 +6409,9 @@
         <v>433</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="120"/>
-      <c r="B119" s="101" t="s">
+    <row r="119" spans="1:7" ht="57">
+      <c r="A119" s="164"/>
+      <c r="B119" s="95" t="s">
         <v>419</v>
       </c>
       <c r="C119" s="14" t="s">
@@ -5722,9 +6430,9 @@
         <v>436</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A120" s="120"/>
-      <c r="B120" s="106" t="s">
+    <row r="120" spans="1:7" ht="71.25">
+      <c r="A120" s="164"/>
+      <c r="B120" s="100" t="s">
         <v>420</v>
       </c>
       <c r="C120" s="7" t="s">
@@ -5743,9 +6451,9 @@
         <v>443</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A121" s="120"/>
-      <c r="B121" s="101" t="s">
+    <row r="121" spans="1:7" ht="142.5">
+      <c r="A121" s="164"/>
+      <c r="B121" s="95" t="s">
         <v>421</v>
       </c>
       <c r="C121" s="14" t="s">
@@ -5764,9 +6472,9 @@
         <v>447</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="144" x14ac:dyDescent="0.3">
-      <c r="A122" s="120"/>
-      <c r="B122" s="106" t="s">
+    <row r="122" spans="1:7" ht="142.5">
+      <c r="A122" s="164"/>
+      <c r="B122" s="100" t="s">
         <v>422</v>
       </c>
       <c r="C122" s="7" t="s">
@@ -5785,9 +6493,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="121"/>
-      <c r="B123" s="107" t="s">
+    <row r="123" spans="1:7" ht="143.25" thickBot="1">
+      <c r="A123" s="165"/>
+      <c r="B123" s="101" t="s">
         <v>423</v>
       </c>
       <c r="C123" s="65" t="s">
@@ -5806,14 +6514,14 @@
         <v>458</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="119" t="s">
+    <row r="124" spans="1:7" ht="42.75">
+      <c r="A124" s="163" t="s">
         <v>460</v>
       </c>
-      <c r="B124" s="108" t="s">
+      <c r="B124" s="102" t="s">
         <v>461</v>
       </c>
-      <c r="C124" s="117" t="s">
+      <c r="C124" s="111" t="s">
         <v>503</v>
       </c>
       <c r="D124" s="66" t="s">
@@ -5825,13 +6533,13 @@
       <c r="F124" s="67" t="s">
         <v>501</v>
       </c>
-      <c r="G124" s="93" t="s">
+      <c r="G124" s="87" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="120"/>
-      <c r="B125" s="109" t="s">
+    <row r="125" spans="1:7" ht="28.5">
+      <c r="A125" s="164"/>
+      <c r="B125" s="103" t="s">
         <v>462</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -5846,13 +6554,13 @@
       <c r="F125" s="69" t="s">
         <v>507</v>
       </c>
-      <c r="G125" s="94" t="s">
+      <c r="G125" s="88" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="120"/>
-      <c r="B126" s="95" t="s">
+    <row r="126" spans="1:7" ht="57">
+      <c r="A126" s="164"/>
+      <c r="B126" s="89" t="s">
         <v>463</v>
       </c>
       <c r="C126" s="8" t="s">
@@ -5871,9 +6579,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="120"/>
-      <c r="B127" s="109" t="s">
+    <row r="127" spans="1:7" ht="57">
+      <c r="A127" s="164"/>
+      <c r="B127" s="103" t="s">
         <v>464</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -5888,13 +6596,13 @@
       <c r="F127" s="69" t="s">
         <v>520</v>
       </c>
-      <c r="G127" s="94" t="s">
+      <c r="G127" s="88" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="120"/>
-      <c r="B128" s="95" t="s">
+    <row r="128" spans="1:7" ht="28.5">
+      <c r="A128" s="164"/>
+      <c r="B128" s="89" t="s">
         <v>466</v>
       </c>
       <c r="C128" s="8" t="s">
@@ -5913,12 +6621,12 @@
         <v>517</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="120"/>
-      <c r="B129" s="109" t="s">
+    <row r="129" spans="1:7" ht="28.5">
+      <c r="A129" s="164"/>
+      <c r="B129" s="103" t="s">
         <v>467</v>
       </c>
-      <c r="C129" s="118" t="s">
+      <c r="C129" s="112" t="s">
         <v>522</v>
       </c>
       <c r="D129" s="68" t="s">
@@ -5930,13 +6638,13 @@
       <c r="F129" s="69" t="s">
         <v>524</v>
       </c>
-      <c r="G129" s="94" t="s">
+      <c r="G129" s="88" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="121"/>
-      <c r="B130" s="102" t="s">
+    <row r="130" spans="1:7" ht="57.75" thickBot="1">
+      <c r="A130" s="165"/>
+      <c r="B130" s="96" t="s">
         <v>465</v>
       </c>
       <c r="C130" s="64" t="s">
@@ -5945,7 +6653,7 @@
       <c r="D130" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="E130" s="202" t="s">
+      <c r="E130" s="120" t="s">
         <v>511</v>
       </c>
       <c r="F130" s="40" t="s">
@@ -5955,35 +6663,35 @@
         <v>513</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="203" t="s">
+    <row r="131" spans="1:7" ht="42.75">
+      <c r="A131" s="229" t="s">
         <v>535</v>
       </c>
-      <c r="B131" s="206" t="s">
+      <c r="B131" s="122" t="s">
         <v>525</v>
       </c>
-      <c r="C131" s="207" t="s">
+      <c r="C131" s="123" t="s">
         <v>537</v>
       </c>
-      <c r="D131" s="111" t="s">
+      <c r="D131" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="E131" s="111" t="s">
+      <c r="E131" s="105" t="s">
         <v>539</v>
       </c>
-      <c r="F131" s="208" t="s">
+      <c r="F131" s="124" t="s">
         <v>540</v>
       </c>
-      <c r="G131" s="209" t="s">
+      <c r="G131" s="125" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="204"/>
-      <c r="B132" s="212" t="s">
+    <row r="132" spans="1:7" ht="85.5">
+      <c r="A132" s="230"/>
+      <c r="B132" s="128" t="s">
         <v>526</v>
       </c>
-      <c r="C132" s="213" t="s">
+      <c r="C132" s="129" t="s">
         <v>541</v>
       </c>
       <c r="D132" s="57" t="s">
@@ -5999,12 +6707,12 @@
         <v>542</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="204"/>
-      <c r="B133" s="210" t="s">
+    <row r="133" spans="1:7" ht="57">
+      <c r="A133" s="230"/>
+      <c r="B133" s="126" t="s">
         <v>527</v>
       </c>
-      <c r="C133" s="211" t="s">
+      <c r="C133" s="127" t="s">
         <v>547</v>
       </c>
       <c r="D133" s="68" t="s">
@@ -6016,16 +6724,16 @@
       <c r="F133" s="69" t="s">
         <v>552</v>
       </c>
-      <c r="G133" s="94" t="s">
+      <c r="G133" s="88" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="204"/>
-      <c r="B134" s="212" t="s">
+    <row r="134" spans="1:7" ht="42.75">
+      <c r="A134" s="230"/>
+      <c r="B134" s="128" t="s">
         <v>528</v>
       </c>
-      <c r="C134" s="213" t="s">
+      <c r="C134" s="129" t="s">
         <v>551</v>
       </c>
       <c r="D134" s="57" t="s">
@@ -6041,12 +6749,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="204"/>
-      <c r="B135" s="210" t="s">
+    <row r="135" spans="1:7" ht="99.75">
+      <c r="A135" s="230"/>
+      <c r="B135" s="126" t="s">
         <v>529</v>
       </c>
-      <c r="C135" s="211" t="s">
+      <c r="C135" s="127" t="s">
         <v>556</v>
       </c>
       <c r="D135" s="68" t="s">
@@ -6058,16 +6766,16 @@
       <c r="F135" s="69" t="s">
         <v>565</v>
       </c>
-      <c r="G135" s="94" t="s">
+      <c r="G135" s="88" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A136" s="204"/>
-      <c r="B136" s="212" t="s">
+    <row r="136" spans="1:7" ht="199.5">
+      <c r="A136" s="230"/>
+      <c r="B136" s="128" t="s">
         <v>530</v>
       </c>
-      <c r="C136" s="213" t="s">
+      <c r="C136" s="129" t="s">
         <v>559</v>
       </c>
       <c r="D136" s="57" t="s">
@@ -6083,12 +6791,12 @@
         <v>563</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A137" s="204"/>
-      <c r="B137" s="210" t="s">
+    <row r="137" spans="1:7" ht="71.25">
+      <c r="A137" s="230"/>
+      <c r="B137" s="126" t="s">
         <v>531</v>
       </c>
-      <c r="C137" s="211" t="s">
+      <c r="C137" s="127" t="s">
         <v>567</v>
       </c>
       <c r="D137" s="68" t="s">
@@ -6100,16 +6808,16 @@
       <c r="F137" s="69" t="s">
         <v>569</v>
       </c>
-      <c r="G137" s="94" t="s">
+      <c r="G137" s="88" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="204"/>
-      <c r="B138" s="212" t="s">
+    <row r="138" spans="1:7" ht="99.75">
+      <c r="A138" s="230"/>
+      <c r="B138" s="128" t="s">
         <v>532</v>
       </c>
-      <c r="C138" s="213" t="s">
+      <c r="C138" s="129" t="s">
         <v>571</v>
       </c>
       <c r="D138" s="57" t="s">
@@ -6125,12 +6833,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="204"/>
-      <c r="B139" s="210" t="s">
+    <row r="139" spans="1:7" ht="99.75">
+      <c r="A139" s="230"/>
+      <c r="B139" s="126" t="s">
         <v>533</v>
       </c>
-      <c r="C139" s="211" t="s">
+      <c r="C139" s="127" t="s">
         <v>578</v>
       </c>
       <c r="D139" s="68" t="s">
@@ -6142,28 +6850,28 @@
       <c r="F139" s="69" t="s">
         <v>576</v>
       </c>
-      <c r="G139" s="94" t="s">
+      <c r="G139" s="88" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="205"/>
-      <c r="B140" s="214" t="s">
+    <row r="140" spans="1:7" ht="57.75" thickBot="1">
+      <c r="A140" s="231"/>
+      <c r="B140" s="130" t="s">
         <v>534</v>
       </c>
-      <c r="C140" s="215" t="s">
+      <c r="C140" s="131" t="s">
         <v>585</v>
       </c>
-      <c r="D140" s="216" t="s">
+      <c r="D140" s="132" t="s">
         <v>584</v>
       </c>
-      <c r="E140" s="216" t="s">
+      <c r="E140" s="132" t="s">
         <v>581</v>
       </c>
-      <c r="F140" s="217" t="s">
+      <c r="F140" s="133" t="s">
         <v>583</v>
       </c>
-      <c r="G140" s="218" t="s">
+      <c r="G140" s="134" t="s">
         <v>582</v>
       </c>
     </row>
@@ -6235,99 +6943,99 @@
     <mergeCell ref="A88:A108"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" location="L7" xr:uid="{F521EE9C-24C9-46E9-9B83-619AF2EE0F94}"/>
-    <hyperlink ref="G10" r:id="rId2" location="L7" xr:uid="{BC3192C1-8D87-466B-B592-E1963FAF1A8F}"/>
-    <hyperlink ref="G4" r:id="rId3" location="L168" xr:uid="{7FBFDDF7-BDF3-4AAA-993B-99DF2433A7FC}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{D304D366-96DE-4C1B-8B5D-722FD5A61401}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{E1628304-7083-48A1-AC2A-93EFEA2AB88F}"/>
-    <hyperlink ref="G19" r:id="rId6" xr:uid="{B478C860-663C-4B28-9BB0-A87D691C4139}"/>
-    <hyperlink ref="G23" r:id="rId7" xr:uid="{105DF798-D5A4-41FB-BDFA-169E00F129CD}"/>
-    <hyperlink ref="G28:G31" r:id="rId8" display="https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/exploratory_analyses/chi_square_test.py" xr:uid="{CBA04F3A-9ACD-4730-924B-8337C49A3AE2}"/>
-    <hyperlink ref="G32" r:id="rId9" xr:uid="{9A3BBE69-3A56-4601-88E3-11A7B1D10F6F}"/>
-    <hyperlink ref="G33" r:id="rId10" location="L18" xr:uid="{E6B857F5-5083-45A1-810C-F8ACE6B9D60A}"/>
-    <hyperlink ref="G34" r:id="rId11" location="L28" xr:uid="{F3EE973B-58E4-4ED5-B5CC-076A5D79F2A6}"/>
-    <hyperlink ref="G36" r:id="rId12" xr:uid="{44C5F01B-B082-450A-BB1E-B78E2BDA5A6E}"/>
-    <hyperlink ref="G43:G44" r:id="rId13" display="https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/exploratory_analyses/normality_test.py" xr:uid="{2E8C228C-E69B-40C9-A851-A50E73B791AD}"/>
-    <hyperlink ref="G45" r:id="rId14" xr:uid="{2DB3288A-56A0-418D-BE10-F835A866EF6C}"/>
-    <hyperlink ref="G50" r:id="rId15" xr:uid="{9C2A9793-E3D1-4411-BE44-46479562864C}"/>
-    <hyperlink ref="G59" r:id="rId16" location="L12" xr:uid="{6B0C7D19-AE02-4773-9865-8486B68FAE70}"/>
-    <hyperlink ref="G60" r:id="rId17" xr:uid="{981D678E-B5C1-4AD4-A553-83B3EACC5628}"/>
-    <hyperlink ref="G62" r:id="rId18" xr:uid="{BFA963E1-2C77-4797-A9B5-46AFB20CFEA6}"/>
-    <hyperlink ref="G61" r:id="rId19" xr:uid="{95A909AE-B7D6-4DDE-9288-8C2C965C8FEA}"/>
-    <hyperlink ref="G63" r:id="rId20" xr:uid="{1BA8026B-7D49-46B6-9C4F-C0478F05498B}"/>
-    <hyperlink ref="G64" r:id="rId21" xr:uid="{6F8BF350-4387-4E1C-96CE-2CDA948188DC}"/>
-    <hyperlink ref="G65" r:id="rId22" xr:uid="{CFFCB274-ED87-4498-A8D3-D74A0937CD0E}"/>
-    <hyperlink ref="G66" r:id="rId23" xr:uid="{8F487827-2DDE-47E6-B004-CCAB8E97B070}"/>
-    <hyperlink ref="G67" r:id="rId24" xr:uid="{B82B31A8-30F5-43B7-83C3-3CD473DB8685}"/>
-    <hyperlink ref="G68" r:id="rId25" xr:uid="{AC9E4A8A-1280-49A5-ADD4-39AF740EB6AB}"/>
-    <hyperlink ref="G72" r:id="rId26" xr:uid="{8701D585-6CCD-44A1-B91D-8DA741B79BD2}"/>
-    <hyperlink ref="G71" r:id="rId27" location="L2797" xr:uid="{AD5B641F-1BB5-4123-8009-DAD2333B61DB}"/>
-    <hyperlink ref="G69" r:id="rId28" location="L253" xr:uid="{1687F3D3-1E61-41F3-9F96-407ED35860EF}"/>
-    <hyperlink ref="G77" r:id="rId29" location="L14" xr:uid="{B1BCDC3D-AE1D-4597-B3CA-B22E52A94612}"/>
-    <hyperlink ref="G78" r:id="rId30" location="L114" xr:uid="{2A8C4F97-A4C5-4CFA-9E75-944C342D6777}"/>
-    <hyperlink ref="G70" r:id="rId31" location="L12" xr:uid="{4ED5A15F-BA4D-4332-B57E-F8F7E5986404}"/>
-    <hyperlink ref="G79" r:id="rId32" display="https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/logistic_regression.pyhttps://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/logistic_regression.py" xr:uid="{7CCE0633-A7FA-497E-9BC8-5F481E3BC9D2}"/>
-    <hyperlink ref="G80" r:id="rId33" location="L7" xr:uid="{79A7A728-5DB4-440B-A0DF-55F6CC728DAE}"/>
-    <hyperlink ref="G81" r:id="rId34" location="L3" xr:uid="{D17648C4-EFDA-4AA1-87BB-D936E69FD4D2}"/>
-    <hyperlink ref="G82" r:id="rId35" location="L12" xr:uid="{1578249B-7ACF-4C24-816C-49BAE66DAAF8}"/>
-    <hyperlink ref="G83" r:id="rId36" location="L98" xr:uid="{F8FEC69D-E188-4CC9-8FC1-D562987C7ED5}"/>
-    <hyperlink ref="G84" r:id="rId37" location="L11" xr:uid="{8A7228CA-606C-4743-993F-EB5E7A3BC73B}"/>
-    <hyperlink ref="G85" r:id="rId38" display="https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.pyhttps://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.py" xr:uid="{CFBC2139-C6B0-4408-BC05-743DEA28DDEA}"/>
-    <hyperlink ref="G86" r:id="rId39" xr:uid="{8D1EC35C-8A93-4C55-BED7-F79348365835}"/>
-    <hyperlink ref="G87" r:id="rId40" xr:uid="{C8116F67-3759-43C2-A3A8-DFC3DF7561D8}"/>
-    <hyperlink ref="G88" r:id="rId41" location="L67" xr:uid="{C17534BE-A2CD-4FFD-87D5-F15C29045CB0}"/>
-    <hyperlink ref="G89" r:id="rId42" location="L25" xr:uid="{D868025F-117F-4EDB-AA25-9DFE6692EB77}"/>
-    <hyperlink ref="G90" r:id="rId43" location="L15" xr:uid="{78BD8C07-64E6-4487-A25B-4E802EDA1461}"/>
-    <hyperlink ref="G91" r:id="rId44" location="L1273" xr:uid="{2E23E726-8AEE-4AD5-80CD-A10F7B78E31F}"/>
-    <hyperlink ref="G92" r:id="rId45" location="L39" xr:uid="{0EAAF668-E208-48C1-9FEA-88651EA1C00D}"/>
-    <hyperlink ref="G93" r:id="rId46" location="L82" xr:uid="{9E914E8F-A5CC-472A-8202-99ADFF952263}"/>
-    <hyperlink ref="G94" r:id="rId47" location="L11" xr:uid="{81589042-A1DF-4063-A0D0-59853853FACE}"/>
-    <hyperlink ref="G95" r:id="rId48" location="L13" xr:uid="{2B8EDE01-BCE5-4D91-9EAE-D1BE7623A8A4}"/>
-    <hyperlink ref="G96" r:id="rId49" location="L76" xr:uid="{F985162A-0909-41D9-8035-DE9BC8937873}"/>
-    <hyperlink ref="G97" r:id="rId50" location="L133" xr:uid="{4E516956-6C19-49F1-ACA1-2AEE9D870969}"/>
-    <hyperlink ref="G98" r:id="rId51" location="L344" xr:uid="{86C8EBF1-3E8A-4F1E-B2E2-A263077C339A}"/>
-    <hyperlink ref="G99" r:id="rId52" location="L24" xr:uid="{A065D4F3-39E3-48AC-BC06-945FABCFECC6}"/>
-    <hyperlink ref="G100" r:id="rId53" location="L241" xr:uid="{22514972-84CF-428D-A165-8822CD4BE3A4}"/>
-    <hyperlink ref="G101" r:id="rId54" location="L187" xr:uid="{CC4705BF-F8BB-4795-9148-248B24045CD7}"/>
-    <hyperlink ref="G102" r:id="rId55" location="L414" xr:uid="{6E881B9D-E2EA-459E-A754-EAA92B8EBAC5}"/>
-    <hyperlink ref="G103" r:id="rId56" location="L57" xr:uid="{2E3ECD71-EA00-4485-A5FD-5B9BA635BC8F}"/>
-    <hyperlink ref="G104" r:id="rId57" location="L11" xr:uid="{461E5B89-3C87-476E-867C-4D159D56AAB9}"/>
-    <hyperlink ref="G105" r:id="rId58" location="L9" xr:uid="{E895E718-D1B8-4322-83DF-62A08D9BB20F}"/>
-    <hyperlink ref="G106" r:id="rId59" location="L11" xr:uid="{CE37467B-D9BE-4EED-A27C-36B3F6D1E1ED}"/>
-    <hyperlink ref="G107" r:id="rId60" location="L12" xr:uid="{CF80920D-5824-44DF-AEA9-57754EBEEDA4}"/>
-    <hyperlink ref="G108" r:id="rId61" location="L10" xr:uid="{60D8982C-399B-40DE-9319-94EA3C9F7629}"/>
-    <hyperlink ref="G109" r:id="rId62" location="L25" xr:uid="{DBF1AAAF-C8F5-4631-88C8-138285C234A9}"/>
-    <hyperlink ref="G110" r:id="rId63" location="L43" xr:uid="{FFF7CFC2-1557-4E74-8493-E1A503803E2A}"/>
-    <hyperlink ref="G111" r:id="rId64" location="L50" xr:uid="{6E52CF07-B9B9-4CC7-8191-FBA9CFA491BC}"/>
-    <hyperlink ref="G114" r:id="rId65" location="L55https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/transformations/winsorize.py" xr:uid="{DBAE59D2-628C-4A5A-9FF0-5397D7EE08F4}"/>
-    <hyperlink ref="G113" r:id="rId66" location="L43" xr:uid="{5453F48C-25CE-406B-8FE5-1BB99A255094}"/>
-    <hyperlink ref="G115" r:id="rId67" location="L49" xr:uid="{716659A6-A3C7-4400-932A-65AB06AC26AB}"/>
-    <hyperlink ref="G112" r:id="rId68" location="L124" xr:uid="{A6E6413E-3729-4B91-AE98-1ECB6692CE2D}"/>
-    <hyperlink ref="G116" r:id="rId69" location="L22" xr:uid="{1511E465-7240-4AD1-9E69-902624F0E010}"/>
-    <hyperlink ref="G117" r:id="rId70" location="L31" xr:uid="{8C7F6878-318E-4B53-BD94-A623036DBA68}"/>
-    <hyperlink ref="G118" r:id="rId71" location="L69" xr:uid="{B5C66084-D08F-40D8-A6D4-374AA0CE8AEE}"/>
-    <hyperlink ref="G119" r:id="rId72" location="L60" xr:uid="{FD1794EE-C2D4-4E39-8485-68DC6EFA7F92}"/>
-    <hyperlink ref="G120" r:id="rId73" location="L51" xr:uid="{8ECF7719-5670-4B3F-B9C3-C3197DFD337B}"/>
-    <hyperlink ref="G121" r:id="rId74" location="L109" xr:uid="{FED95FC2-CDCC-44EC-BD1B-436544254C59}"/>
-    <hyperlink ref="G122" r:id="rId75" location="L66" xr:uid="{138045F9-41E1-4E3B-B191-777BEB42D922}"/>
-    <hyperlink ref="G123" r:id="rId76" location="L60" xr:uid="{59C06E23-9121-4645-8FD0-31CC6C9006A3}"/>
-    <hyperlink ref="G124" r:id="rId77" location="L113" xr:uid="{ABF714FF-0DEB-448A-B745-5BD996C271E4}"/>
-    <hyperlink ref="G125" r:id="rId78" location="L47" xr:uid="{FED6409C-C6E6-4A98-BD8D-AD02B502F94E}"/>
-    <hyperlink ref="G126" r:id="rId79" location="L72" xr:uid="{F53B75D8-3CD4-4425-9365-6F719CDD40C5}"/>
-    <hyperlink ref="G130" r:id="rId80" location="L15" xr:uid="{44C99AFC-CF36-43E5-88E0-A8AAF6C95A02}"/>
-    <hyperlink ref="G128" r:id="rId81" location="L52" xr:uid="{2BF12171-7E1D-4A06-BCBA-2138726C42FE}"/>
-    <hyperlink ref="G127" r:id="rId82" location="L105" xr:uid="{DCD815E6-738F-46B5-9034-08D72C515A13}"/>
-    <hyperlink ref="G129" r:id="rId83" location="L19" xr:uid="{3B08DCB3-CA15-4E16-9634-784728036B66}"/>
-    <hyperlink ref="G131" r:id="rId84" location="L8" xr:uid="{1DE2F5E9-172A-4747-80A9-862772694D1E}"/>
-    <hyperlink ref="G132" r:id="rId85" location="L23" xr:uid="{797D3A3F-9A60-46E2-99C6-911AA773FF20}"/>
-    <hyperlink ref="G133" r:id="rId86" xr:uid="{3B8E8795-8E7F-4D19-9927-5793F49AE319}"/>
-    <hyperlink ref="G134" r:id="rId87" location="L31" xr:uid="{56A620D8-FC0D-4C2F-8658-B1135C821A4B}"/>
-    <hyperlink ref="G136" r:id="rId88" location="L48" xr:uid="{81A8B19F-CC52-4EA3-8026-5645D887454D}"/>
-    <hyperlink ref="G135" r:id="rId89" location="L83" xr:uid="{DA13F89B-C8AB-408F-B1C7-4F436F049804}"/>
-    <hyperlink ref="G137" r:id="rId90" location="L14" xr:uid="{2E237080-7E70-40ED-BA8F-014B41B0B28E}"/>
-    <hyperlink ref="G138" r:id="rId91" location="L18" xr:uid="{30E51DD2-0817-4A4E-B8C4-5084D5FBFFE2}"/>
-    <hyperlink ref="G139" r:id="rId92" xr:uid="{65E4F485-F4F0-4136-B420-9602453C2FE3}"/>
-    <hyperlink ref="G140" r:id="rId93" xr:uid="{4FEAAB82-391A-459C-AF24-03F6B433A0C3}"/>
+    <hyperlink ref="G9" r:id="rId1" location="L7"/>
+    <hyperlink ref="G10" r:id="rId2" location="L7"/>
+    <hyperlink ref="G4" r:id="rId3" location="L168"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G19" r:id="rId6"/>
+    <hyperlink ref="G23" r:id="rId7"/>
+    <hyperlink ref="G28:G31" r:id="rId8" display="https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/exploratory_analyses/chi_square_test.py"/>
+    <hyperlink ref="G32" r:id="rId9"/>
+    <hyperlink ref="G33" r:id="rId10" location="L18"/>
+    <hyperlink ref="G34" r:id="rId11" location="L28"/>
+    <hyperlink ref="G36" r:id="rId12"/>
+    <hyperlink ref="G43:G44" r:id="rId13" display="https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/exploratory_analyses/normality_test.py"/>
+    <hyperlink ref="G45" r:id="rId14"/>
+    <hyperlink ref="G50" r:id="rId15"/>
+    <hyperlink ref="G59" r:id="rId16" location="L12"/>
+    <hyperlink ref="G60" r:id="rId17"/>
+    <hyperlink ref="G62" r:id="rId18"/>
+    <hyperlink ref="G61" r:id="rId19"/>
+    <hyperlink ref="G63" r:id="rId20"/>
+    <hyperlink ref="G64" r:id="rId21"/>
+    <hyperlink ref="G65" r:id="rId22"/>
+    <hyperlink ref="G66" r:id="rId23"/>
+    <hyperlink ref="G67" r:id="rId24"/>
+    <hyperlink ref="G68" r:id="rId25"/>
+    <hyperlink ref="G72" r:id="rId26"/>
+    <hyperlink ref="G71" r:id="rId27" location="L2797"/>
+    <hyperlink ref="G69" r:id="rId28" location="L253"/>
+    <hyperlink ref="G77" r:id="rId29" location="L14"/>
+    <hyperlink ref="G78" r:id="rId30" location="L114"/>
+    <hyperlink ref="G70" r:id="rId31" location="L12"/>
+    <hyperlink ref="G79" r:id="rId32" display="https://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/logistic_regression.pyhttps://github.com/GispoCoding/eis_toolkit/blob/46cc25c1de69ee8b66c7a752ba5dfa47d33847c1/eis_toolkit/prediction/logistic_regression.py"/>
+    <hyperlink ref="G80" r:id="rId33" location="L7"/>
+    <hyperlink ref="G81" r:id="rId34" location="L3"/>
+    <hyperlink ref="G82" r:id="rId35" location="L12"/>
+    <hyperlink ref="G83" r:id="rId36" location="L98"/>
+    <hyperlink ref="G84" r:id="rId37" location="L11"/>
+    <hyperlink ref="G85" r:id="rId38" display="https://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.pyhttps://github.com/GispoCoding/eis_qgis_plugin/blob/535bcbc77bf937aa6ac70d2a112efb884e290b20/eis_qgis_plugin/eis_processing/algorithms/prediction/regressor_test.py"/>
+    <hyperlink ref="G86" r:id="rId39"/>
+    <hyperlink ref="G87" r:id="rId40"/>
+    <hyperlink ref="G88" r:id="rId41" location="L67"/>
+    <hyperlink ref="G89" r:id="rId42" location="L25"/>
+    <hyperlink ref="G90" r:id="rId43" location="L15"/>
+    <hyperlink ref="G91" r:id="rId44" location="L1273"/>
+    <hyperlink ref="G92" r:id="rId45" location="L39"/>
+    <hyperlink ref="G93" r:id="rId46" location="L82"/>
+    <hyperlink ref="G94" r:id="rId47" location="L11"/>
+    <hyperlink ref="G95" r:id="rId48" location="L13"/>
+    <hyperlink ref="G96" r:id="rId49" location="L76"/>
+    <hyperlink ref="G97" r:id="rId50" location="L133"/>
+    <hyperlink ref="G98" r:id="rId51" location="L344"/>
+    <hyperlink ref="G99" r:id="rId52" location="L24"/>
+    <hyperlink ref="G100" r:id="rId53" location="L241"/>
+    <hyperlink ref="G101" r:id="rId54" location="L187"/>
+    <hyperlink ref="G102" r:id="rId55" location="L414"/>
+    <hyperlink ref="G103" r:id="rId56" location="L57"/>
+    <hyperlink ref="G104" r:id="rId57" location="L11"/>
+    <hyperlink ref="G105" r:id="rId58" location="L9"/>
+    <hyperlink ref="G106" r:id="rId59" location="L11"/>
+    <hyperlink ref="G107" r:id="rId60" location="L12"/>
+    <hyperlink ref="G108" r:id="rId61" location="L10"/>
+    <hyperlink ref="G109" r:id="rId62" location="L25"/>
+    <hyperlink ref="G110" r:id="rId63" location="L43"/>
+    <hyperlink ref="G111" r:id="rId64" location="L50"/>
+    <hyperlink ref="G114" r:id="rId65" location="L55https://github.com/GispoCoding/eis_toolkit/blob/master/eis_toolkit/transformations/winsorize.py"/>
+    <hyperlink ref="G113" r:id="rId66" location="L43"/>
+    <hyperlink ref="G115" r:id="rId67" location="L49"/>
+    <hyperlink ref="G112" r:id="rId68" location="L124"/>
+    <hyperlink ref="G116" r:id="rId69" location="L22"/>
+    <hyperlink ref="G117" r:id="rId70" location="L31"/>
+    <hyperlink ref="G118" r:id="rId71" location="L69"/>
+    <hyperlink ref="G119" r:id="rId72" location="L60"/>
+    <hyperlink ref="G120" r:id="rId73" location="L51"/>
+    <hyperlink ref="G121" r:id="rId74" location="L109"/>
+    <hyperlink ref="G122" r:id="rId75" location="L66"/>
+    <hyperlink ref="G123" r:id="rId76" location="L60"/>
+    <hyperlink ref="G124" r:id="rId77" location="L113"/>
+    <hyperlink ref="G125" r:id="rId78" location="L47"/>
+    <hyperlink ref="G126" r:id="rId79" location="L72"/>
+    <hyperlink ref="G130" r:id="rId80" location="L15"/>
+    <hyperlink ref="G128" r:id="rId81" location="L52"/>
+    <hyperlink ref="G127" r:id="rId82" location="L105"/>
+    <hyperlink ref="G129" r:id="rId83" location="L19"/>
+    <hyperlink ref="G131" r:id="rId84" location="L8"/>
+    <hyperlink ref="G132" r:id="rId85" location="L23"/>
+    <hyperlink ref="G133" r:id="rId86"/>
+    <hyperlink ref="G134" r:id="rId87" location="L31"/>
+    <hyperlink ref="G136" r:id="rId88" location="L48"/>
+    <hyperlink ref="G135" r:id="rId89" location="L83"/>
+    <hyperlink ref="G137" r:id="rId90" location="L14"/>
+    <hyperlink ref="G138" r:id="rId91" location="L18"/>
+    <hyperlink ref="G139" r:id="rId92"/>
+    <hyperlink ref="G140" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId94"/>
@@ -6335,184 +7043,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC374DC0-6B38-44DC-990C-3E2EEBDDFA20}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="3" width="37.44140625" style="71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="85" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="85" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" style="85" customWidth="1"/>
-    <col min="8" max="8" width="65" style="85" customWidth="1"/>
+    <col min="1" max="1" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="37.5" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.75" style="82" customWidth="1"/>
+    <col min="5" max="5" width="34.875" style="82" customWidth="1"/>
+    <col min="6" max="6" width="45.625" style="135" customWidth="1"/>
+    <col min="7" max="7" width="51.125" style="135" customWidth="1"/>
+    <col min="8" max="8" width="65" style="135" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="113"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="152" t="s">
+    <row r="1" spans="1:8" ht="14.45" customHeight="1">
+      <c r="A1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="154"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="157"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="198"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" thickBot="1">
+      <c r="A2" s="199"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="201"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>473</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="121" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="119" t="s">
+    <row r="4" spans="1:8" ht="156.75">
+      <c r="A4" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="76" t="s">
         <v>474</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="75" t="s">
         <v>475</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="79" t="s">
         <v>476</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="79" t="s">
         <v>477</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="79" t="s">
         <v>478</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="84" t="s">
         <v>479</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="84" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
-      <c r="B5" s="78" t="s">
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="164"/>
+      <c r="B5" s="77" t="s">
         <v>481</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="77" t="s">
         <v>483</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="80" t="s">
         <v>482</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="80" t="s">
         <v>485</v>
       </c>
-      <c r="G5" s="89" t="s">
+      <c r="G5" s="85" t="s">
         <v>486</v>
       </c>
-      <c r="H5" s="90" t="s">
+      <c r="H5" s="80" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
-      <c r="B6" s="79" t="s">
+    <row r="6" spans="1:8" ht="57">
+      <c r="A6" s="164"/>
+      <c r="B6" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="78" t="s">
         <v>469</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="81" t="s">
         <v>488</v>
       </c>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="81" t="s">
         <v>487</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="81" t="s">
         <v>489</v>
       </c>
-      <c r="G6" s="91" t="s">
+      <c r="G6" s="86" t="s">
         <v>472</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="86" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="134"/>
-      <c r="B7" s="80" t="s">
+    <row r="7" spans="1:8" ht="57.75" thickBot="1">
+      <c r="A7" s="165"/>
+      <c r="B7" s="137" t="s">
         <v>490</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="137" t="s">
         <v>493</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="138" t="s">
         <v>491</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="139" t="s">
         <v>495</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="139" t="s">
         <v>496</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="140" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="140" t="s">
         <v>494</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="85.5">
+      <c r="A8" s="242" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>586</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="D8" s="136" t="s">
+        <v>483</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>587</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>483</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>588</v>
+      </c>
+      <c r="H8" s="79" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="99.75">
+      <c r="A9" s="243"/>
+      <c r="B9" s="141" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" s="141" t="s">
+        <v>590</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="G9" s="142" t="s">
+        <v>591</v>
+      </c>
+      <c r="H9" s="142" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42.75">
+      <c r="A10" s="243"/>
+      <c r="B10" s="78" t="s">
+        <v>589</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>598</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>596</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>600</v>
+      </c>
+      <c r="F10" s="81" t="s">
+        <v>601</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>599</v>
+      </c>
+      <c r="H10" s="86" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="85.5">
+      <c r="A11" s="243"/>
+      <c r="B11" s="141" t="s">
+        <v>603</v>
+      </c>
+      <c r="C11" s="141" t="s">
+        <v>607</v>
+      </c>
+      <c r="D11" s="143" t="s">
+        <v>604</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="G11" s="142" t="s">
+        <v>606</v>
+      </c>
+      <c r="H11" s="142" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="29.25" thickBot="1">
+      <c r="A12" s="244"/>
+      <c r="B12" s="145" t="s">
+        <v>609</v>
+      </c>
+      <c r="C12" s="145" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" s="146" t="s">
+        <v>610</v>
+      </c>
+      <c r="E12" s="146" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="147" t="s">
+        <v>611</v>
+      </c>
+      <c r="G12" s="148" t="s">
+        <v>612</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="71.25">
+      <c r="A13" s="242" t="s">
+        <v>613</v>
+      </c>
+      <c r="B13" s="149" t="s">
+        <v>614</v>
+      </c>
+      <c r="C13" s="149" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" s="150" t="s">
+        <v>618</v>
+      </c>
+      <c r="E13" s="150" t="s">
+        <v>619</v>
+      </c>
+      <c r="F13" s="150" t="s">
+        <v>616</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>617</v>
+      </c>
+      <c r="H13" s="150" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.75" thickBot="1">
+      <c r="A14" s="245"/>
+      <c r="B14" s="145" t="s">
+        <v>615</v>
+      </c>
+      <c r="C14" s="145" t="s">
+        <v>483</v>
+      </c>
+      <c r="D14" s="147" t="s">
+        <v>620</v>
+      </c>
+      <c r="E14" s="147" t="s">
+        <v>621</v>
+      </c>
+      <c r="F14" s="147" t="s">
+        <v>622</v>
+      </c>
+      <c r="G14" s="148" t="s">
+        <v>623</v>
+      </c>
+      <c r="H14" s="147" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="42.75">
+      <c r="A15" s="254" t="s">
+        <v>624</v>
+      </c>
+      <c r="B15" s="246" t="s">
+        <v>625</v>
+      </c>
+      <c r="C15" s="155" t="s">
+        <v>636</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="E15" s="248" t="s">
+        <v>646</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>635</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="42.75">
+      <c r="A16" s="255"/>
+      <c r="B16" s="247"/>
+      <c r="C16" s="141" t="s">
+        <v>649</v>
+      </c>
+      <c r="D16" s="143" t="s">
+        <v>627</v>
+      </c>
+      <c r="E16" s="249"/>
+      <c r="F16" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="G16" s="142" t="s">
+        <v>648</v>
+      </c>
+      <c r="H16" s="142" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="42.75">
+      <c r="A17" s="255"/>
+      <c r="B17" s="247"/>
+      <c r="C17" s="141" t="s">
+        <v>636</v>
+      </c>
+      <c r="D17" s="143" t="s">
+        <v>628</v>
+      </c>
+      <c r="E17" s="249"/>
+      <c r="F17" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="G17" s="142" t="s">
+        <v>652</v>
+      </c>
+      <c r="H17" s="142" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42.75">
+      <c r="A18" s="255"/>
+      <c r="B18" s="247"/>
+      <c r="C18" s="141" t="s">
+        <v>637</v>
+      </c>
+      <c r="D18" s="143" t="s">
+        <v>629</v>
+      </c>
+      <c r="E18" s="249"/>
+      <c r="F18" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="G18" s="142" t="s">
+        <v>654</v>
+      </c>
+      <c r="H18" s="142" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="42.75">
+      <c r="A19" s="255"/>
+      <c r="B19" s="247"/>
+      <c r="C19" s="141" t="s">
+        <v>629</v>
+      </c>
+      <c r="D19" s="143" t="s">
+        <v>630</v>
+      </c>
+      <c r="E19" s="249"/>
+      <c r="F19" s="152" t="s">
+        <v>656</v>
+      </c>
+      <c r="G19" s="142" t="s">
+        <v>639</v>
+      </c>
+      <c r="H19" s="142" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42.75">
+      <c r="A20" s="255"/>
+      <c r="B20" s="247"/>
+      <c r="C20" s="141" t="s">
+        <v>641</v>
+      </c>
+      <c r="D20" s="143" t="s">
+        <v>631</v>
+      </c>
+      <c r="E20" s="249"/>
+      <c r="F20" s="25" t="s">
+        <v>657</v>
+      </c>
+      <c r="G20" s="142" t="s">
+        <v>658</v>
+      </c>
+      <c r="H20" s="142" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.5">
+      <c r="A21" s="255"/>
+      <c r="B21" s="247"/>
+      <c r="C21" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="252" t="s">
+        <v>632</v>
+      </c>
+      <c r="E21" s="249"/>
+      <c r="F21" s="211" t="s">
+        <v>659</v>
+      </c>
+      <c r="G21" s="250" t="s">
+        <v>660</v>
+      </c>
+      <c r="H21" s="142" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.5">
+      <c r="A22" s="255"/>
+      <c r="B22" s="247"/>
+      <c r="C22" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="247"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="142" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.5">
+      <c r="A23" s="255"/>
+      <c r="B23" s="247"/>
+      <c r="C23" s="141" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="253"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="251"/>
+      <c r="H23" s="142" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="42.75">
+      <c r="A24" s="255"/>
+      <c r="B24" s="247"/>
+      <c r="C24" s="156" t="s">
+        <v>645</v>
+      </c>
+      <c r="D24" s="153" t="s">
+        <v>633</v>
+      </c>
+      <c r="E24" s="249"/>
+      <c r="F24" s="144" t="s">
+        <v>661</v>
+      </c>
+      <c r="G24" s="154" t="s">
+        <v>662</v>
+      </c>
+      <c r="H24" s="144"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.5">
+      <c r="A25" s="255"/>
+      <c r="B25" s="259" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="256" t="s">
+        <v>210</v>
+      </c>
+      <c r="E25" s="257" t="s">
+        <v>674</v>
+      </c>
+      <c r="F25" s="257" t="s">
+        <v>669</v>
+      </c>
+      <c r="G25" s="258" t="s">
+        <v>670</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.5">
+      <c r="A26" s="255"/>
+      <c r="B26" s="259"/>
+      <c r="C26" s="78" t="s">
+        <v>665</v>
+      </c>
+      <c r="D26" s="256"/>
+      <c r="E26" s="257"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="86" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5">
+      <c r="A27" s="255"/>
+      <c r="B27" s="259"/>
+      <c r="C27" s="78" t="s">
+        <v>667</v>
+      </c>
+      <c r="D27" s="256"/>
+      <c r="E27" s="257"/>
+      <c r="F27" s="257"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="86" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.5" thickBot="1">
+      <c r="A28" s="255"/>
+      <c r="B28" s="260"/>
+      <c r="C28" s="145" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="146" t="s">
+        <v>663</v>
+      </c>
+      <c r="E28" s="261"/>
+      <c r="F28" s="147" t="s">
+        <v>672</v>
+      </c>
+      <c r="G28" s="148" t="s">
+        <v>671</v>
+      </c>
+      <c r="H28" s="148" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="57">
+      <c r="A29" s="242" t="s">
+        <v>675</v>
+      </c>
+      <c r="B29" s="155" t="s">
+        <v>676</v>
+      </c>
+      <c r="C29" s="155" t="s">
+        <v>681</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>677</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>678</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="42.75" customHeight="1">
+      <c r="A30" s="243"/>
+      <c r="B30" s="256" t="s">
+        <v>683</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>687</v>
+      </c>
+      <c r="D30" s="256" t="s">
+        <v>689</v>
+      </c>
+      <c r="E30" s="256" t="s">
+        <v>684</v>
+      </c>
+      <c r="F30" s="257" t="s">
+        <v>686</v>
+      </c>
+      <c r="G30" s="258" t="s">
+        <v>685</v>
+      </c>
+      <c r="H30" s="86" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.5">
+      <c r="A31" s="243"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="78" t="s">
+        <v>688</v>
+      </c>
+      <c r="D31" s="256"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="257"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="86" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="85.5">
+      <c r="A32" s="243"/>
+      <c r="B32" s="141" t="s">
+        <v>692</v>
+      </c>
+      <c r="C32" s="141" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="143" t="s">
+        <v>693</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>694</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="G32" s="142" t="s">
+        <v>696</v>
+      </c>
+      <c r="H32" s="142" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="86.25" thickBot="1">
+      <c r="A33" s="244"/>
+      <c r="B33" s="145" t="s">
+        <v>698</v>
+      </c>
+      <c r="C33" s="145" t="s">
+        <v>701</v>
+      </c>
+      <c r="D33" s="159" t="s">
+        <v>699</v>
+      </c>
+      <c r="E33" s="159" t="s">
+        <v>700</v>
+      </c>
+      <c r="F33" s="159" t="s">
+        <v>702</v>
+      </c>
+      <c r="G33" s="148" t="s">
+        <v>703</v>
+      </c>
+      <c r="H33" s="148" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="228">
+      <c r="A34" s="272" t="s">
+        <v>705</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>706</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>712</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>708</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>709</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="H34" s="38" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="57">
+      <c r="A35" s="273"/>
+      <c r="B35" s="78" t="s">
+        <v>713</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>706</v>
+      </c>
+      <c r="D35" s="158" t="s">
+        <v>716</v>
+      </c>
+      <c r="E35" s="157" t="s">
+        <v>718</v>
+      </c>
+      <c r="F35" s="158" t="s">
+        <v>715</v>
+      </c>
+      <c r="G35" s="86" t="s">
+        <v>714</v>
+      </c>
+      <c r="H35" s="86" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="43.5" thickBot="1">
+      <c r="A36" s="274"/>
+      <c r="B36" s="156" t="s">
+        <v>719</v>
+      </c>
+      <c r="C36" s="156" t="s">
+        <v>706</v>
+      </c>
+      <c r="D36" s="153" t="s">
+        <v>722</v>
+      </c>
+      <c r="E36" s="153" t="s">
+        <v>724</v>
+      </c>
+      <c r="F36" s="160" t="s">
+        <v>721</v>
+      </c>
+      <c r="G36" s="154" t="s">
+        <v>720</v>
+      </c>
+      <c r="H36" s="154" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.5">
+      <c r="A37" s="242" t="s">
+        <v>725</v>
+      </c>
+      <c r="B37" s="262" t="s">
+        <v>726</v>
+      </c>
+      <c r="C37" s="76" t="s">
+        <v>719</v>
+      </c>
+      <c r="D37" s="136" t="s">
+        <v>727</v>
+      </c>
+      <c r="E37" s="262" t="s">
+        <v>733</v>
+      </c>
+      <c r="F37" s="79" t="s">
+        <v>734</v>
+      </c>
+      <c r="G37" s="263" t="s">
+        <v>729</v>
+      </c>
+      <c r="H37" s="84" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="243"/>
+      <c r="B38" s="256"/>
+      <c r="C38" s="78" t="s">
+        <v>483</v>
+      </c>
+      <c r="D38" s="161" t="s">
+        <v>730</v>
+      </c>
+      <c r="E38" s="256"/>
+      <c r="F38" s="162" t="s">
+        <v>735</v>
+      </c>
+      <c r="G38" s="258"/>
+      <c r="H38" s="162" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.5">
+      <c r="A39" s="243"/>
+      <c r="B39" s="256"/>
+      <c r="C39" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="162" t="s">
+        <v>732</v>
+      </c>
+      <c r="E39" s="256"/>
+      <c r="F39" s="162" t="s">
+        <v>736</v>
+      </c>
+      <c r="G39" s="258"/>
+      <c r="H39" s="86" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.5">
+      <c r="A40" s="243"/>
+      <c r="B40" s="264" t="s">
+        <v>719</v>
+      </c>
+      <c r="C40" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="265" t="s">
+        <v>737</v>
+      </c>
+      <c r="E40" s="266" t="s">
+        <v>745</v>
+      </c>
+      <c r="F40" s="270" t="s">
+        <v>747</v>
+      </c>
+      <c r="G40" s="267" t="s">
+        <v>746</v>
+      </c>
+      <c r="H40" s="142" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.5">
+      <c r="A41" s="243"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="265"/>
+      <c r="E41" s="266"/>
+      <c r="F41" s="271"/>
+      <c r="G41" s="269"/>
+      <c r="H41" s="142" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.5">
+      <c r="A42" s="243"/>
+      <c r="B42" s="268"/>
+      <c r="C42" s="141" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="143" t="s">
+        <v>740</v>
+      </c>
+      <c r="E42" s="266"/>
+      <c r="F42" s="25" t="s">
+        <v>748</v>
+      </c>
+      <c r="G42" s="269"/>
+      <c r="H42" s="142" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="28.5">
+      <c r="A43" s="243"/>
+      <c r="B43" s="268"/>
+      <c r="C43" s="141" t="s">
+        <v>483</v>
+      </c>
+      <c r="D43" s="143" t="s">
+        <v>742</v>
+      </c>
+      <c r="E43" s="266"/>
+      <c r="F43" s="25" t="s">
+        <v>749</v>
+      </c>
+      <c r="G43" s="269"/>
+      <c r="H43" s="25" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="29.25" thickBot="1">
+      <c r="A44" s="244"/>
+      <c r="B44" s="268"/>
+      <c r="C44" s="156" t="s">
+        <v>744</v>
+      </c>
+      <c r="D44" s="153" t="s">
+        <v>743</v>
+      </c>
+      <c r="E44" s="211"/>
+      <c r="F44" s="160" t="s">
+        <v>750</v>
+      </c>
+      <c r="G44" s="275"/>
+      <c r="H44" s="154" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="43.5" thickBot="1">
+      <c r="A45" s="276" t="s">
+        <v>751</v>
+      </c>
+      <c r="B45" s="277" t="s">
+        <v>752</v>
+      </c>
+      <c r="C45" s="277" t="s">
+        <v>483</v>
+      </c>
+      <c r="D45" s="278" t="s">
+        <v>753</v>
+      </c>
+      <c r="E45" s="279" t="s">
+        <v>755</v>
+      </c>
+      <c r="F45" s="280" t="s">
+        <v>754</v>
+      </c>
+      <c r="G45" s="281" t="s">
+        <v>756</v>
+      </c>
+      <c r="H45" s="280" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="31">
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A36"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="E15:E24"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A15:A28"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="B25:B28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" location="L28" xr:uid="{B04D7226-E4C4-4E3A-B827-04DBB55FE032}"/>
-    <hyperlink ref="G6" r:id="rId2" location="L58" xr:uid="{837C92EE-22AF-4058-B18C-1728F1BA8EB7}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{D44B8646-47EA-420C-86AF-0EEB8F5BCFA0}"/>
-    <hyperlink ref="H4" r:id="rId4" location="L4" xr:uid="{A1715482-93CF-4E16-A269-1E28A4D4075E}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{DBF175BB-DB92-435B-BA52-F606543B824A}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{7C83257E-FE5C-4816-94B0-A7876AC5655C}"/>
-    <hyperlink ref="H7" r:id="rId7" location="L27" xr:uid="{09E0F68D-20AE-49F1-9CDE-11B7767C3377}"/>
+    <hyperlink ref="H6" r:id="rId1" location="L28"/>
+    <hyperlink ref="G6" r:id="rId2" location="L58"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4" location="L4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+    <hyperlink ref="H7" r:id="rId7" location="L27"/>
+    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="G9" r:id="rId9" location="L13"/>
+    <hyperlink ref="H9" r:id="rId10" location="L502"/>
+    <hyperlink ref="H10" r:id="rId11" location="L64"/>
+    <hyperlink ref="G10" r:id="rId12" location="L63"/>
+    <hyperlink ref="G11" r:id="rId13" location="L11"/>
+    <hyperlink ref="H11" r:id="rId14" location="L532"/>
+    <hyperlink ref="G12" r:id="rId15"/>
+    <hyperlink ref="G13" r:id="rId16" location="L80"/>
+    <hyperlink ref="G14" r:id="rId17" location="L41"/>
+    <hyperlink ref="G15" r:id="rId18"/>
+    <hyperlink ref="H18" r:id="rId19" location="L2396"/>
+    <hyperlink ref="G19" r:id="rId20" location="L156"/>
+    <hyperlink ref="H20" r:id="rId21" location="L3734"/>
+    <hyperlink ref="H21" r:id="rId22" location="L8"/>
+    <hyperlink ref="H22" r:id="rId23" location="L8"/>
+    <hyperlink ref="H23" r:id="rId24" location="L10"/>
+    <hyperlink ref="G16" r:id="rId25" location="L61"/>
+    <hyperlink ref="H16" r:id="rId26" location="L15"/>
+    <hyperlink ref="H17" r:id="rId27" location="L2808"/>
+    <hyperlink ref="G17" r:id="rId28" location="L96"/>
+    <hyperlink ref="G18" r:id="rId29" location="L124"/>
+    <hyperlink ref="H19" r:id="rId30" location="L124"/>
+    <hyperlink ref="G20" r:id="rId31" location="L229"/>
+    <hyperlink ref="G21" r:id="rId32" location="L292"/>
+    <hyperlink ref="G24" r:id="rId33" location="L397"/>
+    <hyperlink ref="H25" r:id="rId34" location="L2809"/>
+    <hyperlink ref="H26" r:id="rId35" location="L30"/>
+    <hyperlink ref="H27" r:id="rId36" location="L5"/>
+    <hyperlink ref="G25" r:id="rId37" location="L12"/>
+    <hyperlink ref="G28" r:id="rId38" location="L64"/>
+    <hyperlink ref="H28" r:id="rId39" location="L2858"/>
+    <hyperlink ref="G29" r:id="rId40" location="L45"/>
+    <hyperlink ref="H29" r:id="rId41" location="L1461"/>
+    <hyperlink ref="G30" r:id="rId42"/>
+    <hyperlink ref="H31" r:id="rId43" location="L9"/>
+    <hyperlink ref="H30" r:id="rId44" location="L1513"/>
+    <hyperlink ref="G32" r:id="rId45"/>
+    <hyperlink ref="H32" r:id="rId46" location="L1546"/>
+    <hyperlink ref="G33" r:id="rId47" location="L128"/>
+    <hyperlink ref="H33" r:id="rId48"/>
+    <hyperlink ref="H34" r:id="rId49" location="L1689"/>
+    <hyperlink ref="G34" r:id="rId50"/>
+    <hyperlink ref="G35" r:id="rId51"/>
+    <hyperlink ref="H35" r:id="rId52" location="L13"/>
+    <hyperlink ref="G36" r:id="rId53"/>
+    <hyperlink ref="H36" r:id="rId54" location="L14"/>
+    <hyperlink ref="H37" r:id="rId55" location="L10"/>
+    <hyperlink ref="G37" r:id="rId56"/>
+    <hyperlink ref="H39" r:id="rId57" location="L8"/>
+    <hyperlink ref="H40" r:id="rId58" location="L7"/>
+    <hyperlink ref="H41" r:id="rId59" location="L11"/>
+    <hyperlink ref="H42" r:id="rId60" location="L10"/>
+    <hyperlink ref="H44" r:id="rId61" location="L7"/>
+    <hyperlink ref="G40" r:id="rId62"/>
+    <hyperlink ref="G45" r:id="rId63"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>